--- a/QALD9-Plus-testing/baseline-model/baseline-wikidata-dbpedia/baseline_mistral_dbpedia_results_analysis.xlsx
+++ b/QALD9-Plus-testing/baseline-model/baseline-wikidata-dbpedia/baseline_mistral_dbpedia_results_analysis.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Meine Ablage\Master Thesis\SPARQL-Query-Translation-QALD9\QALD9-Plus-testing\baseline-model\baseline-wikidata-dbpedia\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90FF570B-F738-4BAC-9AE9-1ADC88BC71B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED7C388E-1F1C-4740-8688-1BA00F5EA248}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="708" uniqueCount="461">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="777" uniqueCount="462">
   <si>
     <t>Question</t>
   </si>
@@ -349,306 +349,6 @@
     <t>Who created Goofy?</t>
   </si>
   <si>
-    <t>PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;  SELECT ?founder WHERE {   dbr:Penguin_Books dbo:founder ?founder . }</t>
-  </si>
-  <si>
-    <t>PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;  SELECT ?film WHERE {   dbr:Stanley_Kubrick dbo:director ?film . }</t>
-  </si>
-  <si>
-    <t>PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbp: &lt;http://dbpedia.org/property/&gt; PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;  SELECT ?musical ?musicalLabel WHERE {   ?musical dbo:musicComposer dbr:Elton_John .   ?musical rdf:type dbo:MusicalWork .   ?musical rdfs:label ?musicalLabel .   FILTER (lang(?musicalLabel) = 'en') }</t>
-  </si>
-  <si>
-    <t>PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbr: &lt;http://dbpedia.org/resource/&gt; PREFIX foaf: &lt;http://xmlns.com/foaf/0.1/&gt;  SELECT ?developer WHERE {   dbr:Skype dbo:developer ?developer . }</t>
-  </si>
-  <si>
-    <t>PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbr: &lt;http://dbpedia.org/resource/&gt; PREFIX foaf: &lt;http://xmlns.com/foaf/0.1/&gt;  SELECT ?club ?clubLabel WHERE {   ?club dbo:league dbr:Bundesliga .   ?club a dbo:SoccerClub .   ?club foaf:name ?clubLabel .   FILTER (lang(?clubLabel) = "en") }</t>
-  </si>
-  <si>
-    <t>PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbr: &lt;http://dbpedia.org/resource/&gt; PREFIX dbp: &lt;http://dbpedia.org/property/&gt;  SELECT DISTINCT ?actor ?actorLabel WHERE {   ?movie dbo:director dbr:William_Shatner .   ?movie dbo:starring ?actor .   ?actor rdfs:label ?actorLabel .   FILTER (lang(?actorLabel) = 'en') }</t>
-  </si>
-  <si>
-    <t>PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbp: &lt;http://dbpedia.org/property/&gt;  SELECT ?mountain ?elevation WHERE {   ?mountain a dbo:Mountain ;            dbp:elevation ?elevation . } ORDER BY DESC(?elevation) LIMIT 1</t>
-  </si>
-  <si>
-    <t>PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX res: &lt;http://dbpedia.org/resource/&gt;  SELECT (COUNT(?film) AS ?filmCount) WHERE {   res:Leonardo_DiCaprio dbo:starring ?film .   ?film a dbo:Film . }</t>
-  </si>
-  <si>
-    <t>PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;  SELECT ?deathDate WHERE {   dbr:Olof_Palme dbo:deathDate ?deathDate. }</t>
-  </si>
-  <si>
-    <t>PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;  SELECT DISTINCT ?movie ?movieLabel WHERE {   ?movie dbo:starring dbr:Elizabeth_Taylor .   ?movie dbo:starring dbr:Richard_Burton .   ?movie rdfs:label ?movieLabel .   FILTER (LANG(?movieLabel) = "en") }</t>
-  </si>
-  <si>
-    <t>PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;  SELECT ?developer WHERE {   dbr:Minecraft dbo:developer ?developer . }</t>
-  </si>
-  <si>
-    <t>PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;  SELECT ?cost WHERE {   dbr:The_Lego_Movie dbo:budget ?cost. }</t>
-  </si>
-  <si>
-    <t>PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbr: &lt;http://dbpedia.org/resource/&gt; PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema  SELECT ?label WHERE {   dbr:Elvis_Presley dbo:album ?album .   ?album rdfs:label ?label .   FILTER (lang(?label) = 'en') } ORDER BY ?album LIMIT 1</t>
-  </si>
-  <si>
-    <t>PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;  SELECT ?runtime WHERE {   dbr:Toy_Story dbo:runtime ?runtime. }</t>
-  </si>
-  <si>
-    <t>PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;  SELECT ?trumpetPlayer WHERE {   ?trumpetPlayer dbo:instrument dbr:Trumpet .   ?trumpetPlayer dbo:occupation dbr:Bandleader . }</t>
-  </si>
-  <si>
-    <t>PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbr: &lt;http://dbpedia.org/resource/&gt; PREFIX foaf: &lt;http://xmlns.com/foaf/0.1/&gt;  SELECT DISTINCT ?film ?filmLabel WHERE {   ?film dbo:director dbr:Garry_Marshall ;         dbo:starring dbr:Julia_Roberts .   SERVICE wikibase:label { bd:serviceParam wikibase:language "[AUTO_LANGUAGE],en". } }</t>
-  </si>
-  <si>
-    <t>PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;  SELECT ?birthYear WHERE {   dbr:Rachel_Stevens dbo:birthDate ?birthDate.   BIND(year(?birthDate) AS ?birthYear) }</t>
-  </si>
-  <si>
-    <t>PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbr: &lt;http://dbpedia.org/resource/&gt; PREFIX dbp: &lt;http://dbpedia.org/property/&gt;  SELECT ?cause (COUNT(?death) AS ?count) WHERE {   ?cause dbo:causeOfDeath ?death. } GROUP BY ?cause ORDER BY DESC(?count) LIMIT 1</t>
-  </si>
-  <si>
-    <t>PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbp: &lt;http://dbpedia.org/property/&gt; PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;  SELECT ?height WHERE {   dbr:Yokohama_Marine_Tower dbp:height ?height. }</t>
-  </si>
-  <si>
-    <t>PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbr: &lt;http://dbpedia.org/resource/&gt; PREFIX dbp: &lt;http://dbpedia.org/property/&gt;  SELECT ?mountain ?elevation WHERE {   ?mountain dbo:location dbr:Italy ;             dbp:elevation ?elevation . } ORDER BY DESC(?elevation) LIMIT 1</t>
-  </si>
-  <si>
-    <t>```sparql PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;  SELECT ?supervisor WHERE {   dbr:Albert_Einstein dbo:doctoralAdvisor ?supervisor. } ```</t>
-  </si>
-  <si>
-    <t>PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbp: &lt;http://dbpedia.org/property/&gt; PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;  SELECT ?business WHERE {   dbr:Donald_Trump dbo:occupation ?business . }</t>
-  </si>
-  <si>
-    <t>PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbr: &lt;http://dbpedia.org/resource/&gt; SELECT ?spouse WHERE {   dbr:Tom_Cruise dbo:spouse ?spouse. }</t>
-  </si>
-  <si>
-    <t>&lt;sparql&gt; PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbp: &lt;http://dbpedia.org/property/&gt; PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;  SELECT ?population WHERE {   dbr:Eurasia dbp:populationEstimate ?population. } &lt;/sparql&gt;</t>
-  </si>
-  <si>
-    <t>PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbp: &lt;http://dbpedia.org/property/&gt;  SELECT ?author WHERE {   ?book dbo:author ?author .   ?book dbp:name "The Interpretation of Dreams"@en . }</t>
-  </si>
-  <si>
-    <t>PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbr: &lt;http://dbpedia.org/resource/&gt; SELECT ?birthDate WHERE {   dbr:John_Adams dbo:birthDate ?birthDate . }</t>
-  </si>
-  <si>
-    <t>PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;  SELECT ?population WHERE {   dbr:European_Union dbo:populationTotal ?population . }</t>
-  </si>
-  <si>
-    <t>PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbr: &lt;http://dbpedia.org/resource/&gt; PREFIX dbp: &lt;http://dbpedia.org/property/&gt;  SELECT ?currency WHERE {   dbr:China dbo:currency ?currency . }</t>
-  </si>
-  <si>
-    <t>PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX res: &lt;http://dbpedia.org/resource/&gt; SELECT ?deathDate WHERE {   res:William_Shakespeare dbo:deathDate ?deathDate . }</t>
-  </si>
-  <si>
-    <t>PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbr: &lt;http://dbpedia.org/resource/&gt; PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema  SELECT ?rocket ?rocketLabel WHERE {   ?rocket dbo:launchSite dbr:Baikonur_Cosmodrome.   ?rocket rdfs:label ?rocketLabel.   FILTER (lang(?rocketLabel) = 'en') }</t>
-  </si>
-  <si>
-    <t>PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbr: &lt;http://dbpedia.org/resource/&gt; PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema  SELECT ?island ?islandLabel WHERE {   ?island dbo:location dbr:Japan ;           rdf:type dbo:Island .   SERVICE wikibase:label { bd:serviceParam wikibase:language "[AUTO_LANGUAGE],en". } }</t>
-  </si>
-  <si>
-    <t>PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbp: &lt;http://dbpedia.org/property/&gt; PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;  SELECT ?developer WHERE {   dbr:World_of_Warcraft dbo:developer ?developer. }</t>
-  </si>
-  <si>
-    <t>PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbp: &lt;http://dbpedia.org/property/&gt; PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;  SELECT ?company ?companyLabel WHERE {   ?company dbo:industry dbr:Advertising .   SERVICE wikibase:label { bd:serviceParam wikibase:language "[AUTO_LANGUAGE],en". } }</t>
-  </si>
-  <si>
-    <t>PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;  SELECT ?university WHERE {   dbr:Angela_Merkel dbo:almaMater ?university. }</t>
-  </si>
-  <si>
-    <t>PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbp: &lt;http://dbpedia.org/property/&gt; PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;  SELECT ?tvShow ?tvShowLabel WHERE {   ?tvShow dbo:starring dbr:Neil_Patrick_Harris .   ?tvShow a dbo:TelevisionShow .   OPTIONAL { ?tvShow dbp:name ?tvShowLabel } }</t>
-  </si>
-  <si>
-    <t>PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;  SELECT ?movie ?movieLabel WHERE {   ?movie dbo:starring dbr:Tom_Cruise .   ?movie rdfs:label ?movieLabel .   FILTER (lang(?movieLabel) = 'en') }</t>
-  </si>
-  <si>
-    <t>PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbp: &lt;http://dbpedia.org/property/&gt;  SELECT ?country WHERE {   &lt;http://dbpedia.org/resource/Mount_Everest&gt; dbo:country ?country. }</t>
-  </si>
-  <si>
-    <t>PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;  SELECT ?assassinationLocation WHERE {   dbr:John_F._Kennedy dbo:deathPlace ?assassinationLocation . }</t>
-  </si>
-  <si>
-    <t>PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbp: &lt;http://dbpedia.org/property/&gt; PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;  SELECT ?river WHERE {   dbr:Brooklyn_Bridge dbo:crosses ?river. }</t>
-  </si>
-  <si>
-    <t>PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbr: &lt;http://dbpedia.org/resource/&gt; PREFIX foaf: &lt;http://xmlns.com/foaf/0.1/&gt;  SELECT ?swimmer ?swimmerLabel WHERE {   ?swimmer dbo:occupation dbr:Swimmer ;            dbo:birthPlace dbr:Moscow .   OPTIONAL { ?swimmer foaf:name ?swimmerLabel } } LIMIT 100</t>
-  </si>
-  <si>
-    <t>PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbr: &lt;http://dbpedia.org/resource/&gt; PREFIX dbp: &lt;http://dbpedia.org/property/&gt;  SELECT ?movie ?movieLabel WHERE {   dbr:Alec_Guinness dbo:starring ?movie .   ?movie dbp:releaseDate ?date . } ORDER BY DESC(?date) LIMIT 1</t>
-  </si>
-  <si>
-    <t>PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;  SELECT ?mountain ?elevation WHERE {   ?mountain a dbo:Mountain ;            dbo:elevation ?elevation . } ORDER BY DESC(?elevation) LIMIT 1 OFFSET 1</t>
-  </si>
-  <si>
-    <t>PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX res: &lt;http://dbpedia.org/resource/&gt;  SELECT ?population WHERE {   res:Cairo dbo:populationTotal ?population . }</t>
-  </si>
-  <si>
-    <t>PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;  SELECT ?person ?personLabel WHERE {   ?person dbo:birthPlace dbr:Heraklion .   ?person rdfs:label ?personLabel .   FILTER (lang(?personLabel) = "en") } ORDER BY ?personLabel</t>
-  </si>
-  <si>
-    <t>PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;  SELECT (COUNT(?child) AS ?numberOfChildren) WHERE {   dbr:Benjamin_Franklin dbo:child ?child. }</t>
-  </si>
-  <si>
-    <t>PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbr: &lt;http://dbpedia.org/resource/&gt; PREFIX dbp: &lt;http://dbpedia.org/property/&gt;  SELECT ?elevation WHERE {   dbr:Düsseldorf_Airport dbo:elevation ?elevation. }</t>
-  </si>
-  <si>
-    <t>PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbp: &lt;http://dbpedia.org/property/&gt; PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;  SELECT ?country WHERE {   dbr:Mecca dbo:country ?country. }</t>
-  </si>
-  <si>
-    <t>PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbp: &lt;http://dbpedia.org/property/&gt; PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;  SELECT ?height WHERE {   dbr:Claudia_Schiffer dbp:height ?height . }</t>
-  </si>
-  <si>
-    <t>PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbp: &lt;http://dbpedia.org/property/&gt;  SELECT ?author WHERE {   ?book dbo:wikiPageRedirects* &lt;http://dbpedia.org/resource/The_Pillars_of_the_Earth&gt; .   ?book dbo:author ?author . }</t>
-  </si>
-  <si>
-    <t>PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbr: &lt;http://dbpedia.org/resource/&gt; PREFIX dbp: &lt;http://dbpedia.org/property/&gt;  SELECT ?genre WHERE {   dbr:Lou_Reed dbo:genre ?genre. }</t>
-  </si>
-  <si>
-    <t>PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbp: &lt;http://dbpedia.org/property/&gt; PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;  SELECT ?birthPlace WHERE {   dbr:Frank_Sinatra dbo:birthPlace ?birthPlace. }</t>
-  </si>
-  <si>
-    <t>PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;  SELECT ?city ?population WHERE {   ?city rdf:type dbo:City .   ?city dbo:populationTotal ?population . } ORDER BY ASC(?population) LIMIT 1</t>
-  </si>
-  <si>
-    <t>PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbr: &lt;http://dbpedia.org/resource/&gt; PREFIX dbp: &lt;http://dbpedia.org/property/&gt;  SELECT ?tvShow WHERE {   ?tvShow dbo:creator dbr:Walt_Disney .   ?tvShow rdf:type dbo:TelevisionShow . }</t>
-  </si>
-  <si>
-    <t>PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbr: &lt;http://dbpedia.org/resource/&gt; PREFIX dbp: &lt;http://dbpedia.org/property/&gt;  SELECT ?holiday ?holidayLabel WHERE {   ?holiday dbo:country dbr:Sweden ;            a dbo:Holiday .   SERVICE wikibase:label { bd:serviceParam wikibase:language "[AUTO_LANGUAGE],en". } }</t>
-  </si>
-  <si>
-    <t>PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbr: &lt;http://dbpedia.org/resource/&gt; PREFIX dbp: &lt;http://dbpedia.org/property/&gt;  SELECT ?netIncome WHERE {   dbr:Apple_Inc. dbp:netIncome ?netIncome . }</t>
-  </si>
-  <si>
-    <t>PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX res: &lt;http://dbpedia.org/resource/&gt;  SELECT ?deathPlace WHERE {   res:Abraham_Lincoln dbo:deathPlace ?deathPlace . }</t>
-  </si>
-  <si>
-    <t>PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbr: &lt;http://dbpedia.org/resource/&gt; PREFIX foaf: &lt;http://xmlns.com/foaf/0.1/&gt;  SELECT ?country ?capital WHERE {   dbr:Himalayas dbo:location ?country.   ?country dbo:capital ?capital. }</t>
-  </si>
-  <si>
-    <t>PREFIX dbp: &lt;http://dbpedia.org/property/&gt; PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt; PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema  SELECT ?country WHERE {   ?lake rdfs:label "Limerick Lake"@en .   ?lake dbo:location ?country . }</t>
-  </si>
-  <si>
-    <t>PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX res: &lt;http://dbpedia.org/resource/&gt;  SELECT ?height WHERE {   res:Michael_Jordan dbo:height ?height. }</t>
-  </si>
-  <si>
-    <t>PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;  SELECT ?film ?filmLabel WHERE {   ?film dbo:starring dbr:Clint_Eastwood ;         dbo:director dbr:Clint_Eastwood .   SERVICE wikibase:label { bd:serviceParam wikibase:language "[AUTO_LANGUAGE],en". } }</t>
-  </si>
-  <si>
-    <t>&lt;sparql&gt; PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbp: &lt;http://dbpedia.org/property/&gt; PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;  SELECT ?country ?countryLabel WHERE {   ?country dbo:currency dbr:West_African_CFA_franc .   ?country rdfs:label ?countryLabel .   FILTER (lang(?countryLabel) = 'en') } &lt;/sparql&gt;</t>
-  </si>
-  <si>
-    <t>PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX res: &lt;http://dbpedia.org/resource/&gt;  SELECT ?population WHERE {   res:Iraq dbo:populationTotal ?population. }</t>
-  </si>
-  <si>
-    <t>PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbr: &lt;http://dbpedia.org/resource/&gt; PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema  SELECT ?holiday ?holidayLabel WHERE {   ?holiday a dbo:Holiday .   ?holiday rdfs:label ?holidayLabel .   FILTER (lang(?holidayLabel) = 'en') } ORDER BY ?holidayLabel</t>
-  </si>
-  <si>
-    <t>PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbp: &lt;http://dbpedia.org/property/&gt; PREFIX dbr: &lt;http://dbpedia.org/resource/&gt; PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns  SELECT ?party ?partyLabel WHERE {   ?party rdf:type dbo:PoliticalParty ;          dbo:country dbr:Greece ;          dbp:position dbp:pro-European .   SERVICE wikibase:label { bd:serviceParam wikibase:language "[AUTO_LANGUAGE],en". } }</t>
-  </si>
-  <si>
-    <t>PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbp: &lt;http://dbpedia.org/property/&gt; PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;  SELECT ?actor ?birthday WHERE {   ?show dbo:wikiPageID 384682 .    ?show dbo:starring ?actor .   ?actor dbp:birthDate ?birthday . }</t>
-  </si>
-  <si>
-    <t>PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbp: &lt;http://dbpedia.org/property/&gt; PREFIX dbr: &lt;http://dbpedia.org/resource/&gt; PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema  SELECT ?movement WHERE {     dbr:The_Three_Dancers dbp:artist ?artist .     ?artist dbo:movement ?movement . }</t>
-  </si>
-  <si>
-    <t>PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbr: &lt;http://dbpedia.org/resource/&gt; PREFIX dbp: &lt;http://dbpedia.org/property/&gt;  SELECT ?actor ?actorLabel WHERE {   ?actor dbo:birthPlace dbr:Germany .   ?actor dbo:occupation dbr:Actor .   SERVICE wikibase:label { bd:serviceParam wikibase:language "[AUTO_LANGUAGE],en". } }</t>
-  </si>
-  <si>
-    <t>PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbp: &lt;http://dbpedia.org/property/&gt; PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;  SELECT ?designer WHERE {   dbr:Brooklyn_Bridge dbp:designer ?designer . }</t>
-  </si>
-  <si>
-    <t>PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbp: &lt;http://dbpedia.org/property/&gt; PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;  SELECT ?composer WHERE {   dbr:Game_of_Thrones_(TV_series) dbp:musicComposer ?composer. }</t>
-  </si>
-  <si>
-    <t>PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX res: &lt;http://dbpedia.org/resource/&gt;  SELECT ?movie WHERE {   ?movie dbo:director res:Francis_Ford_Coppola . }</t>
-  </si>
-  <si>
-    <t>PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbr: &lt;http://dbpedia.org/resource/&gt; PREFIX dbp: &lt;http://dbpedia.org/property/&gt;  SELECT ?birthName WHERE {   dbr:Adele dbp:birthName ?birthName. }</t>
-  </si>
-  <si>
-    <t>PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbp: &lt;http://dbpedia.org/property/&gt; PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;  SELECT ?album ?albumLabel ?releaseDate WHERE {   ?album dbo:artist dbr:Queen_(band) ;          dbp:releaseDate ?releaseDate .   FILTER NOT EXISTS {     ?otherAlbum dbo:artist dbr:Queen_(band) ;                 dbp:releaseDate ?otherReleaseDate .     FILTER (?otherReleaseDate &lt; ?releaseDate)   }   SERVICE wikibase:label { bd:serviceParam wikibase:language "[AUTO_LANGUAGE],en". } } ORDER BY ?releaseDate LIMIT 1</t>
-  </si>
-  <si>
-    <t>PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbr: &lt;http://dbpedia.org/resource/&gt; SELECT ?currency WHERE {   dbr:Czech_Republic dbo:currency ?currency. }</t>
-  </si>
-  <si>
-    <t>PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbp: &lt;http://dbpedia.org/property/&gt; PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;  SELECT ?person ?personLabel WHERE {   ?person dbo:birthPlace dbr:Vienna.   ?person dbo:deathPlace dbr:Berlin.   SERVICE wikibase:label { bd:serviceParam wikibase:language "[AUTO_LANGUAGE],en". } }</t>
-  </si>
-  <si>
-    <t>PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbp: &lt;http://dbpedia.org/property/&gt; PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;  SELECT ?bridge ?bridgeLabel WHERE {   ?bridge dbo:crosses dbr:Seine ;          rdfs:label ?bridgeLabel .   FILTER (lang(?bridgeLabel) = 'en') }</t>
-  </si>
-  <si>
-    <t>PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbr: &lt;http://dbpedia.org/resource/&gt; PREFIX dbp: &lt;http://dbpedia.org/property/&gt;  SELECT ?musician (COUNT(?book) AS ?bookCount) WHERE {   ?musician dbo:occupation dbr:Musician .   ?musician dbp:author ?book . } GROUP BY ?musician ORDER BY DESC(?bookCount) LIMIT 1</t>
-  </si>
-  <si>
-    <t>PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbr: &lt;http://dbpedia.org/resource/&gt; PREFIX dbp: &lt;http://dbpedia.org/property/&gt;  SELECT ?show ?showLabel WHERE {   ?show dbo:creator dbr:John_Cleese .   ?show rdf:type dbo:TelevisionShow .   ?show rdfs:label ?showLabel .   FILTER (lang(?showLabel) = 'en') }</t>
-  </si>
-  <si>
-    <t>PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbp: &lt;http://dbpedia.org/property/&gt; PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;  SELECT ?writer ?writerLabel WHERE {   ?writer dbo:award dbr:Nobel_Prize_in_Literature.   ?writer rdfs:label ?writerLabel.   FILTER(LANG(?writerLabel) = "en") }</t>
-  </si>
-  <si>
-    <t>PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;  SELECT ?discoverer WHERE {   dbr:Ceres_(dwarf_planet) dbo:discoverer ?discoverer . }</t>
-  </si>
-  <si>
-    <t>PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbr: &lt;http://dbpedia.org/resource/&gt; PREFIX dbp: &lt;http://dbpedia.org/property/&gt;  SELECT ?bandleader ?bandleaderLabel WHERE {   ?bandleader a dbo:Bandleader ;               dbo:instrument dbr:Trumpet .   SERVICE wikibase:label { bd:serviceParam wikibase:language "[AUTO_LANGUAGE],en". } }</t>
-  </si>
-  <si>
-    <t>PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbr: &lt;http://dbpedia.org/resource/&gt; PREFIX dbp: &lt;http://dbpedia.org/property/&gt;  SELECT ?player ?playerName ?height WHERE {   ?player dbo:height ?height .   ?player dbo:sport dbr:Basketball .   ?player foaf:name ?playerName .   FILTER (?height &gt; 2.0) }</t>
-  </si>
-  <si>
-    <t>PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;  SELECT DISTINCT ?film WHERE {   ?film dbo:starring dbr:Julia_Roberts .   ?film dbo:starring dbr:Richard_Gere . }</t>
-  </si>
-  <si>
-    <t>PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbp: &lt;http://dbpedia.org/property/&gt;  SELECT ?capital WHERE {   ?country dbo:capital ?capital .   ?country dbp:name "Canada"@en . }</t>
-  </si>
-  <si>
-    <t>PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbp: &lt;http://dbpedia.org/property/&gt; PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;  SELECT ?player ?playerLabel WHERE {   ?player dbo:birthPlace dbr:Malta ;           dbo:profession dbr:Soccer_player .   SERVICE wikibase:label { bd:serviceParam wikibase:language "[AUTO_LANGUAGE],en". } }</t>
-  </si>
-  <si>
-    <t>PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbp: &lt;http://dbpedia.org/property/&gt; PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;  SELECT ?capital WHERE {   dbr:Cameroon dbo:capital ?capital. }</t>
-  </si>
-  <si>
-    <t>SELECT (COUNT(?lang) AS ?count) WHERE {   ?lang rdf:type dbo:ProgrammingLanguage . }</t>
-  </si>
-  <si>
-    <t>&lt;sparql&gt; SELECT ?cosmonaut ?cosmonautLabel WHERE {   ?cosmonaut dbo:occupation dbr:Cosmonaut ;              rdfs:label ?cosmonautLabel .   FILTER (lang(?cosmonautLabel) = 'en') } ORDER BY ?cosmonautLabel &lt;/sparql&gt;</t>
-  </si>
-  <si>
-    <t>PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;  SELECT ?creator WHERE {   dbr:Family_Guy dbo:creator ?creator . }</t>
-  </si>
-  <si>
-    <t>PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX res: &lt;http://dbpedia.org/resource/&gt;  SELECT ?population WHERE {   res:Mexico_City dbo:populationTotal ?population . }</t>
-  </si>
-  <si>
-    <t>PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbr: &lt;http://dbpedia.org/resource/&gt; PREFIX dbp: &lt;http://dbpedia.org/property/&gt;  SELECT ?creator WHERE {   dbr:Batman dbo:creator ?creator. }</t>
-  </si>
-  <si>
-    <t>PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbp: &lt;http://dbpedia.org/property/&gt; PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;  SELECT ?population WHERE {   dbr:Australia dbo:capital ?capital .   ?capital dbp:populationTotal ?population . }</t>
-  </si>
-  <si>
-    <t>PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbp: &lt;http://dbpedia.org/property/&gt; PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;  SELECT ?area WHERE {   dbr:North_Rhine-Westphalia dbo:area ?area. }</t>
-  </si>
-  <si>
-    <t>PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX res: &lt;http://dbpedia.org/resource/&gt;  SELECT ?employees WHERE {   res:IBM dbo:numberOfEmployees ?employees . }</t>
-  </si>
-  <si>
-    <t>PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;  SELECT ?budget WHERE {   dbr:Pulp_Fiction dbo:budget ?budget. }</t>
-  </si>
-  <si>
-    <t>PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbp: &lt;http://dbpedia.org/property/&gt; PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;  SELECT ?film WHERE {   dbr:Jesse_Eisenberg dbo:starring ?film. }</t>
-  </si>
-  <si>
-    <t>PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbp: &lt;http://dbpedia.org/property/&gt; PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;  SELECT ?movie ?movieLabel WHERE {   ?movie dbo:country dbr:Denmark .   ?movie rdf:type dbo:Film .   SERVICE wikibase:label { bd:serviceParam wikibase:language "[AUTO_LANGUAGE],en". } }</t>
-  </si>
-  <si>
-    <t>PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbr: &lt;http://dbpedia.org/resource/&gt; PREFIX dbp: &lt;http://dbpedia.org/property/&gt; PREFIX geo: &lt;http://www.w3.org/2003/01/geo/wgs84_pos  SELECT ?country WHERE {   dbr:Himalayas dbo:location ?country.   ?country a dbo:Country. }</t>
-  </si>
-  <si>
-    <t>PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;  SELECT ?country ?countryLabel ?area WHERE {   ?country dbo:area ?area .   ?country a dbo:Country .   SERVICE wikibase:label { bd:serviceParam wikibase:language "[AUTO_LANGUAGE],en". } } ORDER BY DESC(?area) LIMIT 1</t>
-  </si>
-  <si>
-    <t>PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX res: &lt;http://dbpedia.org/resource/&gt;  SELECT ?almaMater WHERE {   res:Angela_Merkel dbo:almaMater ?almaMater. }</t>
-  </si>
-  <si>
-    <t>PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;  SELECT ?creatorLabel WHERE {   dbr:Goofy dbo:creator ?creator .   ?creator rdfs:label ?creatorLabel .   FILTER (LANG(?creatorLabel) = "en") }</t>
-  </si>
-  <si>
     <t>PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX res: &lt;http://dbpedia.org/resource/&gt; PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt; SELECT DISTINCT ?uri WHERE { res:Penguin_Books dbo:founder ?uri }</t>
   </si>
   <si>
@@ -1271,219 +971,1084 @@
   </si>
   <si>
     <t>None</t>
+  </si>
+  <si>
+    <t>Structural Error</t>
+  </si>
+  <si>
+    <t>Query Bad Formed</t>
+  </si>
+  <si>
+    <t>Missing rdf:type</t>
+  </si>
+  <si>
+    <t>Ontology treated as Resource</t>
+  </si>
+  <si>
+    <t>Wrong Ontology</t>
+  </si>
+  <si>
+    <t>Error Category 2</t>
+  </si>
+  <si>
+    <t>Error Category 3</t>
+  </si>
+  <si>
+    <t>Error Category 4</t>
+  </si>
+  <si>
+    <t>Wrong Resource</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX dbp: &lt;http://dbpedia.org/property/&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;  SELECT ?founder WHERE {   dbr:Penguin_Books dbo:founder ?founder . }</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX dbp: &lt;http://dbpedia.org/property/&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;  SELECT ?film WHERE {   dbr:Stanley_Kubrick dbo:director ?film . }</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbp: &lt;http://dbpedia.org/property/&gt; PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;  SELECT ?musical ?musicalLabel WHERE {   ?musical dbo:musicComposer dbr:Elton_John .   ?musical rdf:type dbo:MusicalWork .   ?musical rdfs:label ?musicalLabel .   FILTER (lang(?musicalLabel) = 'en') }</t>
   </si>
   <si>
     <t>QueryBadFormed: A bad request has been sent to the endpoint: probably the SPARQL query is badly formed. 
 Response:
-b'{\n    "exception": "Invalid SPARQL query: Prefix rdf was not registered using a PREFIX declaration",\n    "metadata": {\n        "line": 1,\n        "positionInLine": 225,\n        "query": "PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbp: &lt;http://dbpedia.org/property/&gt; PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;  SELECT ?musical ?musicalLabel WHERE {   ?musical dbo:musicComposer dbr:Elton_John .   ?musical rdf:type dbo:MusicalWork .   ?musical rdfs:label ?musicalLabel .   FILTER (lang(?musicalLabel) = \'en\') }",\n        "startIndex": 225,\n        "stopIndex": 232\n    },\n    "query": "PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbp: &lt;http://dbpedia.org/property/&gt; PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;  SELECT ?musical ?musicalLabel WHERE {   ?musical dbo:musicComposer dbr:Elton_John .   ?musical rdf:type dbo:MusicalWork .   ?musical rdfs:label ?musicalLabel .   FILTER (lang(?musicalLabel) = \'en\') }",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 1,\n        "total": 1\n    }\n}'</t>
+b'{\n    "exception": "Invalid SPARQL query: Prefix rdfs was not registered using a PREFIX declaration",\n    "metadata": {\n        "line": 6,\n        "positionInLine": 263,\n        "query": "PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;\\nPREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;\\nPREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;\\nPREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;\\nPREFIX dct: &lt;http://purl.org/dc/terms/&gt;\\nPREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbp: &lt;http://dbpedia.org/property/&gt; PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;  SELECT ?musical ?musicalLabel WHERE {   ?musical dbo:musicComposer dbr:Elton_John .   ?musical rdf:type dbo:MusicalWork .   ?musical rdfs:label ?musicalLabel .   FILTER (lang(?musicalLabel) = \'en\') }",\n        "startIndex": 511,\n        "stopIndex": 520\n    },\n    "query": "PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;\\nPREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;\\nPREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;\\nPREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;\\nPREFIX dct: &lt;http://purl.org/dc/terms/&gt;\\nPREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbp: &lt;http://dbpedia.org/property/&gt; PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;  SELECT ?musical ?musicalLabel WHERE {   ?musical dbo:musicComposer dbr:Elton_John .   ?musical rdf:type dbo:MusicalWork .   ?musical rdfs:label ?musicalLabel .   FILTER (lang(?musicalLabel) = \'en\') }",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 1,\n        "total": 1\n    }\n}'</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX dbp: &lt;http://dbpedia.org/property/&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbr: &lt;http://dbpedia.org/resource/&gt; PREFIX foaf: &lt;http://xmlns.com/foaf/0.1/&gt;  SELECT ?developer WHERE {   dbr:Skype dbo:developer ?developer . }</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX dbp: &lt;http://dbpedia.org/property/&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbr: &lt;http://dbpedia.org/resource/&gt; PREFIX foaf: &lt;http://xmlns.com/foaf/0.1/&gt;  SELECT ?club ?clubLabel WHERE {   ?club dbo:league dbr:Bundesliga .   ?club a dbo:SoccerClub .   ?club foaf:name ?clubLabel .   FILTER (lang(?clubLabel) = "en") }</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbr: &lt;http://dbpedia.org/resource/&gt; PREFIX dbp: &lt;http://dbpedia.org/property/&gt;  SELECT DISTINCT ?actor ?actorLabel WHERE {   ?movie dbo:director dbr:William_Shatner .   ?movie dbo:starring ?actor .   ?actor rdfs:label ?actorLabel .   FILTER (lang(?actorLabel) = 'en') }</t>
   </si>
   <si>
     <t>QueryBadFormed: A bad request has been sent to the endpoint: probably the SPARQL query is badly formed. 
 Response:
-b'{\n    "exception": "Invalid SPARQL query: Prefix rdfs was not registered using a PREFIX declaration",\n    "metadata": {\n        "line": 1,\n        "positionInLine": 257,\n        "query": "PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbr: &lt;http://dbpedia.org/resource/&gt; PREFIX dbp: &lt;http://dbpedia.org/property/&gt;  SELECT DISTINCT ?actor ?actorLabel WHERE {   ?movie dbo:director dbr:William_Shatner .   ?movie dbo:starring ?actor .   ?actor rdfs:label ?actorLabel .   FILTER (lang(?actorLabel) = \'en\') }",\n        "startIndex": 257,\n        "stopIndex": 266\n    },\n    "query": "PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbr: &lt;http://dbpedia.org/resource/&gt; PREFIX dbp: &lt;http://dbpedia.org/property/&gt;  SELECT DISTINCT ?actor ?actorLabel WHERE {   ?movie dbo:director dbr:William_Shatner .   ?movie dbo:starring ?actor .   ?actor rdfs:label ?actorLabel .   FILTER (lang(?actorLabel) = \'en\') }",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 1,\n        "total": 1\n    }\n}'</t>
+b'{\n    "exception": "Invalid SPARQL query: Prefix rdfs was not registered using a PREFIX declaration",\n    "metadata": {\n        "line": 6,\n        "positionInLine": 257,\n        "query": "PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;\\nPREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;\\nPREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;\\nPREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;\\nPREFIX dct: &lt;http://purl.org/dc/terms/&gt;\\nPREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbr: &lt;http://dbpedia.org/resource/&gt; PREFIX dbp: &lt;http://dbpedia.org/property/&gt;  SELECT DISTINCT ?actor ?actorLabel WHERE {   ?movie dbo:director dbr:William_Shatner .   ?movie dbo:starring ?actor .   ?actor rdfs:label ?actorLabel .   FILTER (lang(?actorLabel) = \'en\') }",\n        "startIndex": 505,\n        "stopIndex": 514\n    },\n    "query": "PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;\\nPREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;\\nPREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;\\nPREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;\\nPREFIX dct: &lt;http://purl.org/dc/terms/&gt;\\nPREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbr: &lt;http://dbpedia.org/resource/&gt; PREFIX dbp: &lt;http://dbpedia.org/property/&gt;  SELECT DISTINCT ?actor ?actorLabel WHERE {   ?movie dbo:director dbr:William_Shatner .   ?movie dbo:starring ?actor .   ?actor rdfs:label ?actorLabel .   FILTER (lang(?actorLabel) = \'en\') }",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 1,\n        "total": 1\n    }\n}'</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbp: &lt;http://dbpedia.org/property/&gt;  SELECT ?mountain ?elevation WHERE {   ?mountain a dbo:Mountain ;            dbp:elevation ?elevation . } ORDER BY DESC(?elevation) LIMIT 1</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;
+PREFIX dbp: &lt;http://dbpedia.org/property/&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX res: &lt;http://dbpedia.org/resource/&gt;  SELECT (COUNT(?film) AS ?filmCount) WHERE {   res:Leonardo_DiCaprio dbo:starring ?film .   ?film a dbo:Film . }</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX dbp: &lt;http://dbpedia.org/property/&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;  SELECT ?deathDate WHERE {   dbr:Olof_Palme dbo:deathDate ?deathDate. }</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX dbp: &lt;http://dbpedia.org/property/&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;  SELECT DISTINCT ?movie ?movieLabel WHERE {   ?movie dbo:starring dbr:Elizabeth_Taylor .   ?movie dbo:starring dbr:Richard_Burton .   ?movie rdfs:label ?movieLabel .   FILTER (LANG(?movieLabel) = "en") }</t>
   </si>
   <si>
     <t>QueryBadFormed: A bad request has been sent to the endpoint: probably the SPARQL query is badly formed. 
 Response:
-b'{\n    "exception": "Invalid SPARQL query: Prefix rdfs was not registered using a PREFIX declaration",\n    "metadata": {\n        "line": 1,\n        "positionInLine": 227,\n        "query": "PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;  SELECT DISTINCT ?movie ?movieLabel WHERE {   ?movie dbo:starring dbr:Elizabeth_Taylor .   ?movie dbo:starring dbr:Richard_Burton .   ?movie rdfs:label ?movieLabel .   FILTER (LANG(?movieLabel) = \\"en\\") }",\n        "startIndex": 227,\n        "stopIndex": 236\n    },\n    "query": "PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;  SELECT DISTINCT ?movie ?movieLabel WHERE {   ?movie dbo:starring dbr:Elizabeth_Taylor .   ?movie dbo:starring dbr:Richard_Burton .   ?movie rdfs:label ?movieLabel .   FILTER (LANG(?movieLabel) = \\"en\\") }",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 1,\n        "total": 1\n    }\n}'</t>
+b'{\n    "exception": "Invalid SPARQL query: Prefix rdfs was not registered using a PREFIX declaration",\n    "metadata": {\n        "line": 7,\n        "positionInLine": 227,\n        "query": "PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;\\nPREFIX dbp: &lt;http://dbpedia.org/property/&gt;\\nPREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;\\nPREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;\\nPREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;\\nPREFIX dct: &lt;http://purl.org/dc/terms/&gt;\\nPREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;  SELECT DISTINCT ?movie ?movieLabel WHERE {   ?movie dbo:starring dbr:Elizabeth_Taylor .   ?movie dbo:starring dbr:Richard_Burton .   ?movie rdfs:label ?movieLabel .   FILTER (LANG(?movieLabel) = \\"en\\") }",\n        "startIndex": 518,\n        "stopIndex": 527\n    },\n    "query": "PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;\\nPREFIX dbp: &lt;http://dbpedia.org/property/&gt;\\nPREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;\\nPREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;\\nPREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;\\nPREFIX dct: &lt;http://purl.org/dc/terms/&gt;\\nPREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;  SELECT DISTINCT ?movie ?movieLabel WHERE {   ?movie dbo:starring dbr:Elizabeth_Taylor .   ?movie dbo:starring dbr:Richard_Burton .   ?movie rdfs:label ?movieLabel .   FILTER (LANG(?movieLabel) = \\"en\\") }",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 1,\n        "total": 1\n    }\n}'</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX dbp: &lt;http://dbpedia.org/property/&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;  SELECT ?developer WHERE {   dbr:Minecraft dbo:developer ?developer . }</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX dbp: &lt;http://dbpedia.org/property/&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;  SELECT ?cost WHERE {   dbr:The_Lego_Movie dbo:budget ?cost. }</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX dbp: &lt;http://dbpedia.org/property/&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbr: &lt;http://dbpedia.org/resource/&gt; PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema  SELECT ?label WHERE {   dbr:Elvis_Presley dbo:album ?album .   ?album rdfs:label ?label .   FILTER (lang(?label) = 'en') } ORDER BY ?album LIMIT 1</t>
   </si>
   <si>
     <t>QueryBadFormed: A bad request has been sent to the endpoint: probably the SPARQL query is badly formed. 
 Response:
-b'{\n    "exception": "Invalid SPARQL query: Token \\"&lt;\\": no viable alternative at input \'PREFIXdbo:&lt;http://dbpedia.org/ontology/&gt;PREFIXdbr:&lt;http://dbpedia.org/resource/&gt;PREFIXrdfs:&lt;\'",\n    "metadata": {\n        "line": 1,\n        "positionInLine": 99,\n        "query": "PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbr: &lt;http://dbpedia.org/resource/&gt; PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema  SELECT ?label WHERE {   dbr:Elvis_Presley dbo:album ?album .   ?album rdfs:label ?label .   FILTER (lang(?label) = \'en\') } ORDER BY ?album LIMIT 1",\n        "startIndex": 99,\n        "stopIndex": 99\n    },\n    "query": "PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbr: &lt;http://dbpedia.org/resource/&gt; PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema  SELECT ?label WHERE {   dbr:Elvis_Presley dbo:album ?album .   ?album rdfs:label ?label .   FILTER (lang(?label) = \'en\') } ORDER BY ?album LIMIT 1",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 0,\n        "total": 0\n    }\n}'</t>
+b'{\n    "exception": "Invalid SPARQL query: Token \\"&lt;\\": no viable alternative at input \'PREFIXrdf:&lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;PREFIXdbp:&lt;http://dbpedia.org/property/&gt;PREFIXskos:&lt;http://www.w3.org/2004/02/skos/core#&gt;PREFIXyago:&lt;http://dbpedia.org/class/yago/&gt;PREFIXdbc:&lt;http://dbpedia.org/resource/Category:&gt;PREFIXdct:&lt;http://purl.org/dc/terms/&gt;PREFIXdbo:&lt;http://dbpedia.org/ontology/&gt;PREFIXdbr:&lt;http://dbpedia.org/resource/&gt;PREFIXrdfs:&lt;\'",\n    "metadata": {\n        "line": 7,\n        "positionInLine": 99,\n        "query": "PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;\\nPREFIX dbp: &lt;http://dbpedia.org/property/&gt;\\nPREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;\\nPREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;\\nPREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;\\nPREFIX dct: &lt;http://purl.org/dc/terms/&gt;\\nPREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbr: &lt;http://dbpedia.org/resource/&gt; PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema  SELECT ?label WHERE {   dbr:Elvis_Presley dbo:album ?album .   ?album rdfs:label ?label .   FILTER (lang(?label) = \'en\') } ORDER BY ?album LIMIT 1",\n        "startIndex": 390,\n        "stopIndex": 390\n    },\n    "query": "PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;\\nPREFIX dbp: &lt;http://dbpedia.org/property/&gt;\\nPREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;\\nPREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;\\nPREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;\\nPREFIX dct: &lt;http://purl.org/dc/terms/&gt;\\nPREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbr: &lt;http://dbpedia.org/resource/&gt; PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema  SELECT ?label WHERE {   dbr:Elvis_Presley dbo:album ?album .   ?album rdfs:label ?label .   FILTER (lang(?label) = \'en\') } ORDER BY ?album LIMIT 1",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 0,\n        "total": 0\n    }\n}'</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX dbp: &lt;http://dbpedia.org/property/&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;  SELECT ?runtime WHERE {   dbr:Toy_Story dbo:runtime ?runtime. }</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX dbp: &lt;http://dbpedia.org/property/&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;  SELECT ?trumpetPlayer WHERE {   ?trumpetPlayer dbo:instrument dbr:Trumpet .   ?trumpetPlayer dbo:occupation dbr:Bandleader . }</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX dbp: &lt;http://dbpedia.org/property/&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbr: &lt;http://dbpedia.org/resource/&gt; PREFIX foaf: &lt;http://xmlns.com/foaf/0.1/&gt;  SELECT DISTINCT ?film ?filmLabel WHERE {   ?film dbo:director dbr:Garry_Marshall ;         dbo:starring dbr:Julia_Roberts .   SERVICE wikibase:label { bd:serviceParam wikibase:language "[AUTO_LANGUAGE],en". } }</t>
   </si>
   <si>
     <t>QueryBadFormed: A bad request has been sent to the endpoint: probably the SPARQL query is badly formed. 
 Response:
-b'{\n    "exception": "Invalid SPARQL query: Prefix wikibase was not registered using a PREFIX declaration",\n    "metadata": {\n        "line": 1,\n        "positionInLine": 263,\n        "query": "PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbr: &lt;http://dbpedia.org/resource/&gt; PREFIX foaf: &lt;http://xmlns.com/foaf/0.1/&gt;  SELECT DISTINCT ?film ?filmLabel WHERE {   ?film dbo:director dbr:Garry_Marshall ;         dbo:starring dbr:Julia_Roberts .   SERVICE wikibase:label { bd:serviceParam wikibase:language \\"[AUTO_LANGUAGE],en\\". } }",\n        "startIndex": 263,\n        "stopIndex": 276\n    },\n    "query": "PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbr: &lt;http://dbpedia.org/resource/&gt; PREFIX foaf: &lt;http://xmlns.com/foaf/0.1/&gt;  SELECT DISTINCT ?film ?filmLabel WHERE {   ?film dbo:director dbr:Garry_Marshall ;         dbo:starring dbr:Julia_Roberts .   SERVICE wikibase:label { bd:serviceParam wikibase:language \\"[AUTO_LANGUAGE],en\\". } }",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 1,\n        "total": 1\n    }\n}'</t>
+b'{\n    "exception": "Invalid SPARQL query: Prefix wikibase was not registered using a PREFIX declaration",\n    "metadata": {\n        "line": 7,\n        "positionInLine": 263,\n        "query": "PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;\\nPREFIX dbp: &lt;http://dbpedia.org/property/&gt;\\nPREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;\\nPREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;\\nPREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;\\nPREFIX dct: &lt;http://purl.org/dc/terms/&gt;\\nPREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbr: &lt;http://dbpedia.org/resource/&gt; PREFIX foaf: &lt;http://xmlns.com/foaf/0.1/&gt;  SELECT DISTINCT ?film ?filmLabel WHERE {   ?film dbo:director dbr:Garry_Marshall ;         dbo:starring dbr:Julia_Roberts .   SERVICE wikibase:label { bd:serviceParam wikibase:language \\"[AUTO_LANGUAGE],en\\". } }",\n        "startIndex": 554,\n        "stopIndex": 567\n    },\n    "query": "PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;\\nPREFIX dbp: &lt;http://dbpedia.org/property/&gt;\\nPREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;\\nPREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;\\nPREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;\\nPREFIX dct: &lt;http://purl.org/dc/terms/&gt;\\nPREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbr: &lt;http://dbpedia.org/resource/&gt; PREFIX foaf: &lt;http://xmlns.com/foaf/0.1/&gt;  SELECT DISTINCT ?film ?filmLabel WHERE {   ?film dbo:director dbr:Garry_Marshall ;         dbo:starring dbr:Julia_Roberts .   SERVICE wikibase:label { bd:serviceParam wikibase:language \\"[AUTO_LANGUAGE],en\\". } }",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 1,\n        "total": 1\n    }\n}'</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX dbp: &lt;http://dbpedia.org/property/&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;  SELECT ?birthYear WHERE {   dbr:Rachel_Stevens dbo:birthDate ?birthDate.   BIND(year(?birthDate) AS ?birthYear) }</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbr: &lt;http://dbpedia.org/resource/&gt; PREFIX dbp: &lt;http://dbpedia.org/property/&gt;  SELECT ?cause (COUNT(?death) AS ?count) WHERE {   ?cause dbo:causeOfDeath ?death. } GROUP BY ?cause ORDER BY DESC(?count) LIMIT 1</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbp: &lt;http://dbpedia.org/property/&gt; PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;  SELECT ?height WHERE {   dbr:Yokohama_Marine_Tower dbp:height ?height. }</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbr: &lt;http://dbpedia.org/resource/&gt; PREFIX dbp: &lt;http://dbpedia.org/property/&gt;  SELECT ?mountain ?elevation WHERE {   ?mountain dbo:location dbr:Italy ;             dbp:elevation ?elevation . } ORDER BY DESC(?elevation) LIMIT 1</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX dbp: &lt;http://dbpedia.org/property/&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+```sparql PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;  SELECT ?supervisor WHERE {   dbr:Albert_Einstein dbo:doctoralAdvisor ?supervisor. } ```</t>
   </si>
   <si>
     <t>QueryBadFormed: A bad request has been sent to the endpoint: probably the SPARQL query is badly formed. 
 Response:
-b'{\n    "exception": "Invalid SPARQL query: token recognition error at: \'`\'",\n    "metadata": {\n        "line": 1,\n        "positionInLine": 0,\n        "query": "```sparql PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;  SELECT ?supervisor WHERE {   dbr:Albert_Einstein dbo:doctoralAdvisor ?supervisor. } ```",\n        "startIndex": 0,\n        "stopIndex": 0\n    },\n    "query": "```sparql PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;  SELECT ?supervisor WHERE {   dbr:Albert_Einstein dbo:doctoralAdvisor ?supervisor. } ```",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 0,\n        "total": 0\n    }\n}'</t>
+b'{\n    "exception": "Invalid SPARQL query: token recognition error at: \'`\'",\n    "metadata": {\n        "line": 7,\n        "positionInLine": 0,\n        "query": "PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;\\nPREFIX dbp: &lt;http://dbpedia.org/property/&gt;\\nPREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;\\nPREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;\\nPREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;\\nPREFIX dct: &lt;http://purl.org/dc/terms/&gt;\\n```sparql PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;  SELECT ?supervisor WHERE {   dbr:Albert_Einstein dbo:doctoralAdvisor ?supervisor. } ```",\n        "startIndex": 291,\n        "stopIndex": 291\n    },\n    "query": "PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;\\nPREFIX dbp: &lt;http://dbpedia.org/property/&gt;\\nPREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;\\nPREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;\\nPREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;\\nPREFIX dct: &lt;http://purl.org/dc/terms/&gt;\\n```sparql PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;  SELECT ?supervisor WHERE {   dbr:Albert_Einstein dbo:doctoralAdvisor ?supervisor. } ```",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 0,\n        "total": 0\n    }\n}'</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbp: &lt;http://dbpedia.org/property/&gt; PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;  SELECT ?business WHERE {   dbr:Donald_Trump dbo:occupation ?business . }</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX dbp: &lt;http://dbpedia.org/property/&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbr: &lt;http://dbpedia.org/resource/&gt; SELECT ?spouse WHERE {   dbr:Tom_Cruise dbo:spouse ?spouse. }</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+&lt;sparql&gt; PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbp: &lt;http://dbpedia.org/property/&gt; PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;  SELECT ?population WHERE {   dbr:Eurasia dbp:populationEstimate ?population. } &lt;/sparql&gt;</t>
   </si>
   <si>
     <t>QueryBadFormed: A bad request has been sent to the endpoint: probably the SPARQL query is badly formed. 
 Response:
-b'{\n    "exception": "Invalid SPARQL query: Token \\"&lt;sparql&gt;\\": extraneous input \'&lt;sparql&gt;\' expecting {&lt;EOF&gt;, BASE, PREFIX, SELECT, CONSTRUCT, DESCRIBE, ASK, LOAD, CLEAR, DROP, CREATE, ADD, MOVE, COPY, INSERT, DELETE, WITH}",\n    "metadata": {\n        "line": 1,\n        "positionInLine": 0,\n        "query": "&lt;sparql&gt; PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbp: &lt;http://dbpedia.org/property/&gt; PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;  SELECT ?population WHERE {   dbr:Eurasia dbp:populationEstimate ?population. } &lt;/sparql&gt;",\n        "startIndex": 0,\n        "stopIndex": 7\n    },\n    "query": "&lt;sparql&gt; PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbp: &lt;http://dbpedia.org/property/&gt; PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;  SELECT ?population WHERE {   dbr:Eurasia dbp:populationEstimate ?population. } &lt;/sparql&gt;",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 0,\n        "total": 0\n    }\n}'</t>
+b'{\n    "exception": "Invalid SPARQL query: Token \\"&lt;sparql&gt;\\": no viable alternative at input \'PREFIXrdf:&lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;PREFIXskos:&lt;http://www.w3.org/2004/02/skos/core#&gt;PREFIXyago:&lt;http://dbpedia.org/class/yago/&gt;PREFIXdbc:&lt;http://dbpedia.org/resource/Category:&gt;PREFIXdct:&lt;http://purl.org/dc/terms/&gt;&lt;sparql&gt;\'",\n    "metadata": {\n        "line": 6,\n        "positionInLine": 0,\n        "query": "PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;\\nPREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;\\nPREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;\\nPREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;\\nPREFIX dct: &lt;http://purl.org/dc/terms/&gt;\\n&lt;sparql&gt; PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbp: &lt;http://dbpedia.org/property/&gt; PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;  SELECT ?population WHERE {   dbr:Eurasia dbp:populationEstimate ?population. } &lt;/sparql&gt;",\n        "startIndex": 248,\n        "stopIndex": 255\n    },\n    "query": "PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;\\nPREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;\\nPREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;\\nPREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;\\nPREFIX dct: &lt;http://purl.org/dc/terms/&gt;\\n&lt;sparql&gt; PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbp: &lt;http://dbpedia.org/property/&gt; PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;  SELECT ?population WHERE {   dbr:Eurasia dbp:populationEstimate ?population. } &lt;/sparql&gt;",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 0,\n        "total": 0\n    }\n}'</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbp: &lt;http://dbpedia.org/property/&gt;  SELECT ?author WHERE {   ?book dbo:author ?author .   ?book dbp:name "The Interpretation of Dreams"@en . }</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX dbp: &lt;http://dbpedia.org/property/&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbr: &lt;http://dbpedia.org/resource/&gt; SELECT ?birthDate WHERE {   dbr:John_Adams dbo:birthDate ?birthDate . }</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX dbp: &lt;http://dbpedia.org/property/&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;  SELECT ?population WHERE {   dbr:European_Union dbo:populationTotal ?population . }</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbr: &lt;http://dbpedia.org/resource/&gt; PREFIX dbp: &lt;http://dbpedia.org/property/&gt;  SELECT ?currency WHERE {   dbr:China dbo:currency ?currency . }</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;
+PREFIX dbp: &lt;http://dbpedia.org/property/&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX res: &lt;http://dbpedia.org/resource/&gt; SELECT ?deathDate WHERE {   res:William_Shakespeare dbo:deathDate ?deathDate . }</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX dbp: &lt;http://dbpedia.org/property/&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbr: &lt;http://dbpedia.org/resource/&gt; PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema  SELECT ?rocket ?rocketLabel WHERE {   ?rocket dbo:launchSite dbr:Baikonur_Cosmodrome.   ?rocket rdfs:label ?rocketLabel.   FILTER (lang(?rocketLabel) = 'en') }</t>
   </si>
   <si>
     <t>QueryBadFormed: A bad request has been sent to the endpoint: probably the SPARQL query is badly formed. 
 Response:
-b'{\n    "exception": "Invalid SPARQL query: Token \\"&lt;\\": no viable alternative at input \'PREFIXdbo:&lt;http://dbpedia.org/ontology/&gt;PREFIXdbr:&lt;http://dbpedia.org/resource/&gt;PREFIXrdfs:&lt;\'",\n    "metadata": {\n        "line": 1,\n        "positionInLine": 99,\n        "query": "PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbr: &lt;http://dbpedia.org/resource/&gt; PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema  SELECT ?rocket ?rocketLabel WHERE {   ?rocket dbo:launchSite dbr:Baikonur_Cosmodrome.   ?rocket rdfs:label ?rocketLabel.   FILTER (lang(?rocketLabel) = \'en\') }",\n        "startIndex": 99,\n        "stopIndex": 99\n    },\n    "query": "PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbr: &lt;http://dbpedia.org/resource/&gt; PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema  SELECT ?rocket ?rocketLabel WHERE {   ?rocket dbo:launchSite dbr:Baikonur_Cosmodrome.   ?rocket rdfs:label ?rocketLabel.   FILTER (lang(?rocketLabel) = \'en\') }",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 0,\n        "total": 0\n    }\n}'</t>
+b'{\n    "exception": "Invalid SPARQL query: Token \\"&lt;\\": no viable alternative at input \'PREFIXrdf:&lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;PREFIXdbp:&lt;http://dbpedia.org/property/&gt;PREFIXskos:&lt;http://www.w3.org/2004/02/skos/core#&gt;PREFIXyago:&lt;http://dbpedia.org/class/yago/&gt;PREFIXdbc:&lt;http://dbpedia.org/resource/Category:&gt;PREFIXdct:&lt;http://purl.org/dc/terms/&gt;PREFIXdbo:&lt;http://dbpedia.org/ontology/&gt;PREFIXdbr:&lt;http://dbpedia.org/resource/&gt;PREFIXrdfs:&lt;\'",\n    "metadata": {\n        "line": 7,\n        "positionInLine": 99,\n        "query": "PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;\\nPREFIX dbp: &lt;http://dbpedia.org/property/&gt;\\nPREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;\\nPREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;\\nPREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;\\nPREFIX dct: &lt;http://purl.org/dc/terms/&gt;\\nPREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbr: &lt;http://dbpedia.org/resource/&gt; PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema  SELECT ?rocket ?rocketLabel WHERE {   ?rocket dbo:launchSite dbr:Baikonur_Cosmodrome.   ?rocket rdfs:label ?rocketLabel.   FILTER (lang(?rocketLabel) = \'en\') }",\n        "startIndex": 390,\n        "stopIndex": 390\n    },\n    "query": "PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;\\nPREFIX dbp: &lt;http://dbpedia.org/property/&gt;\\nPREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;\\nPREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;\\nPREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;\\nPREFIX dct: &lt;http://purl.org/dc/terms/&gt;\\nPREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbr: &lt;http://dbpedia.org/resource/&gt; PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema  SELECT ?rocket ?rocketLabel WHERE {   ?rocket dbo:launchSite dbr:Baikonur_Cosmodrome.   ?rocket rdfs:label ?rocketLabel.   FILTER (lang(?rocketLabel) = \'en\') }",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 0,\n        "total": 0\n    }\n}'</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX dbp: &lt;http://dbpedia.org/property/&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbr: &lt;http://dbpedia.org/resource/&gt; PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema  SELECT ?island ?islandLabel WHERE {   ?island dbo:location dbr:Japan ;           rdf:type dbo:Island .   SERVICE wikibase:label { bd:serviceParam wikibase:language "[AUTO_LANGUAGE],en". } }</t>
   </si>
   <si>
     <t>QueryBadFormed: A bad request has been sent to the endpoint: probably the SPARQL query is badly formed. 
 Response:
-b'{\n    "exception": "Invalid SPARQL query: Token \\"&lt;\\": no viable alternative at input \'PREFIXdbo:&lt;http://dbpedia.org/ontology/&gt;PREFIXdbr:&lt;http://dbpedia.org/resource/&gt;PREFIXrdfs:&lt;\'",\n    "metadata": {\n        "line": 1,\n        "positionInLine": 99,\n        "query": "PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbr: &lt;http://dbpedia.org/resource/&gt; PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema  SELECT ?island ?islandLabel WHERE {   ?island dbo:location dbr:Japan ;           rdf:type dbo:Island .   SERVICE wikibase:label { bd:serviceParam wikibase:language \\"[AUTO_LANGUAGE],en\\". } }",\n        "startIndex": 99,\n        "stopIndex": 99\n    },\n    "query": "PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbr: &lt;http://dbpedia.org/resource/&gt; PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema  SELECT ?island ?islandLabel WHERE {   ?island dbo:location dbr:Japan ;           rdf:type dbo:Island .   SERVICE wikibase:label { bd:serviceParam wikibase:language \\"[AUTO_LANGUAGE],en\\". } }",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 0,\n        "total": 0\n    }\n}'</t>
+b'{\n    "exception": "Invalid SPARQL query: Token \\"&lt;\\": no viable alternative at input \'PREFIXrdf:&lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;PREFIXdbp:&lt;http://dbpedia.org/property/&gt;PREFIXskos:&lt;http://www.w3.org/2004/02/skos/core#&gt;PREFIXyago:&lt;http://dbpedia.org/class/yago/&gt;PREFIXdbc:&lt;http://dbpedia.org/resource/Category:&gt;PREFIXdct:&lt;http://purl.org/dc/terms/&gt;PREFIXdbo:&lt;http://dbpedia.org/ontology/&gt;PREFIXdbr:&lt;http://dbpedia.org/resource/&gt;PREFIXrdfs:&lt;\'",\n    "metadata": {\n        "line": 7,\n        "positionInLine": 99,\n        "query": "PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;\\nPREFIX dbp: &lt;http://dbpedia.org/property/&gt;\\nPREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;\\nPREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;\\nPREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;\\nPREFIX dct: &lt;http://purl.org/dc/terms/&gt;\\nPREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbr: &lt;http://dbpedia.org/resource/&gt; PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema  SELECT ?island ?islandLabel WHERE {   ?island dbo:location dbr:Japan ;           rdf:type dbo:Island .   SERVICE wikibase:label { bd:serviceParam wikibase:language \\"[AUTO_LANGUAGE],en\\". } }",\n        "startIndex": 390,\n        "stopIndex": 390\n    },\n    "query": "PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;\\nPREFIX dbp: &lt;http://dbpedia.org/property/&gt;\\nPREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;\\nPREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;\\nPREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;\\nPREFIX dct: &lt;http://purl.org/dc/terms/&gt;\\nPREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbr: &lt;http://dbpedia.org/resource/&gt; PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema  SELECT ?island ?islandLabel WHERE {   ?island dbo:location dbr:Japan ;           rdf:type dbo:Island .   SERVICE wikibase:label { bd:serviceParam wikibase:language \\"[AUTO_LANGUAGE],en\\". } }",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 0,\n        "total": 0\n    }\n}'</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbp: &lt;http://dbpedia.org/property/&gt; PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;  SELECT ?developer WHERE {   dbr:World_of_Warcraft dbo:developer ?developer. }</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbp: &lt;http://dbpedia.org/property/&gt; PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;  SELECT ?company ?companyLabel WHERE {   ?company dbo:industry dbr:Advertising .   SERVICE wikibase:label { bd:serviceParam wikibase:language "[AUTO_LANGUAGE],en". } }</t>
   </si>
   <si>
     <t>QueryBadFormed: A bad request has been sent to the endpoint: probably the SPARQL query is badly formed. 
 Response:
-b'{\n    "exception": "Invalid SPARQL query: Prefix wikibase was not registered using a PREFIX declaration",\n    "metadata": {\n        "line": 1,\n        "positionInLine": 220,\n        "query": "PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbp: &lt;http://dbpedia.org/property/&gt; PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;  SELECT ?company ?companyLabel WHERE {   ?company dbo:industry dbr:Advertising .   SERVICE wikibase:label { bd:serviceParam wikibase:language \\"[AUTO_LANGUAGE],en\\". } }",\n        "startIndex": 220,\n        "stopIndex": 233\n    },\n    "query": "PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbp: &lt;http://dbpedia.org/property/&gt; PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;  SELECT ?company ?companyLabel WHERE {   ?company dbo:industry dbr:Advertising .   SERVICE wikibase:label { bd:serviceParam wikibase:language \\"[AUTO_LANGUAGE],en\\". } }",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 0,\n        "total": 0\n    }\n}'</t>
+b'{\n    "exception": "Invalid SPARQL query: Prefix wikibase was not registered using a PREFIX declaration",\n    "metadata": {\n        "line": 6,\n        "positionInLine": 220,\n        "query": "PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;\\nPREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;\\nPREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;\\nPREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;\\nPREFIX dct: &lt;http://purl.org/dc/terms/&gt;\\nPREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbp: &lt;http://dbpedia.org/property/&gt; PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;  SELECT ?company ?companyLabel WHERE {   ?company dbo:industry dbr:Advertising .   SERVICE wikibase:label { bd:serviceParam wikibase:language \\"[AUTO_LANGUAGE],en\\". } }",\n        "startIndex": 468,\n        "stopIndex": 481\n    },\n    "query": "PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;\\nPREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;\\nPREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;\\nPREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;\\nPREFIX dct: &lt;http://purl.org/dc/terms/&gt;\\nPREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbp: &lt;http://dbpedia.org/property/&gt; PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;  SELECT ?company ?companyLabel WHERE {   ?company dbo:industry dbr:Advertising .   SERVICE wikibase:label { bd:serviceParam wikibase:language \\"[AUTO_LANGUAGE],en\\". } }",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 1,\n        "total": 1\n    }\n}'</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX dbp: &lt;http://dbpedia.org/property/&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;  SELECT ?university WHERE {   dbr:Angela_Merkel dbo:almaMater ?university. }</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbp: &lt;http://dbpedia.org/property/&gt; PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;  SELECT ?tvShow ?tvShowLabel WHERE {   ?tvShow dbo:starring dbr:Neil_Patrick_Harris .   ?tvShow a dbo:TelevisionShow .   OPTIONAL { ?tvShow dbp:name ?tvShowLabel } }</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX dbp: &lt;http://dbpedia.org/property/&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;  SELECT ?movie ?movieLabel WHERE {   ?movie dbo:starring dbr:Tom_Cruise .   ?movie rdfs:label ?movieLabel .   FILTER (lang(?movieLabel) = 'en') }</t>
   </si>
   <si>
     <t>QueryBadFormed: A bad request has been sent to the endpoint: probably the SPARQL query is badly formed. 
 Response:
-b'{\n    "exception": "Invalid SPARQL query: Prefix rdfs was not registered using a PREFIX declaration",\n    "metadata": {\n        "line": 1,\n        "positionInLine": 169,\n        "query": "PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;  SELECT ?movie ?movieLabel WHERE {   ?movie dbo:starring dbr:Tom_Cruise .   ?movie rdfs:label ?movieLabel .   FILTER (lang(?movieLabel) = \'en\') }",\n        "startIndex": 169,\n        "stopIndex": 178\n    },\n    "query": "PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;  SELECT ?movie ?movieLabel WHERE {   ?movie dbo:starring dbr:Tom_Cruise .   ?movie rdfs:label ?movieLabel .   FILTER (lang(?movieLabel) = \'en\') }",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 1,\n        "total": 1\n    }\n}'</t>
+b'{\n    "exception": "Invalid SPARQL query: Prefix rdfs was not registered using a PREFIX declaration",\n    "metadata": {\n        "line": 7,\n        "positionInLine": 169,\n        "query": "PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;\\nPREFIX dbp: &lt;http://dbpedia.org/property/&gt;\\nPREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;\\nPREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;\\nPREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;\\nPREFIX dct: &lt;http://purl.org/dc/terms/&gt;\\nPREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;  SELECT ?movie ?movieLabel WHERE {   ?movie dbo:starring dbr:Tom_Cruise .   ?movie rdfs:label ?movieLabel .   FILTER (lang(?movieLabel) = \'en\') }",\n        "startIndex": 460,\n        "stopIndex": 469\n    },\n    "query": "PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;\\nPREFIX dbp: &lt;http://dbpedia.org/property/&gt;\\nPREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;\\nPREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;\\nPREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;\\nPREFIX dct: &lt;http://purl.org/dc/terms/&gt;\\nPREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;  SELECT ?movie ?movieLabel WHERE {   ?movie dbo:starring dbr:Tom_Cruise .   ?movie rdfs:label ?movieLabel .   FILTER (lang(?movieLabel) = \'en\') }",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 1,\n        "total": 1\n    }\n}'</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbp: &lt;http://dbpedia.org/property/&gt;  SELECT ?country WHERE {   &lt;http://dbpedia.org/resource/Mount_Everest&gt; dbo:country ?country. }</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX dbp: &lt;http://dbpedia.org/property/&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;  SELECT ?assassinationLocation WHERE {   dbr:John_F._Kennedy dbo:deathPlace ?assassinationLocation . }</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbp: &lt;http://dbpedia.org/property/&gt; PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;  SELECT ?river WHERE {   dbr:Brooklyn_Bridge dbo:crosses ?river. }</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX dbp: &lt;http://dbpedia.org/property/&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbr: &lt;http://dbpedia.org/resource/&gt; PREFIX foaf: &lt;http://xmlns.com/foaf/0.1/&gt;  SELECT ?swimmer ?swimmerLabel WHERE {   ?swimmer dbo:occupation dbr:Swimmer ;            dbo:birthPlace dbr:Moscow .   OPTIONAL { ?swimmer foaf:name ?swimmerLabel } } LIMIT 100</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbr: &lt;http://dbpedia.org/resource/&gt; PREFIX dbp: &lt;http://dbpedia.org/property/&gt;  SELECT ?movie ?movieLabel WHERE {   dbr:Alec_Guinness dbo:starring ?movie .   ?movie dbp:releaseDate ?date . } ORDER BY DESC(?date) LIMIT 1</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX dbp: &lt;http://dbpedia.org/property/&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;  SELECT ?mountain ?elevation WHERE {   ?mountain a dbo:Mountain ;            dbo:elevation ?elevation . } ORDER BY DESC(?elevation) LIMIT 1 OFFSET 1</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;
+PREFIX dbp: &lt;http://dbpedia.org/property/&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX res: &lt;http://dbpedia.org/resource/&gt;  SELECT ?population WHERE {   res:Cairo dbo:populationTotal ?population . }</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX dbp: &lt;http://dbpedia.org/property/&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;  SELECT ?person ?personLabel WHERE {   ?person dbo:birthPlace dbr:Heraklion .   ?person rdfs:label ?personLabel .   FILTER (lang(?personLabel) = "en") } ORDER BY ?personLabel</t>
   </si>
   <si>
     <t>QueryBadFormed: A bad request has been sent to the endpoint: probably the SPARQL query is badly formed. 
 Response:
-b'{\n    "exception": "Invalid SPARQL query: Prefix rdfs was not registered using a PREFIX declaration",\n    "metadata": {\n        "line": 1,\n        "positionInLine": 174,\n        "query": "PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;  SELECT ?person ?personLabel WHERE {   ?person dbo:birthPlace dbr:Heraklion .   ?person rdfs:label ?personLabel .   FILTER (lang(?personLabel) = \\"en\\") } ORDER BY ?personLabel",\n        "startIndex": 174,\n        "stopIndex": 183\n    },\n    "query": "PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;  SELECT ?person ?personLabel WHERE {   ?person dbo:birthPlace dbr:Heraklion .   ?person rdfs:label ?personLabel .   FILTER (lang(?personLabel) = \\"en\\") } ORDER BY ?personLabel",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 1,\n        "total": 1\n    }\n}'</t>
+b'{\n    "exception": "Invalid SPARQL query: Prefix rdfs was not registered using a PREFIX declaration",\n    "metadata": {\n        "line": 7,\n        "positionInLine": 174,\n        "query": "PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;\\nPREFIX dbp: &lt;http://dbpedia.org/property/&gt;\\nPREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;\\nPREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;\\nPREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;\\nPREFIX dct: &lt;http://purl.org/dc/terms/&gt;\\nPREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;  SELECT ?person ?personLabel WHERE {   ?person dbo:birthPlace dbr:Heraklion .   ?person rdfs:label ?personLabel .   FILTER (lang(?personLabel) = \\"en\\") } ORDER BY ?personLabel",\n        "startIndex": 465,\n        "stopIndex": 474\n    },\n    "query": "PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;\\nPREFIX dbp: &lt;http://dbpedia.org/property/&gt;\\nPREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;\\nPREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;\\nPREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;\\nPREFIX dct: &lt;http://purl.org/dc/terms/&gt;\\nPREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;  SELECT ?person ?personLabel WHERE {   ?person dbo:birthPlace dbr:Heraklion .   ?person rdfs:label ?personLabel .   FILTER (lang(?personLabel) = \\"en\\") } ORDER BY ?personLabel",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 1,\n        "total": 1\n    }\n}'</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX dbp: &lt;http://dbpedia.org/property/&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;  SELECT (COUNT(?child) AS ?numberOfChildren) WHERE {   dbr:Benjamin_Franklin dbo:child ?child. }</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbr: &lt;http://dbpedia.org/resource/&gt; PREFIX dbp: &lt;http://dbpedia.org/property/&gt;  SELECT ?elevation WHERE {   dbr:Düsseldorf_Airport dbo:elevation ?elevation. }</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbp: &lt;http://dbpedia.org/property/&gt; PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;  SELECT ?country WHERE {   dbr:Mecca dbo:country ?country. }</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbp: &lt;http://dbpedia.org/property/&gt; PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;  SELECT ?height WHERE {   dbr:Claudia_Schiffer dbp:height ?height . }</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbp: &lt;http://dbpedia.org/property/&gt;  SELECT ?author WHERE {   ?book dbo:wikiPageRedirects* &lt;http://dbpedia.org/resource/The_Pillars_of_the_Earth&gt; .   ?book dbo:author ?author . }</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbr: &lt;http://dbpedia.org/resource/&gt; PREFIX dbp: &lt;http://dbpedia.org/property/&gt;  SELECT ?genre WHERE {   dbr:Lou_Reed dbo:genre ?genre. }</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbp: &lt;http://dbpedia.org/property/&gt; PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;  SELECT ?birthPlace WHERE {   dbr:Frank_Sinatra dbo:birthPlace ?birthPlace. }</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX dbp: &lt;http://dbpedia.org/property/&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;  SELECT ?city ?population WHERE {   ?city rdf:type dbo:City .   ?city dbo:populationTotal ?population . } ORDER BY ASC(?population) LIMIT 1</t>
+  </si>
+  <si>
+    <t>['http://dbpedia.org/resource/Chagan_(closed_city)', '0']</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbr: &lt;http://dbpedia.org/resource/&gt; PREFIX dbp: &lt;http://dbpedia.org/property/&gt;  SELECT ?tvShow WHERE {   ?tvShow dbo:creator dbr:Walt_Disney .   ?tvShow rdf:type dbo:TelevisionShow . }</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbr: &lt;http://dbpedia.org/resource/&gt; PREFIX dbp: &lt;http://dbpedia.org/property/&gt;  SELECT ?holiday ?holidayLabel WHERE {   ?holiday dbo:country dbr:Sweden ;            a dbo:Holiday .   SERVICE wikibase:label { bd:serviceParam wikibase:language "[AUTO_LANGUAGE],en". } }</t>
   </si>
   <si>
     <t>QueryBadFormed: A bad request has been sent to the endpoint: probably the SPARQL query is badly formed. 
 Response:
-b'{\n    "exception": "Invalid SPARQL query: Prefix rdf was not registered using a PREFIX declaration",\n    "metadata": {\n        "line": 1,\n        "positionInLine": 128,\n        "query": "PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;  SELECT ?city ?population WHERE {   ?city rdf:type dbo:City .   ?city dbo:populationTotal ?population . } ORDER BY ASC(?population) LIMIT 1",\n        "startIndex": 128,\n        "stopIndex": 135\n    },\n    "query": "PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;  SELECT ?city ?population WHERE {   ?city rdf:type dbo:City .   ?city dbo:populationTotal ?population . } ORDER BY ASC(?population) LIMIT 1",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 1,\n        "total": 1\n    }\n}'</t>
+b'{\n    "exception": "Invalid SPARQL query: Prefix wikibase was not registered using a PREFIX declaration",\n    "metadata": {\n        "line": 6,\n        "positionInLine": 241,\n        "query": "PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;\\nPREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;\\nPREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;\\nPREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;\\nPREFIX dct: &lt;http://purl.org/dc/terms/&gt;\\nPREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbr: &lt;http://dbpedia.org/resource/&gt; PREFIX dbp: &lt;http://dbpedia.org/property/&gt;  SELECT ?holiday ?holidayLabel WHERE {   ?holiday dbo:country dbr:Sweden ;            a dbo:Holiday .   SERVICE wikibase:label { bd:serviceParam wikibase:language \\"[AUTO_LANGUAGE],en\\". } }",\n        "startIndex": 489,\n        "stopIndex": 502\n    },\n    "query": "PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;\\nPREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;\\nPREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;\\nPREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;\\nPREFIX dct: &lt;http://purl.org/dc/terms/&gt;\\nPREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbr: &lt;http://dbpedia.org/resource/&gt; PREFIX dbp: &lt;http://dbpedia.org/property/&gt;  SELECT ?holiday ?holidayLabel WHERE {   ?holiday dbo:country dbr:Sweden ;            a dbo:Holiday .   SERVICE wikibase:label { bd:serviceParam wikibase:language \\"[AUTO_LANGUAGE],en\\". } }",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 1,\n        "total": 1\n    }\n}'</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbr: &lt;http://dbpedia.org/resource/&gt; PREFIX dbp: &lt;http://dbpedia.org/property/&gt;  SELECT ?netIncome WHERE {   dbr:Apple_Inc. dbp:netIncome ?netIncome . }</t>
   </si>
   <si>
     <t>QueryBadFormed: A bad request has been sent to the endpoint: probably the SPARQL query is badly formed. 
 Response:
-b'{\n    "exception": "Invalid SPARQL query: Prefix rdf was not registered using a PREFIX declaration",\n    "metadata": {\n        "line": 1,\n        "positionInLine": 203,\n        "query": "PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbr: &lt;http://dbpedia.org/resource/&gt; PREFIX dbp: &lt;http://dbpedia.org/property/&gt;  SELECT ?tvShow WHERE {   ?tvShow dbo:creator dbr:Walt_Disney .   ?tvShow rdf:type dbo:TelevisionShow . }",\n        "startIndex": 203,\n        "stopIndex": 210\n    },\n    "query": "PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbr: &lt;http://dbpedia.org/resource/&gt; PREFIX dbp: &lt;http://dbpedia.org/property/&gt;  SELECT ?tvShow WHERE {   ?tvShow dbo:creator dbr:Walt_Disney .   ?tvShow rdf:type dbo:TelevisionShow . }",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 1,\n        "total": 1\n    }\n}'</t>
+b'{\n    "exception": "Invalid SPARQL query: Token \\".\\": extraneous input \'.\' expecting {\'(\', \'a\', \'^\', \'!\', IRI_REF, PNAME_NS, PNAME_LN, VAR1, VAR2, PREFIX_LANGTAG}",\n    "metadata": {\n        "line": 6,\n        "positionInLine": 171,\n        "query": "PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;\\nPREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;\\nPREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;\\nPREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;\\nPREFIX dct: &lt;http://purl.org/dc/terms/&gt;\\nPREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbr: &lt;http://dbpedia.org/resource/&gt; PREFIX dbp: &lt;http://dbpedia.org/property/&gt;  SELECT ?netIncome WHERE {   dbr:Apple_Inc. dbp:netIncome ?netIncome . }",\n        "startIndex": 419,\n        "stopIndex": 419\n    },\n    "query": "PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;\\nPREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;\\nPREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;\\nPREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;\\nPREFIX dct: &lt;http://purl.org/dc/terms/&gt;\\nPREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbr: &lt;http://dbpedia.org/resource/&gt; PREFIX dbp: &lt;http://dbpedia.org/property/&gt;  SELECT ?netIncome WHERE {   dbr:Apple_Inc. dbp:netIncome ?netIncome . }",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 0,\n        "total": 0\n    }\n}'</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;
+PREFIX dbp: &lt;http://dbpedia.org/property/&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX res: &lt;http://dbpedia.org/resource/&gt;  SELECT ?deathPlace WHERE {   res:Abraham_Lincoln dbo:deathPlace ?deathPlace . }</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX dbp: &lt;http://dbpedia.org/property/&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbr: &lt;http://dbpedia.org/resource/&gt; PREFIX foaf: &lt;http://xmlns.com/foaf/0.1/&gt;  SELECT ?country ?capital WHERE {   dbr:Himalayas dbo:location ?country.   ?country dbo:capital ?capital. }</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+PREFIX dbp: &lt;http://dbpedia.org/property/&gt; PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt; PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema  SELECT ?country WHERE {   ?lake rdfs:label "Limerick Lake"@en .   ?lake dbo:location ?country . }</t>
   </si>
   <si>
     <t>QueryBadFormed: A bad request has been sent to the endpoint: probably the SPARQL query is badly formed. 
 Response:
-b'{\n    "exception": "Invalid SPARQL query: Prefix wikibase was not registered using a PREFIX declaration",\n    "metadata": {\n        "line": 1,\n        "positionInLine": 241,\n        "query": "PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbr: &lt;http://dbpedia.org/resource/&gt; PREFIX dbp: &lt;http://dbpedia.org/property/&gt;  SELECT ?holiday ?holidayLabel WHERE {   ?holiday dbo:country dbr:Sweden ;            a dbo:Holiday .   SERVICE wikibase:label { bd:serviceParam wikibase:language \\"[AUTO_LANGUAGE],en\\". } }",\n        "startIndex": 241,\n        "stopIndex": 254\n    },\n    "query": "PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbr: &lt;http://dbpedia.org/resource/&gt; PREFIX dbp: &lt;http://dbpedia.org/property/&gt;  SELECT ?holiday ?holidayLabel WHERE {   ?holiday dbo:country dbr:Sweden ;            a dbo:Holiday .   SERVICE wikibase:label { bd:serviceParam wikibase:language \\"[AUTO_LANGUAGE],en\\". } }",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 1,\n        "total": 1\n    }\n}'</t>
+b'{\n    "exception": "Invalid SPARQL query: Token \\"&lt;\\": no viable alternative at input \'PREFIXrdf:&lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;PREFIXdbr:&lt;http://dbpedia.org/resource/&gt;PREFIXskos:&lt;http://www.w3.org/2004/02/skos/core#&gt;PREFIXyago:&lt;http://dbpedia.org/class/yago/&gt;PREFIXdct:&lt;http://purl.org/dc/terms/&gt;PREFIXdbp:&lt;http://dbpedia.org/property/&gt;PREFIXdbo:&lt;http://dbpedia.org/ontology/&gt;PREFIXdbc:&lt;http://dbpedia.org/resource/Category:&gt;PREFIXrdfs:&lt;\'",\n    "metadata": {\n        "line": 6,\n        "positionInLine": 151,\n        "query": "PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;\\nPREFIX dbr: &lt;http://dbpedia.org/resource/&gt;\\nPREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;\\nPREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;\\nPREFIX dct: &lt;http://purl.org/dc/terms/&gt;\\nPREFIX dbp: &lt;http://dbpedia.org/property/&gt; PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt; PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema  SELECT ?country WHERE {   ?lake rdfs:label \\"Limerick Lake\\"@en .   ?lake dbo:location ?country . }",\n        "startIndex": 390,\n        "stopIndex": 390\n    },\n    "query": "PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;\\nPREFIX dbr: &lt;http://dbpedia.org/resource/&gt;\\nPREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;\\nPREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;\\nPREFIX dct: &lt;http://purl.org/dc/terms/&gt;\\nPREFIX dbp: &lt;http://dbpedia.org/property/&gt; PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt; PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema  SELECT ?country WHERE {   ?lake rdfs:label \\"Limerick Lake\\"@en .   ?lake dbo:location ?country . }",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 0,\n        "total": 0\n    }\n}'</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;
+PREFIX dbp: &lt;http://dbpedia.org/property/&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX res: &lt;http://dbpedia.org/resource/&gt;  SELECT ?height WHERE {   res:Michael_Jordan dbo:height ?height. }</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX dbp: &lt;http://dbpedia.org/property/&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;  SELECT ?film ?filmLabel WHERE {   ?film dbo:starring dbr:Clint_Eastwood ;         dbo:director dbr:Clint_Eastwood .   SERVICE wikibase:label { bd:serviceParam wikibase:language "[AUTO_LANGUAGE],en". } }</t>
   </si>
   <si>
     <t>QueryBadFormed: A bad request has been sent to the endpoint: probably the SPARQL query is badly formed. 
 Response:
-b'{\n    "exception": "Invalid SPARQL query: Token \\".\\": extraneous input \'.\' expecting {\'(\', \'a\', \'^\', \'!\', IRI_REF, PNAME_NS, PNAME_LN, VAR1, VAR2, PREFIX_LANGTAG}",\n    "metadata": {\n        "line": 1,\n        "positionInLine": 171,\n        "query": "PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbr: &lt;http://dbpedia.org/resource/&gt; PREFIX dbp: &lt;http://dbpedia.org/property/&gt;  SELECT ?netIncome WHERE {   dbr:Apple_Inc. dbp:netIncome ?netIncome . }",\n        "startIndex": 171,\n        "stopIndex": 171\n    },\n    "query": "PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbr: &lt;http://dbpedia.org/resource/&gt; PREFIX dbp: &lt;http://dbpedia.org/property/&gt;  SELECT ?netIncome WHERE {   dbr:Apple_Inc. dbp:netIncome ?netIncome . }",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 0,\n        "total": 0\n    }\n}'</t>
+b'{\n    "exception": "Invalid SPARQL query: Prefix wikibase was not registered using a PREFIX declaration",\n    "metadata": {\n        "line": 7,\n        "positionInLine": 213,\n        "query": "PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;\\nPREFIX dbp: &lt;http://dbpedia.org/property/&gt;\\nPREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;\\nPREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;\\nPREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;\\nPREFIX dct: &lt;http://purl.org/dc/terms/&gt;\\nPREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;  SELECT ?film ?filmLabel WHERE {   ?film dbo:starring dbr:Clint_Eastwood ;         dbo:director dbr:Clint_Eastwood .   SERVICE wikibase:label { bd:serviceParam wikibase:language \\"[AUTO_LANGUAGE],en\\". } }",\n        "startIndex": 504,\n        "stopIndex": 517\n    },\n    "query": "PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;\\nPREFIX dbp: &lt;http://dbpedia.org/property/&gt;\\nPREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;\\nPREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;\\nPREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;\\nPREFIX dct: &lt;http://purl.org/dc/terms/&gt;\\nPREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;  SELECT ?film ?filmLabel WHERE {   ?film dbo:starring dbr:Clint_Eastwood ;         dbo:director dbr:Clint_Eastwood .   SERVICE wikibase:label { bd:serviceParam wikibase:language \\"[AUTO_LANGUAGE],en\\". } }",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 0,\n        "total": 0\n    }\n}'</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+&lt;sparql&gt; PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbp: &lt;http://dbpedia.org/property/&gt; PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;  SELECT ?country ?countryLabel WHERE {   ?country dbo:currency dbr:West_African_CFA_franc .   ?country rdfs:label ?countryLabel .   FILTER (lang(?countryLabel) = 'en') } &lt;/sparql&gt;</t>
   </si>
   <si>
     <t>QueryBadFormed: A bad request has been sent to the endpoint: probably the SPARQL query is badly formed. 
 Response:
-b'{\n    "exception": "Invalid SPARQL query: Token \\"&lt;\\": no viable alternative at input \'PREFIXdbp:&lt;http://dbpedia.org/property/&gt;PREFIXdbo:&lt;http://dbpedia.org/ontology/&gt;PREFIXdbc:&lt;http://dbpedia.org/resource/Category:&gt;PREFIXrdfs:&lt;\'",\n    "metadata": {\n        "line": 1,\n        "positionInLine": 151,\n        "query": "PREFIX dbp: &lt;http://dbpedia.org/property/&gt; PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt; PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema  SELECT ?country WHERE {   ?lake rdfs:label \\"Limerick Lake\\"@en .   ?lake dbo:location ?country . }",\n        "startIndex": 151,\n        "stopIndex": 151\n    },\n    "query": "PREFIX dbp: &lt;http://dbpedia.org/property/&gt; PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt; PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema  SELECT ?country WHERE {   ?lake rdfs:label \\"Limerick Lake\\"@en .   ?lake dbo:location ?country . }",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 0,\n        "total": 0\n    }\n}'</t>
+b'{\n    "exception": "Invalid SPARQL query: Token \\"&lt;sparql&gt;\\": no viable alternative at input \'PREFIXrdf:&lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;PREFIXskos:&lt;http://www.w3.org/2004/02/skos/core#&gt;PREFIXyago:&lt;http://dbpedia.org/class/yago/&gt;PREFIXdbc:&lt;http://dbpedia.org/resource/Category:&gt;PREFIXdct:&lt;http://purl.org/dc/terms/&gt;&lt;sparql&gt;\'",\n    "metadata": {\n        "line": 6,\n        "positionInLine": 0,\n        "query": "PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;\\nPREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;\\nPREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;\\nPREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;\\nPREFIX dct: &lt;http://purl.org/dc/terms/&gt;\\n&lt;sparql&gt; PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbp: &lt;http://dbpedia.org/property/&gt; PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;  SELECT ?country ?countryLabel WHERE {   ?country dbo:currency dbr:West_African_CFA_franc .   ?country rdfs:label ?countryLabel .   FILTER (lang(?countryLabel) = \'en\') } &lt;/sparql&gt;",\n        "startIndex": 248,\n        "stopIndex": 255\n    },\n    "query": "PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;\\nPREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;\\nPREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;\\nPREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;\\nPREFIX dct: &lt;http://purl.org/dc/terms/&gt;\\n&lt;sparql&gt; PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbp: &lt;http://dbpedia.org/property/&gt; PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;  SELECT ?country ?countryLabel WHERE {   ?country dbo:currency dbr:West_African_CFA_franc .   ?country rdfs:label ?countryLabel .   FILTER (lang(?countryLabel) = \'en\') } &lt;/sparql&gt;",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 0,\n        "total": 0\n    }\n}'</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;
+PREFIX dbp: &lt;http://dbpedia.org/property/&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX res: &lt;http://dbpedia.org/resource/&gt;  SELECT ?population WHERE {   res:Iraq dbo:populationTotal ?population. }</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX dbp: &lt;http://dbpedia.org/property/&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbr: &lt;http://dbpedia.org/resource/&gt; PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema  SELECT ?holiday ?holidayLabel WHERE {   ?holiday a dbo:Holiday .   ?holiday rdfs:label ?holidayLabel .   FILTER (lang(?holidayLabel) = 'en') } ORDER BY ?holidayLabel</t>
   </si>
   <si>
     <t>QueryBadFormed: A bad request has been sent to the endpoint: probably the SPARQL query is badly formed. 
 Response:
-b'{\n    "exception": "Invalid SPARQL query: Prefix wikibase was not registered using a PREFIX declaration",\n    "metadata": {\n        "line": 1,\n        "positionInLine": 213,\n        "query": "PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;  SELECT ?film ?filmLabel WHERE {   ?film dbo:starring dbr:Clint_Eastwood ;         dbo:director dbr:Clint_Eastwood .   SERVICE wikibase:label { bd:serviceParam wikibase:language \\"[AUTO_LANGUAGE],en\\". } }",\n        "startIndex": 213,\n        "stopIndex": 226\n    },\n    "query": "PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;  SELECT ?film ?filmLabel WHERE {   ?film dbo:starring dbr:Clint_Eastwood ;         dbo:director dbr:Clint_Eastwood .   SERVICE wikibase:label { bd:serviceParam wikibase:language \\"[AUTO_LANGUAGE],en\\". } }",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 1,\n        "total": 1\n    }\n}'</t>
+b'{\n    "exception": "Invalid SPARQL query: Token \\"&lt;\\": no viable alternative at input \'PREFIXrdf:&lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;PREFIXdbp:&lt;http://dbpedia.org/property/&gt;PREFIXskos:&lt;http://www.w3.org/2004/02/skos/core#&gt;PREFIXyago:&lt;http://dbpedia.org/class/yago/&gt;PREFIXdbc:&lt;http://dbpedia.org/resource/Category:&gt;PREFIXdct:&lt;http://purl.org/dc/terms/&gt;PREFIXdbo:&lt;http://dbpedia.org/ontology/&gt;PREFIXdbr:&lt;http://dbpedia.org/resource/&gt;PREFIXrdfs:&lt;\'",\n    "metadata": {\n        "line": 7,\n        "positionInLine": 99,\n        "query": "PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;\\nPREFIX dbp: &lt;http://dbpedia.org/property/&gt;\\nPREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;\\nPREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;\\nPREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;\\nPREFIX dct: &lt;http://purl.org/dc/terms/&gt;\\nPREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbr: &lt;http://dbpedia.org/resource/&gt; PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema  SELECT ?holiday ?holidayLabel WHERE {   ?holiday a dbo:Holiday .   ?holiday rdfs:label ?holidayLabel .   FILTER (lang(?holidayLabel) = \'en\') } ORDER BY ?holidayLabel",\n        "startIndex": 390,\n        "stopIndex": 390\n    },\n    "query": "PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;\\nPREFIX dbp: &lt;http://dbpedia.org/property/&gt;\\nPREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;\\nPREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;\\nPREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;\\nPREFIX dct: &lt;http://purl.org/dc/terms/&gt;\\nPREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbr: &lt;http://dbpedia.org/resource/&gt; PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema  SELECT ?holiday ?holidayLabel WHERE {   ?holiday a dbo:Holiday .   ?holiday rdfs:label ?holidayLabel .   FILTER (lang(?holidayLabel) = \'en\') } ORDER BY ?holidayLabel",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 0,\n        "total": 0\n    }\n}'</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbp: &lt;http://dbpedia.org/property/&gt; PREFIX dbr: &lt;http://dbpedia.org/resource/&gt; PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns  SELECT ?party ?partyLabel WHERE {   ?party rdf:type dbo:PoliticalParty ;          dbo:country dbr:Greece ;          dbp:position dbp:pro-European .   SERVICE wikibase:label { bd:serviceParam wikibase:language "[AUTO_LANGUAGE],en". } }</t>
   </si>
   <si>
     <t>QueryBadFormed: A bad request has been sent to the endpoint: probably the SPARQL query is badly formed. 
 Response:
-b'{\n    "exception": "Invalid SPARQL query: Token \\"&lt;sparql&gt;\\": extraneous input \'&lt;sparql&gt;\' expecting {&lt;EOF&gt;, BASE, PREFIX, SELECT, CONSTRUCT, DESCRIBE, ASK, LOAD, CLEAR, DROP, CREATE, ADD, MOVE, COPY, INSERT, DELETE, WITH}",\n    "metadata": {\n        "line": 1,\n        "positionInLine": 0,\n        "query": "&lt;sparql&gt; PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbp: &lt;http://dbpedia.org/property/&gt; PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;  SELECT ?country ?countryLabel WHERE {   ?country dbo:currency dbr:West_African_CFA_franc .   ?country rdfs:label ?countryLabel .   FILTER (lang(?countryLabel) = \'en\') } &lt;/sparql&gt;",\n        "startIndex": 0,\n        "stopIndex": 7\n    },\n    "query": "&lt;sparql&gt; PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbp: &lt;http://dbpedia.org/property/&gt; PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;  SELECT ?country ?countryLabel WHERE {   ?country dbo:currency dbr:West_African_CFA_franc .   ?country rdfs:label ?countryLabel .   FILTER (lang(?countryLabel) = \'en\') } &lt;/sparql&gt;",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 0,\n        "total": 0\n    }\n}'</t>
+b'{\n    "exception": "Invalid SPARQL query: Token \\"&lt;\\": no viable alternative at input \'PREFIXrdf:&lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;PREFIXskos:&lt;http://www.w3.org/2004/02/skos/core#&gt;PREFIXyago:&lt;http://dbpedia.org/class/yago/&gt;PREFIXdbc:&lt;http://dbpedia.org/resource/Category:&gt;PREFIXdct:&lt;http://purl.org/dc/terms/&gt;PREFIXdbo:&lt;http://dbpedia.org/ontology/&gt;PREFIXdbp:&lt;http://dbpedia.org/property/&gt;PREFIXdbr:&lt;http://dbpedia.org/resource/&gt;PREFIXrdf:&lt;\'",\n    "metadata": {\n        "line": 6,\n        "positionInLine": 141,\n        "query": "PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;\\nPREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;\\nPREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;\\nPREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;\\nPREFIX dct: &lt;http://purl.org/dc/terms/&gt;\\nPREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbp: &lt;http://dbpedia.org/property/&gt; PREFIX dbr: &lt;http://dbpedia.org/resource/&gt; PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns  SELECT ?party ?partyLabel WHERE {   ?party rdf:type dbo:PoliticalParty ;          dbo:country dbr:Greece ;          dbp:position dbp:pro-European .   SERVICE wikibase:label { bd:serviceParam wikibase:language \\"[AUTO_LANGUAGE],en\\". } }",\n        "startIndex": 389,\n        "stopIndex": 389\n    },\n    "query": "PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;\\nPREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;\\nPREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;\\nPREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;\\nPREFIX dct: &lt;http://purl.org/dc/terms/&gt;\\nPREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbp: &lt;http://dbpedia.org/property/&gt; PREFIX dbr: &lt;http://dbpedia.org/resource/&gt; PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns  SELECT ?party ?partyLabel WHERE {   ?party rdf:type dbo:PoliticalParty ;          dbo:country dbr:Greece ;          dbp:position dbp:pro-European .   SERVICE wikibase:label { bd:serviceParam wikibase:language \\"[AUTO_LANGUAGE],en\\". } }",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 0,\n        "total": 0\n    }\n}'</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbp: &lt;http://dbpedia.org/property/&gt; PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;  SELECT ?actor ?birthday WHERE {   ?show dbo:wikiPageID 384682 .    ?show dbo:starring ?actor .   ?actor dbp:birthDate ?birthday . }</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbp: &lt;http://dbpedia.org/property/&gt; PREFIX dbr: &lt;http://dbpedia.org/resource/&gt; PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema  SELECT ?movement WHERE {     dbr:The_Three_Dancers dbp:artist ?artist .     ?artist dbo:movement ?movement . }</t>
   </si>
   <si>
     <t>QueryBadFormed: A bad request has been sent to the endpoint: probably the SPARQL query is badly formed. 
 Response:
-b'{\n    "exception": "Invalid SPARQL query: Token \\"&lt;\\": no viable alternative at input \'PREFIXdbo:&lt;http://dbpedia.org/ontology/&gt;PREFIXdbr:&lt;http://dbpedia.org/resource/&gt;PREFIXrdfs:&lt;\'",\n    "metadata": {\n        "line": 1,\n        "positionInLine": 99,\n        "query": "PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbr: &lt;http://dbpedia.org/resource/&gt; PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema  SELECT ?holiday ?holidayLabel WHERE {   ?holiday a dbo:Holiday .   ?holiday rdfs:label ?holidayLabel .   FILTER (lang(?holidayLabel) = \'en\') } ORDER BY ?holidayLabel",\n        "startIndex": 99,\n        "stopIndex": 99\n    },\n    "query": "PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbr: &lt;http://dbpedia.org/resource/&gt; PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema  SELECT ?holiday ?holidayLabel WHERE {   ?holiday a dbo:Holiday .   ?holiday rdfs:label ?holidayLabel .   FILTER (lang(?holidayLabel) = \'en\') } ORDER BY ?holidayLabel",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 0,\n        "total": 0\n    }\n}'</t>
+b'{\n    "exception": "Invalid SPARQL query: Token \\"&lt;\\": no viable alternative at input \'PREFIXrdf:&lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;PREFIXskos:&lt;http://www.w3.org/2004/02/skos/core#&gt;PREFIXyago:&lt;http://dbpedia.org/class/yago/&gt;PREFIXdbc:&lt;http://dbpedia.org/resource/Category:&gt;PREFIXdct:&lt;http://purl.org/dc/terms/&gt;PREFIXdbo:&lt;http://dbpedia.org/ontology/&gt;PREFIXdbp:&lt;http://dbpedia.org/property/&gt;PREFIXdbr:&lt;http://dbpedia.org/resource/&gt;PREFIXrdfs:&lt;\'",\n    "metadata": {\n        "line": 6,\n        "positionInLine": 142,\n        "query": "PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;\\nPREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;\\nPREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;\\nPREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;\\nPREFIX dct: &lt;http://purl.org/dc/terms/&gt;\\nPREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbp: &lt;http://dbpedia.org/property/&gt; PREFIX dbr: &lt;http://dbpedia.org/resource/&gt; PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema  SELECT ?movement WHERE {     dbr:The_Three_Dancers dbp:artist ?artist .     ?artist dbo:movement ?movement . }",\n        "startIndex": 390,\n        "stopIndex": 390\n    },\n    "query": "PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;\\nPREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;\\nPREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;\\nPREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;\\nPREFIX dct: &lt;http://purl.org/dc/terms/&gt;\\nPREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbp: &lt;http://dbpedia.org/property/&gt; PREFIX dbr: &lt;http://dbpedia.org/resource/&gt; PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema  SELECT ?movement WHERE {     dbr:The_Three_Dancers dbp:artist ?artist .     ?artist dbo:movement ?movement . }",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 1,\n        "total": 1\n    }\n}'</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbr: &lt;http://dbpedia.org/resource/&gt; PREFIX dbp: &lt;http://dbpedia.org/property/&gt;  SELECT ?actor ?actorLabel WHERE {   ?actor dbo:birthPlace dbr:Germany .   ?actor dbo:occupation dbr:Actor .   SERVICE wikibase:label { bd:serviceParam wikibase:language "[AUTO_LANGUAGE],en". } }</t>
   </si>
   <si>
     <t>QueryBadFormed: A bad request has been sent to the endpoint: probably the SPARQL query is badly formed. 
 Response:
-b'{\n    "exception": "Invalid SPARQL query: Token \\"&lt;\\": no viable alternative at input \'PREFIXdbo:&lt;http://dbpedia.org/ontology/&gt;PREFIXdbp:&lt;http://dbpedia.org/property/&gt;PREFIXdbr:&lt;http://dbpedia.org/resource/&gt;PREFIXrdf:&lt;\'",\n    "metadata": {\n        "line": 1,\n        "positionInLine": 141,\n        "query": "PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbp: &lt;http://dbpedia.org/property/&gt; PREFIX dbr: &lt;http://dbpedia.org/resource/&gt; PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns  SELECT ?party ?partyLabel WHERE {   ?party rdf:type dbo:PoliticalParty ;          dbo:country dbr:Greece ;          dbp:position dbp:pro-European .   SERVICE wikibase:label { bd:serviceParam wikibase:language \\"[AUTO_LANGUAGE],en\\". } }",\n        "startIndex": 141,\n        "stopIndex": 141\n    },\n    "query": "PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbp: &lt;http://dbpedia.org/property/&gt; PREFIX dbr: &lt;http://dbpedia.org/resource/&gt; PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns  SELECT ?party ?partyLabel WHERE {   ?party rdf:type dbo:PoliticalParty ;          dbo:country dbr:Greece ;          dbp:position dbp:pro-European .   SERVICE wikibase:label { bd:serviceParam wikibase:language \\"[AUTO_LANGUAGE],en\\". } }",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 0,\n        "total": 0\n    }\n}'</t>
+b'{\n    "exception": "Invalid SPARQL query: Prefix wikibase was not registered using a PREFIX declaration",\n    "metadata": {\n        "line": 6,\n        "positionInLine": 248,\n        "query": "PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;\\nPREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;\\nPREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;\\nPREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;\\nPREFIX dct: &lt;http://purl.org/dc/terms/&gt;\\nPREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbr: &lt;http://dbpedia.org/resource/&gt; PREFIX dbp: &lt;http://dbpedia.org/property/&gt;  SELECT ?actor ?actorLabel WHERE {   ?actor dbo:birthPlace dbr:Germany .   ?actor dbo:occupation dbr:Actor .   SERVICE wikibase:label { bd:serviceParam wikibase:language \\"[AUTO_LANGUAGE],en\\". } }",\n        "startIndex": 496,\n        "stopIndex": 509\n    },\n    "query": "PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;\\nPREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;\\nPREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;\\nPREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;\\nPREFIX dct: &lt;http://purl.org/dc/terms/&gt;\\nPREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbr: &lt;http://dbpedia.org/resource/&gt; PREFIX dbp: &lt;http://dbpedia.org/property/&gt;  SELECT ?actor ?actorLabel WHERE {   ?actor dbo:birthPlace dbr:Germany .   ?actor dbo:occupation dbr:Actor .   SERVICE wikibase:label { bd:serviceParam wikibase:language \\"[AUTO_LANGUAGE],en\\". } }",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 1,\n        "total": 1\n    }\n}'</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbp: &lt;http://dbpedia.org/property/&gt; PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;  SELECT ?designer WHERE {   dbr:Brooklyn_Bridge dbp:designer ?designer . }</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbp: &lt;http://dbpedia.org/property/&gt; PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;  SELECT ?composer WHERE {   dbr:Game_of_Thrones_(TV_series) dbp:musicComposer ?composer. }</t>
   </si>
   <si>
     <t>QueryBadFormed: A bad request has been sent to the endpoint: probably the SPARQL query is badly formed. 
 Response:
-b'{\n    "exception": "Invalid SPARQL query: Token \\"&lt;\\": no viable alternative at input \'PREFIXdbo:&lt;http://dbpedia.org/ontology/&gt;PREFIXdbp:&lt;http://dbpedia.org/property/&gt;PREFIXdbr:&lt;http://dbpedia.org/resource/&gt;PREFIXrdfs:&lt;\'",\n    "metadata": {\n        "line": 1,\n        "positionInLine": 142,\n        "query": "PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbp: &lt;http://dbpedia.org/property/&gt; PREFIX dbr: &lt;http://dbpedia.org/resource/&gt; PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema  SELECT ?movement WHERE {     dbr:The_Three_Dancers dbp:artist ?artist .     ?artist dbo:movement ?movement . }",\n        "startIndex": 142,\n        "stopIndex": 142\n    },\n    "query": "PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbp: &lt;http://dbpedia.org/property/&gt; PREFIX dbr: &lt;http://dbpedia.org/resource/&gt; PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema  SELECT ?movement WHERE {     dbr:The_Three_Dancers dbp:artist ?artist .     ?artist dbo:movement ?movement . }",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 0,\n        "total": 0\n    }\n}'</t>
+b'{\n    "exception": "Invalid SPARQL query: Token \\"TV_series\\": mismatched input \'TV_series\' expecting {\'(\', \'a\', \'^\', \'!\', IRI_REF, PNAME_NS, PNAME_LN, PREFIX_LANGTAG}",\n    "metadata": {\n        "line": 6,\n        "positionInLine": 178,\n        "query": "PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;\\nPREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;\\nPREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;\\nPREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;\\nPREFIX dct: &lt;http://purl.org/dc/terms/&gt;\\nPREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbp: &lt;http://dbpedia.org/property/&gt; PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;  SELECT ?composer WHERE {   dbr:Game_of_Thrones_(TV_series) dbp:musicComposer ?composer. }",\n        "startIndex": 426,\n        "stopIndex": 434\n    },\n    "query": "PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;\\nPREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;\\nPREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;\\nPREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;\\nPREFIX dct: &lt;http://purl.org/dc/terms/&gt;\\nPREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbp: &lt;http://dbpedia.org/property/&gt; PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;  SELECT ?composer WHERE {   dbr:Game_of_Thrones_(TV_series) dbp:musicComposer ?composer. }",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 1,\n        "total": 1\n    }\n}'</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;
+PREFIX dbp: &lt;http://dbpedia.org/property/&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX res: &lt;http://dbpedia.org/resource/&gt;  SELECT ?movie WHERE {   ?movie dbo:director res:Francis_Ford_Coppola . }</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbr: &lt;http://dbpedia.org/resource/&gt; PREFIX dbp: &lt;http://dbpedia.org/property/&gt;  SELECT ?birthName WHERE {   dbr:Adele dbp:birthName ?birthName. }</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbp: &lt;http://dbpedia.org/property/&gt; PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;  SELECT ?album ?albumLabel ?releaseDate WHERE {   ?album dbo:artist dbr:Queen_(band) ;          dbp:releaseDate ?releaseDate .   FILTER NOT EXISTS {     ?otherAlbum dbo:artist dbr:Queen_(band) ;                 dbp:releaseDate ?otherReleaseDate .     FILTER (?otherReleaseDate &lt; ?releaseDate)   }   SERVICE wikibase:label { bd:serviceParam wikibase:language "[AUTO_LANGUAGE],en". } } ORDER BY ?releaseDate LIMIT 1</t>
   </si>
   <si>
     <t>QueryBadFormed: A bad request has been sent to the endpoint: probably the SPARQL query is badly formed. 
 Response:
-b'{\n    "exception": "Invalid SPARQL query: Prefix wikibase was not registered using a PREFIX declaration",\n    "metadata": {\n        "line": 1,\n        "positionInLine": 248,\n        "query": "PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbr: &lt;http://dbpedia.org/resource/&gt; PREFIX dbp: &lt;http://dbpedia.org/property/&gt;  SELECT ?actor ?actorLabel WHERE {   ?actor dbo:birthPlace dbr:Germany .   ?actor dbo:occupation dbr:Actor .   SERVICE wikibase:label { bd:serviceParam wikibase:language \\"[AUTO_LANGUAGE],en\\". } }",\n        "startIndex": 248,\n        "stopIndex": 261\n    },\n    "query": "PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbr: &lt;http://dbpedia.org/resource/&gt; PREFIX dbp: &lt;http://dbpedia.org/property/&gt;  SELECT ?actor ?actorLabel WHERE {   ?actor dbo:birthPlace dbr:Germany .   ?actor dbo:occupation dbr:Actor .   SERVICE wikibase:label { bd:serviceParam wikibase:language \\"[AUTO_LANGUAGE],en\\". } }",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 0,\n        "total": 0\n    }\n}'</t>
+b'{\n    "exception": "Invalid SPARQL query: Token \\"(\\": mismatched input \'(\' expecting \'}\'",\n    "metadata": {\n        "line": 6,\n        "positionInLine": 207,\n        "query": "PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;\\nPREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;\\nPREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;\\nPREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;\\nPREFIX dct: &lt;http://purl.org/dc/terms/&gt;\\nPREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbp: &lt;http://dbpedia.org/property/&gt; PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;  SELECT ?album ?albumLabel ?releaseDate WHERE {   ?album dbo:artist dbr:Queen_(band) ;          dbp:releaseDate ?releaseDate .   FILTER NOT EXISTS {     ?otherAlbum dbo:artist dbr:Queen_(band) ;                 dbp:releaseDate ?otherReleaseDate .     FILTER (?otherReleaseDate &lt; ?releaseDate)   }   SERVICE wikibase:label { bd:serviceParam wikibase:language \\"[AUTO_LANGUAGE],en\\". } } ORDER BY ?releaseDate LIMIT 1",\n        "startIndex": 455,\n        "stopIndex": 455\n    },\n    "query": "PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;\\nPREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;\\nPREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;\\nPREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;\\nPREFIX dct: &lt;http://purl.org/dc/terms/&gt;\\nPREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbp: &lt;http://dbpedia.org/property/&gt; PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;  SELECT ?album ?albumLabel ?releaseDate WHERE {   ?album dbo:artist dbr:Queen_(band) ;          dbp:releaseDate ?releaseDate .   FILTER NOT EXISTS {     ?otherAlbum dbo:artist dbr:Queen_(band) ;                 dbp:releaseDate ?otherReleaseDate .     FILTER (?otherReleaseDate &lt; ?releaseDate)   }   SERVICE wikibase:label { bd:serviceParam wikibase:language \\"[AUTO_LANGUAGE],en\\". } } ORDER BY ?releaseDate LIMIT 1",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 1,\n        "total": 1\n    }\n}'</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX dbp: &lt;http://dbpedia.org/property/&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbr: &lt;http://dbpedia.org/resource/&gt; SELECT ?currency WHERE {   dbr:Czech_Republic dbo:currency ?currency. }</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbp: &lt;http://dbpedia.org/property/&gt; PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;  SELECT ?person ?personLabel WHERE {   ?person dbo:birthPlace dbr:Vienna.   ?person dbo:deathPlace dbr:Berlin.   SERVICE wikibase:label { bd:serviceParam wikibase:language "[AUTO_LANGUAGE],en". } }</t>
   </si>
   <si>
     <t>QueryBadFormed: A bad request has been sent to the endpoint: probably the SPARQL query is badly formed. 
 Response:
-b'{\n    "exception": "Invalid SPARQL query: Token \\"TV_series\\": mismatched input \'TV_series\' expecting {\'(\', \'a\', \'^\', \'!\', IRI_REF, PNAME_NS, PNAME_LN, PREFIX_LANGTAG}",\n    "metadata": {\n        "line": 1,\n        "positionInLine": 178,\n        "query": "PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbp: &lt;http://dbpedia.org/property/&gt; PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;  SELECT ?composer WHERE {   dbr:Game_of_Thrones_(TV_series) dbp:musicComposer ?composer. }",\n        "startIndex": 178,\n        "stopIndex": 186\n    },\n    "query": "PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbp: &lt;http://dbpedia.org/property/&gt; PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;  SELECT ?composer WHERE {   dbr:Game_of_Thrones_(TV_series) dbp:musicComposer ?composer. }",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 1,\n        "total": 0\n    }\n}'</t>
+b'{\n    "exception": "Invalid SPARQL query: Prefix wikibase was not registered using a PREFIX declaration",\n    "metadata": {\n        "line": 6,\n        "positionInLine": 250,\n        "query": "PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;\\nPREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;\\nPREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;\\nPREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;\\nPREFIX dct: &lt;http://purl.org/dc/terms/&gt;\\nPREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbp: &lt;http://dbpedia.org/property/&gt; PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;  SELECT ?person ?personLabel WHERE {   ?person dbo:birthPlace dbr:Vienna.   ?person dbo:deathPlace dbr:Berlin.   SERVICE wikibase:label { bd:serviceParam wikibase:language \\"[AUTO_LANGUAGE],en\\". } }",\n        "startIndex": 498,\n        "stopIndex": 511\n    },\n    "query": "PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;\\nPREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;\\nPREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;\\nPREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;\\nPREFIX dct: &lt;http://purl.org/dc/terms/&gt;\\nPREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbp: &lt;http://dbpedia.org/property/&gt; PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;  SELECT ?person ?personLabel WHERE {   ?person dbo:birthPlace dbr:Vienna.   ?person dbo:deathPlace dbr:Berlin.   SERVICE wikibase:label { bd:serviceParam wikibase:language \\"[AUTO_LANGUAGE],en\\". } }",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 1,\n        "total": 1\n    }\n}'</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbp: &lt;http://dbpedia.org/property/&gt; PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;  SELECT ?bridge ?bridgeLabel WHERE {   ?bridge dbo:crosses dbr:Seine ;          rdfs:label ?bridgeLabel .   FILTER (lang(?bridgeLabel) = 'en') }</t>
   </si>
   <si>
     <t>QueryBadFormed: A bad request has been sent to the endpoint: probably the SPARQL query is badly formed. 
 Response:
-b'{\n    "exception": "Invalid SPARQL query: Token \\"(\\": mismatched input \'(\' expecting \'}\'",\n    "metadata": {\n        "line": 1,\n        "positionInLine": 207,\n        "query": "PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbp: &lt;http://dbpedia.org/property/&gt; PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;  SELECT ?album ?albumLabel ?releaseDate WHERE {   ?album dbo:artist dbr:Queen_(band) ;          dbp:releaseDate ?releaseDate .   FILTER NOT EXISTS {     ?otherAlbum dbo:artist dbr:Queen_(band) ;                 dbp:releaseDate ?otherReleaseDate .     FILTER (?otherReleaseDate &lt; ?releaseDate)   }   SERVICE wikibase:label { bd:serviceParam wikibase:language \\"[AUTO_LANGUAGE],en\\". } } ORDER BY ?releaseDate LIMIT 1",\n        "startIndex": 207,\n        "stopIndex": 207\n    },\n    "query": "PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbp: &lt;http://dbpedia.org/property/&gt; PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;  SELECT ?album ?albumLabel ?releaseDate WHERE {   ?album dbo:artist dbr:Queen_(band) ;          dbp:releaseDate ?releaseDate .   FILTER NOT EXISTS {     ?otherAlbum dbo:artist dbr:Queen_(band) ;                 dbp:releaseDate ?otherReleaseDate .     FILTER (?otherReleaseDate &lt; ?releaseDate)   }   SERVICE wikibase:label { bd:serviceParam wikibase:language \\"[AUTO_LANGUAGE],en\\". } } ORDER BY ?releaseDate LIMIT 1",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 0,\n        "total": 0\n    }\n}'</t>
+b'{\n    "exception": "Invalid SPARQL query: Prefix rdfs was not registered using a PREFIX declaration",\n    "metadata": {\n        "line": 6,\n        "positionInLine": 209,\n        "query": "PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;\\nPREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;\\nPREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;\\nPREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;\\nPREFIX dct: &lt;http://purl.org/dc/terms/&gt;\\nPREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbp: &lt;http://dbpedia.org/property/&gt; PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;  SELECT ?bridge ?bridgeLabel WHERE {   ?bridge dbo:crosses dbr:Seine ;          rdfs:label ?bridgeLabel .   FILTER (lang(?bridgeLabel) = \'en\') }",\n        "startIndex": 457,\n        "stopIndex": 466\n    },\n    "query": "PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;\\nPREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;\\nPREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;\\nPREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;\\nPREFIX dct: &lt;http://purl.org/dc/terms/&gt;\\nPREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbp: &lt;http://dbpedia.org/property/&gt; PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;  SELECT ?bridge ?bridgeLabel WHERE {   ?bridge dbo:crosses dbr:Seine ;          rdfs:label ?bridgeLabel .   FILTER (lang(?bridgeLabel) = \'en\') }",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 0,\n        "total": 0\n    }\n}'</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbr: &lt;http://dbpedia.org/resource/&gt; PREFIX dbp: &lt;http://dbpedia.org/property/&gt;  SELECT ?musician (COUNT(?book) AS ?bookCount) WHERE {   ?musician dbo:occupation dbr:Musician .   ?musician dbp:author ?book . } GROUP BY ?musician ORDER BY DESC(?bookCount) LIMIT 1</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbr: &lt;http://dbpedia.org/resource/&gt; PREFIX dbp: &lt;http://dbpedia.org/property/&gt;  SELECT ?show ?showLabel WHERE {   ?show dbo:creator dbr:John_Cleese .   ?show rdf:type dbo:TelevisionShow .   ?show rdfs:label ?showLabel .   FILTER (lang(?showLabel) = 'en') }</t>
   </si>
   <si>
     <t>QueryBadFormed: A bad request has been sent to the endpoint: probably the SPARQL query is badly formed. 
 Response:
-b'{\n    "exception": "Invalid SPARQL query: Prefix wikibase was not registered using a PREFIX declaration",\n    "metadata": {\n        "line": 1,\n        "positionInLine": 250,\n        "query": "PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbp: &lt;http://dbpedia.org/property/&gt; PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;  SELECT ?person ?personLabel WHERE {   ?person dbo:birthPlace dbr:Vienna.   ?person dbo:deathPlace dbr:Berlin.   SERVICE wikibase:label { bd:serviceParam wikibase:language \\"[AUTO_LANGUAGE],en\\". } }",\n        "startIndex": 250,\n        "stopIndex": 263\n    },\n    "query": "PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbp: &lt;http://dbpedia.org/property/&gt; PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;  SELECT ?person ?personLabel WHERE {   ?person dbo:birthPlace dbr:Vienna.   ?person dbo:deathPlace dbr:Berlin.   SERVICE wikibase:label { bd:serviceParam wikibase:language \\"[AUTO_LANGUAGE],en\\". } }",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 1,\n        "total": 1\n    }\n}'</t>
+b'{\n    "exception": "Invalid SPARQL query: Prefix rdfs was not registered using a PREFIX declaration",\n    "metadata": {\n        "line": 6,\n        "positionInLine": 246,\n        "query": "PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;\\nPREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;\\nPREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;\\nPREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;\\nPREFIX dct: &lt;http://purl.org/dc/terms/&gt;\\nPREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbr: &lt;http://dbpedia.org/resource/&gt; PREFIX dbp: &lt;http://dbpedia.org/property/&gt;  SELECT ?show ?showLabel WHERE {   ?show dbo:creator dbr:John_Cleese .   ?show rdf:type dbo:TelevisionShow .   ?show rdfs:label ?showLabel .   FILTER (lang(?showLabel) = \'en\') }",\n        "startIndex": 494,\n        "stopIndex": 503\n    },\n    "query": "PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;\\nPREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;\\nPREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;\\nPREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;\\nPREFIX dct: &lt;http://purl.org/dc/terms/&gt;\\nPREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbr: &lt;http://dbpedia.org/resource/&gt; PREFIX dbp: &lt;http://dbpedia.org/property/&gt;  SELECT ?show ?showLabel WHERE {   ?show dbo:creator dbr:John_Cleese .   ?show rdf:type dbo:TelevisionShow .   ?show rdfs:label ?showLabel .   FILTER (lang(?showLabel) = \'en\') }",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 1,\n        "total": 1\n    }\n}'</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbp: &lt;http://dbpedia.org/property/&gt; PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;  SELECT ?writer ?writerLabel WHERE {   ?writer dbo:award dbr:Nobel_Prize_in_Literature.   ?writer rdfs:label ?writerLabel.   FILTER(LANG(?writerLabel) = "en") }</t>
   </si>
   <si>
     <t>QueryBadFormed: A bad request has been sent to the endpoint: probably the SPARQL query is badly formed. 
 Response:
-b'{\n    "exception": "Invalid SPARQL query: Prefix rdfs was not registered using a PREFIX declaration",\n    "metadata": {\n        "line": 1,\n        "positionInLine": 209,\n        "query": "PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbp: &lt;http://dbpedia.org/property/&gt; PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;  SELECT ?bridge ?bridgeLabel WHERE {   ?bridge dbo:crosses dbr:Seine ;          rdfs:label ?bridgeLabel .   FILTER (lang(?bridgeLabel) = \'en\') }",\n        "startIndex": 209,\n        "stopIndex": 218\n    },\n    "query": "PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbp: &lt;http://dbpedia.org/property/&gt; PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;  SELECT ?bridge ?bridgeLabel WHERE {   ?bridge dbo:crosses dbr:Seine ;          rdfs:label ?bridgeLabel .   FILTER (lang(?bridgeLabel) = \'en\') }",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 1,\n        "total": 1\n    }\n}'</t>
+b'{\n    "exception": "Invalid SPARQL query: Prefix rdfs was not registered using a PREFIX declaration",\n    "metadata": {\n        "line": 6,\n        "positionInLine": 227,\n        "query": "PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;\\nPREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;\\nPREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;\\nPREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;\\nPREFIX dct: &lt;http://purl.org/dc/terms/&gt;\\nPREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbp: &lt;http://dbpedia.org/property/&gt; PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;  SELECT ?writer ?writerLabel WHERE {   ?writer dbo:award dbr:Nobel_Prize_in_Literature.   ?writer rdfs:label ?writerLabel.   FILTER(LANG(?writerLabel) = \\"en\\") }",\n        "startIndex": 475,\n        "stopIndex": 484\n    },\n    "query": "PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;\\nPREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;\\nPREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;\\nPREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;\\nPREFIX dct: &lt;http://purl.org/dc/terms/&gt;\\nPREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbp: &lt;http://dbpedia.org/property/&gt; PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;  SELECT ?writer ?writerLabel WHERE {   ?writer dbo:award dbr:Nobel_Prize_in_Literature.   ?writer rdfs:label ?writerLabel.   FILTER(LANG(?writerLabel) = \\"en\\") }",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 1,\n        "total": 1\n    }\n}'</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX dbp: &lt;http://dbpedia.org/property/&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;  SELECT ?discoverer WHERE {   dbr:Ceres_(dwarf_planet) dbo:discoverer ?discoverer . }</t>
   </si>
   <si>
     <t>QueryBadFormed: A bad request has been sent to the endpoint: probably the SPARQL query is badly formed. 
 Response:
-b'{\n    "exception": "Invalid SPARQL query: Prefix rdf was not registered using a PREFIX declaration",\n    "metadata": {\n        "line": 1,\n        "positionInLine": 208,\n        "query": "PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbr: &lt;http://dbpedia.org/resource/&gt; PREFIX dbp: &lt;http://dbpedia.org/property/&gt;  SELECT ?show ?showLabel WHERE {   ?show dbo:creator dbr:John_Cleese .   ?show rdf:type dbo:TelevisionShow .   ?show rdfs:label ?showLabel .   FILTER (lang(?showLabel) = \'en\') }",\n        "startIndex": 208,\n        "stopIndex": 215\n    },\n    "query": "PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbr: &lt;http://dbpedia.org/resource/&gt; PREFIX dbp: &lt;http://dbpedia.org/property/&gt;  SELECT ?show ?showLabel WHERE {   ?show dbo:creator dbr:John_Cleese .   ?show rdf:type dbo:TelevisionShow .   ?show rdfs:label ?showLabel .   FILTER (lang(?showLabel) = \'en\') }",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 1,\n        "total": 1\n    }\n}'</t>
+b'{\n    "exception": "Invalid SPARQL query: Token \\"dwarf_planet\\": mismatched input \'dwarf_planet\' expecting {\'(\', \'a\', \'^\', \'!\', IRI_REF, PNAME_NS, PNAME_LN, PREFIX_LANGTAG}",\n    "metadata": {\n        "line": 7,\n        "positionInLine": 127,\n        "query": "PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;\\nPREFIX dbp: &lt;http://dbpedia.org/property/&gt;\\nPREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;\\nPREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;\\nPREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;\\nPREFIX dct: &lt;http://purl.org/dc/terms/&gt;\\nPREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;  SELECT ?discoverer WHERE {   dbr:Ceres_(dwarf_planet) dbo:discoverer ?discoverer . }",\n        "startIndex": 418,\n        "stopIndex": 429\n    },\n    "query": "PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;\\nPREFIX dbp: &lt;http://dbpedia.org/property/&gt;\\nPREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;\\nPREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;\\nPREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;\\nPREFIX dct: &lt;http://purl.org/dc/terms/&gt;\\nPREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;  SELECT ?discoverer WHERE {   dbr:Ceres_(dwarf_planet) dbo:discoverer ?discoverer . }",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 0,\n        "total": 0\n    }\n}'</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbr: &lt;http://dbpedia.org/resource/&gt; PREFIX dbp: &lt;http://dbpedia.org/property/&gt;  SELECT ?bandleader ?bandleaderLabel WHERE {   ?bandleader a dbo:Bandleader ;               dbo:instrument dbr:Trumpet .   SERVICE wikibase:label { bd:serviceParam wikibase:language "[AUTO_LANGUAGE],en". } }</t>
   </si>
   <si>
     <t>QueryBadFormed: A bad request has been sent to the endpoint: probably the SPARQL query is badly formed. 
 Response:
-b'{\n    "exception": "Invalid SPARQL query: Prefix rdfs was not registered using a PREFIX declaration",\n    "metadata": {\n        "line": 1,\n        "positionInLine": 227,\n        "query": "PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbp: &lt;http://dbpedia.org/property/&gt; PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;  SELECT ?writer ?writerLabel WHERE {   ?writer dbo:award dbr:Nobel_Prize_in_Literature.   ?writer rdfs:label ?writerLabel.   FILTER(LANG(?writerLabel) = \\"en\\") }",\n        "startIndex": 227,\n        "stopIndex": 236\n    },\n    "query": "PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbp: &lt;http://dbpedia.org/property/&gt; PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;  SELECT ?writer ?writerLabel WHERE {   ?writer dbo:award dbr:Nobel_Prize_in_Literature.   ?writer rdfs:label ?writerLabel.   FILTER(LANG(?writerLabel) = \\"en\\") }",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 1,\n        "total": 0\n    }\n}'</t>
+b'{\n    "exception": "Invalid SPARQL query: Prefix wikibase was not registered using a PREFIX declaration",\n    "metadata": {\n        "line": 6,\n        "positionInLine": 260,\n        "query": "PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;\\nPREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;\\nPREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;\\nPREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;\\nPREFIX dct: &lt;http://purl.org/dc/terms/&gt;\\nPREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbr: &lt;http://dbpedia.org/resource/&gt; PREFIX dbp: &lt;http://dbpedia.org/property/&gt;  SELECT ?bandleader ?bandleaderLabel WHERE {   ?bandleader a dbo:Bandleader ;               dbo:instrument dbr:Trumpet .   SERVICE wikibase:label { bd:serviceParam wikibase:language \\"[AUTO_LANGUAGE],en\\". } }",\n        "startIndex": 508,\n        "stopIndex": 521\n    },\n    "query": "PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;\\nPREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;\\nPREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;\\nPREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;\\nPREFIX dct: &lt;http://purl.org/dc/terms/&gt;\\nPREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbr: &lt;http://dbpedia.org/resource/&gt; PREFIX dbp: &lt;http://dbpedia.org/property/&gt;  SELECT ?bandleader ?bandleaderLabel WHERE {   ?bandleader a dbo:Bandleader ;               dbo:instrument dbr:Trumpet .   SERVICE wikibase:label { bd:serviceParam wikibase:language \\"[AUTO_LANGUAGE],en\\". } }",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 1,\n        "total": 1\n    }\n}'</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbr: &lt;http://dbpedia.org/resource/&gt; PREFIX dbp: &lt;http://dbpedia.org/property/&gt;  SELECT ?player ?playerName ?height WHERE {   ?player dbo:height ?height .   ?player dbo:sport dbr:Basketball .   ?player foaf:name ?playerName .   FILTER (?height &gt; 2.0) }</t>
   </si>
   <si>
     <t>QueryBadFormed: A bad request has been sent to the endpoint: probably the SPARQL query is badly formed. 
 Response:
-b'{\n    "exception": "Invalid SPARQL query: Token \\"dwarf_planet\\": mismatched input \'dwarf_planet\' expecting {\'(\', \'a\', \'^\', \'!\', IRI_REF, PNAME_NS, PNAME_LN, PREFIX_LANGTAG}",\n    "metadata": {\n        "line": 1,\n        "positionInLine": 127,\n        "query": "PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;  SELECT ?discoverer WHERE {   dbr:Ceres_(dwarf_planet) dbo:discoverer ?discoverer . }",\n        "startIndex": 127,\n        "stopIndex": 138\n    },\n    "query": "PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;  SELECT ?discoverer WHERE {   dbr:Ceres_(dwarf_planet) dbo:discoverer ?discoverer . }",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 0,\n        "total": 0\n    }\n}'</t>
+b'{\n    "exception": "Invalid SPARQL query: Prefix foaf was not registered using a PREFIX declaration",\n    "metadata": {\n        "line": 6,\n        "positionInLine": 251,\n        "query": "PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;\\nPREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;\\nPREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;\\nPREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;\\nPREFIX dct: &lt;http://purl.org/dc/terms/&gt;\\nPREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbr: &lt;http://dbpedia.org/resource/&gt; PREFIX dbp: &lt;http://dbpedia.org/property/&gt;  SELECT ?player ?playerName ?height WHERE {   ?player dbo:height ?height .   ?player dbo:sport dbr:Basketball .   ?player foaf:name ?playerName .   FILTER (?height &gt; 2.0) }",\n        "startIndex": 499,\n        "stopIndex": 507\n    },\n    "query": "PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;\\nPREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;\\nPREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;\\nPREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;\\nPREFIX dct: &lt;http://purl.org/dc/terms/&gt;\\nPREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbr: &lt;http://dbpedia.org/resource/&gt; PREFIX dbp: &lt;http://dbpedia.org/property/&gt;  SELECT ?player ?playerName ?height WHERE {   ?player dbo:height ?height .   ?player dbo:sport dbr:Basketball .   ?player foaf:name ?playerName .   FILTER (?height &gt; 2.0) }",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 1,\n        "total": 1\n    }\n}'</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX dbp: &lt;http://dbpedia.org/property/&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;  SELECT DISTINCT ?film WHERE {   ?film dbo:starring dbr:Julia_Roberts .   ?film dbo:starring dbr:Richard_Gere . }</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbp: &lt;http://dbpedia.org/property/&gt;  SELECT ?capital WHERE {   ?country dbo:capital ?capital .   ?country dbp:name "Canada"@en . }</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbp: &lt;http://dbpedia.org/property/&gt; PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;  SELECT ?player ?playerLabel WHERE {   ?player dbo:birthPlace dbr:Malta ;           dbo:profession dbr:Soccer_player .   SERVICE wikibase:label { bd:serviceParam wikibase:language "[AUTO_LANGUAGE],en". } }</t>
   </si>
   <si>
     <t>QueryBadFormed: A bad request has been sent to the endpoint: probably the SPARQL query is badly formed. 
 Response:
-b'{\n    "exception": "Invalid SPARQL query: Prefix wikibase was not registered using a PREFIX declaration",\n    "metadata": {\n        "line": 1,\n        "positionInLine": 260,\n        "query": "PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbr: &lt;http://dbpedia.org/resource/&gt; PREFIX dbp: &lt;http://dbpedia.org/property/&gt;  SELECT ?bandleader ?bandleaderLabel WHERE {   ?bandleader a dbo:Bandleader ;               dbo:instrument dbr:Trumpet .   SERVICE wikibase:label { bd:serviceParam wikibase:language \\"[AUTO_LANGUAGE],en\\". } }",\n        "startIndex": 260,\n        "stopIndex": 273\n    },\n    "query": "PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbr: &lt;http://dbpedia.org/resource/&gt; PREFIX dbp: &lt;http://dbpedia.org/property/&gt;  SELECT ?bandleader ?bandleaderLabel WHERE {   ?bandleader a dbo:Bandleader ;               dbo:instrument dbr:Trumpet .   SERVICE wikibase:label { bd:serviceParam wikibase:language \\"[AUTO_LANGUAGE],en\\". } }",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 1,\n        "total": 1\n    }\n}'</t>
+b'{\n    "exception": "Invalid SPARQL query: Prefix wikibase was not registered using a PREFIX declaration",\n    "metadata": {\n        "line": 6,\n        "positionInLine": 258,\n        "query": "PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;\\nPREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;\\nPREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;\\nPREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;\\nPREFIX dct: &lt;http://purl.org/dc/terms/&gt;\\nPREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbp: &lt;http://dbpedia.org/property/&gt; PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;  SELECT ?player ?playerLabel WHERE {   ?player dbo:birthPlace dbr:Malta ;           dbo:profession dbr:Soccer_player .   SERVICE wikibase:label { bd:serviceParam wikibase:language \\"[AUTO_LANGUAGE],en\\". } }",\n        "startIndex": 506,\n        "stopIndex": 519\n    },\n    "query": "PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;\\nPREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;\\nPREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;\\nPREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;\\nPREFIX dct: &lt;http://purl.org/dc/terms/&gt;\\nPREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbp: &lt;http://dbpedia.org/property/&gt; PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;  SELECT ?player ?playerLabel WHERE {   ?player dbo:birthPlace dbr:Malta ;           dbo:profession dbr:Soccer_player .   SERVICE wikibase:label { bd:serviceParam wikibase:language \\"[AUTO_LANGUAGE],en\\". } }",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 1,\n        "total": 1\n    }\n}'</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbp: &lt;http://dbpedia.org/property/&gt; PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;  SELECT ?capital WHERE {   dbr:Cameroon dbo:capital ?capital. }</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt;
+PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;
+PREFIX dbp: &lt;http://dbpedia.org/property/&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+SELECT (COUNT(?lang) AS ?count) WHERE {   ?lang rdf:type dbo:ProgrammingLanguage . }</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt;
+PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;
+PREFIX dbp: &lt;http://dbpedia.org/property/&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+&lt;sparql&gt; SELECT ?cosmonaut ?cosmonautLabel WHERE {   ?cosmonaut dbo:occupation dbr:Cosmonaut ;              rdfs:label ?cosmonautLabel .   FILTER (lang(?cosmonautLabel) = 'en') } ORDER BY ?cosmonautLabel &lt;/sparql&gt;</t>
   </si>
   <si>
     <t>QueryBadFormed: A bad request has been sent to the endpoint: probably the SPARQL query is badly formed. 
 Response:
-b'{\n    "exception": "Invalid SPARQL query: Prefix foaf was not registered using a PREFIX declaration",\n    "metadata": {\n        "line": 1,\n        "positionInLine": 251,\n        "query": "PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbr: &lt;http://dbpedia.org/resource/&gt; PREFIX dbp: &lt;http://dbpedia.org/property/&gt;  SELECT ?player ?playerName ?height WHERE {   ?player dbo:height ?height .   ?player dbo:sport dbr:Basketball .   ?player foaf:name ?playerName .   FILTER (?height &gt; 2.0) }",\n        "startIndex": 251,\n        "stopIndex": 259\n    },\n    "query": "PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbr: &lt;http://dbpedia.org/resource/&gt; PREFIX dbp: &lt;http://dbpedia.org/property/&gt;  SELECT ?player ?playerName ?height WHERE {   ?player dbo:height ?height .   ?player dbo:sport dbr:Basketball .   ?player foaf:name ?playerName .   FILTER (?height &gt; 2.0) }",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 1,\n        "total": 1\n    }\n}'</t>
+b'{\n    "exception": "Invalid SPARQL query: Token \\"&lt;sparql&gt;\\": no viable alternative at input \'PREFIXrdf:&lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;PREFIXdbo:&lt;http://dbpedia.org/ontology/&gt;PREFIXdbr:&lt;http://dbpedia.org/resource/&gt;PREFIXdbp:&lt;http://dbpedia.org/property/&gt;PREFIXskos:&lt;http://www.w3.org/2004/02/skos/core#&gt;PREFIXyago:&lt;http://dbpedia.org/class/yago/&gt;PREFIXdbc:&lt;http://dbpedia.org/resource/Category:&gt;PREFIXdct:&lt;http://purl.org/dc/terms/&gt;&lt;sparql&gt;\'",\n    "metadata": {\n        "line": 9,\n        "positionInLine": 0,\n        "query": "PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;\\nPREFIX dbo: &lt;http://dbpedia.org/ontology/&gt;\\nPREFIX dbr: &lt;http://dbpedia.org/resource/&gt;\\nPREFIX dbp: &lt;http://dbpedia.org/property/&gt;\\nPREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;\\nPREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;\\nPREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;\\nPREFIX dct: &lt;http://purl.org/dc/terms/&gt;\\n&lt;sparql&gt; SELECT ?cosmonaut ?cosmonautLabel WHERE {   ?cosmonaut dbo:occupation dbr:Cosmonaut ;              rdfs:label ?cosmonautLabel .   FILTER (lang(?cosmonautLabel) = \'en\') } ORDER BY ?cosmonautLabel &lt;/sparql&gt;",\n        "startIndex": 377,\n        "stopIndex": 384\n    },\n    "query": "PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;\\nPREFIX dbo: &lt;http://dbpedia.org/ontology/&gt;\\nPREFIX dbr: &lt;http://dbpedia.org/resource/&gt;\\nPREFIX dbp: &lt;http://dbpedia.org/property/&gt;\\nPREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;\\nPREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;\\nPREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;\\nPREFIX dct: &lt;http://purl.org/dc/terms/&gt;\\n&lt;sparql&gt; SELECT ?cosmonaut ?cosmonautLabel WHERE {   ?cosmonaut dbo:occupation dbr:Cosmonaut ;              rdfs:label ?cosmonautLabel .   FILTER (lang(?cosmonautLabel) = \'en\') } ORDER BY ?cosmonautLabel &lt;/sparql&gt;",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 0,\n        "total": 0\n    }\n}'</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX dbp: &lt;http://dbpedia.org/property/&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;  SELECT ?creator WHERE {   dbr:Family_Guy dbo:creator ?creator . }</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;
+PREFIX dbp: &lt;http://dbpedia.org/property/&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX res: &lt;http://dbpedia.org/resource/&gt;  SELECT ?population WHERE {   res:Mexico_City dbo:populationTotal ?population . }</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbr: &lt;http://dbpedia.org/resource/&gt; PREFIX dbp: &lt;http://dbpedia.org/property/&gt;  SELECT ?creator WHERE {   dbr:Batman dbo:creator ?creator. }</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbp: &lt;http://dbpedia.org/property/&gt; PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;  SELECT ?population WHERE {   dbr:Australia dbo:capital ?capital .   ?capital dbp:populationTotal ?population . }</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbp: &lt;http://dbpedia.org/property/&gt; PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;  SELECT ?area WHERE {   dbr:North_Rhine-Westphalia dbo:area ?area. }</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;
+PREFIX dbp: &lt;http://dbpedia.org/property/&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX res: &lt;http://dbpedia.org/resource/&gt;  SELECT ?employees WHERE {   res:IBM dbo:numberOfEmployees ?employees . }</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX dbp: &lt;http://dbpedia.org/property/&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;  SELECT ?budget WHERE {   dbr:Pulp_Fiction dbo:budget ?budget. }</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbp: &lt;http://dbpedia.org/property/&gt; PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;  SELECT ?film WHERE {   dbr:Jesse_Eisenberg dbo:starring ?film. }</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbp: &lt;http://dbpedia.org/property/&gt; PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;  SELECT ?movie ?movieLabel WHERE {   ?movie dbo:country dbr:Denmark .   ?movie rdf:type dbo:Film .   SERVICE wikibase:label { bd:serviceParam wikibase:language "[AUTO_LANGUAGE],en". } }</t>
   </si>
   <si>
     <t>QueryBadFormed: A bad request has been sent to the endpoint: probably the SPARQL query is badly formed. 
 Response:
-b'{\n    "exception": "Invalid SPARQL query: Prefix wikibase was not registered using a PREFIX declaration",\n    "metadata": {\n        "line": 1,\n        "positionInLine": 258,\n        "query": "PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbp: &lt;http://dbpedia.org/property/&gt; PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;  SELECT ?player ?playerLabel WHERE {   ?player dbo:birthPlace dbr:Malta ;           dbo:profession dbr:Soccer_player .   SERVICE wikibase:label { bd:serviceParam wikibase:language \\"[AUTO_LANGUAGE],en\\". } }",\n        "startIndex": 258,\n        "stopIndex": 271\n    },\n    "query": "PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbp: &lt;http://dbpedia.org/property/&gt; PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;  SELECT ?player ?playerLabel WHERE {   ?player dbo:birthPlace dbr:Malta ;           dbo:profession dbr:Soccer_player .   SERVICE wikibase:label { bd:serviceParam wikibase:language \\"[AUTO_LANGUAGE],en\\". } }",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 1,\n        "total": 1\n    }\n}'</t>
+b'{\n    "exception": "Invalid SPARQL query: Prefix wikibase was not registered using a PREFIX declaration",\n    "metadata": {\n        "line": 6,\n        "positionInLine": 238,\n        "query": "PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;\\nPREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;\\nPREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;\\nPREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;\\nPREFIX dct: &lt;http://purl.org/dc/terms/&gt;\\nPREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbp: &lt;http://dbpedia.org/property/&gt; PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;  SELECT ?movie ?movieLabel WHERE {   ?movie dbo:country dbr:Denmark .   ?movie rdf:type dbo:Film .   SERVICE wikibase:label { bd:serviceParam wikibase:language \\"[AUTO_LANGUAGE],en\\". } }",\n        "startIndex": 486,\n        "stopIndex": 499\n    },\n    "query": "PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;\\nPREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;\\nPREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;\\nPREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;\\nPREFIX dct: &lt;http://purl.org/dc/terms/&gt;\\nPREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbp: &lt;http://dbpedia.org/property/&gt; PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;  SELECT ?movie ?movieLabel WHERE {   ?movie dbo:country dbr:Denmark .   ?movie rdf:type dbo:Film .   SERVICE wikibase:label { bd:serviceParam wikibase:language \\"[AUTO_LANGUAGE],en\\". } }",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 1,\n        "total": 1\n    }\n}'</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbr: &lt;http://dbpedia.org/resource/&gt; PREFIX dbp: &lt;http://dbpedia.org/property/&gt; PREFIX geo: &lt;http://www.w3.org/2003/01/geo/wgs84_pos  SELECT ?country WHERE {   dbr:Himalayas dbo:location ?country.   ?country a dbo:Country. }</t>
   </si>
   <si>
     <t>QueryBadFormed: A bad request has been sent to the endpoint: probably the SPARQL query is badly formed. 
 Response:
-b'{\n    "exception": "Invalid SPARQL query: Prefix rdf was not registered using a PREFIX declaration",\n    "metadata": {\n        "line": 1,\n        "positionInLine": 48,\n        "query": "SELECT (COUNT(?lang) AS ?count) WHERE {   ?lang rdf:type dbo:ProgrammingLanguage . }",\n        "startIndex": 48,\n        "stopIndex": 55\n    },\n    "query": "SELECT (COUNT(?lang) AS ?count) WHERE {   ?lang rdf:type dbo:ProgrammingLanguage . }",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 0,\n        "total": 0\n    }\n}'</t>
+b'{\n    "exception": "Invalid SPARQL query: Token \\"&lt;\\": no viable alternative at input \'PREFIXrdf:&lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;PREFIXskos:&lt;http://www.w3.org/2004/02/skos/core#&gt;PREFIXyago:&lt;http://dbpedia.org/class/yago/&gt;PREFIXdbc:&lt;http://dbpedia.org/resource/Category:&gt;PREFIXdct:&lt;http://purl.org/dc/terms/&gt;PREFIXdbo:&lt;http://dbpedia.org/ontology/&gt;PREFIXdbr:&lt;http://dbpedia.org/resource/&gt;PREFIXdbp:&lt;http://dbpedia.org/property/&gt;PREFIXgeo:&lt;\'",\n    "metadata": {\n        "line": 6,\n        "positionInLine": 141,\n        "query": "PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;\\nPREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;\\nPREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;\\nPREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;\\nPREFIX dct: &lt;http://purl.org/dc/terms/&gt;\\nPREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbr: &lt;http://dbpedia.org/resource/&gt; PREFIX dbp: &lt;http://dbpedia.org/property/&gt; PREFIX geo: &lt;http://www.w3.org/2003/01/geo/wgs84_pos  SELECT ?country WHERE {   dbr:Himalayas dbo:location ?country.   ?country a dbo:Country. }",\n        "startIndex": 389,\n        "stopIndex": 389\n    },\n    "query": "PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;\\nPREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;\\nPREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;\\nPREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;\\nPREFIX dct: &lt;http://purl.org/dc/terms/&gt;\\nPREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbr: &lt;http://dbpedia.org/resource/&gt; PREFIX dbp: &lt;http://dbpedia.org/property/&gt; PREFIX geo: &lt;http://www.w3.org/2003/01/geo/wgs84_pos  SELECT ?country WHERE {   dbr:Himalayas dbo:location ?country.   ?country a dbo:Country. }",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 0,\n        "total": 0\n    }\n}'</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX dbp: &lt;http://dbpedia.org/property/&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;  SELECT ?country ?countryLabel ?area WHERE {   ?country dbo:area ?area .   ?country a dbo:Country .   SERVICE wikibase:label { bd:serviceParam wikibase:language "[AUTO_LANGUAGE],en". } } ORDER BY DESC(?area) LIMIT 1</t>
   </si>
   <si>
     <t>QueryBadFormed: A bad request has been sent to the endpoint: probably the SPARQL query is badly formed. 
 Response:
-b'{\n    "exception": "Invalid SPARQL query: Token \\"&lt;sparql&gt;\\": extraneous input \'&lt;sparql&gt;\' expecting {&lt;EOF&gt;, BASE, PREFIX, SELECT, CONSTRUCT, DESCRIBE, ASK, LOAD, CLEAR, DROP, CREATE, ADD, MOVE, COPY, INSERT, DELETE, WITH}",\n    "metadata": {\n        "line": 1,\n        "positionInLine": 0,\n        "query": "&lt;sparql&gt; SELECT ?cosmonaut ?cosmonautLabel WHERE {   ?cosmonaut dbo:occupation dbr:Cosmonaut ;              rdfs:label ?cosmonautLabel .   FILTER (lang(?cosmonautLabel) = \'en\') } ORDER BY ?cosmonautLabel &lt;/sparql&gt;",\n        "startIndex": 0,\n        "stopIndex": 7\n    },\n    "query": "&lt;sparql&gt; SELECT ?cosmonaut ?cosmonautLabel WHERE {   ?cosmonaut dbo:occupation dbr:Cosmonaut ;              rdfs:label ?cosmonautLabel .   FILTER (lang(?cosmonautLabel) = \'en\') } ORDER BY ?cosmonautLabel &lt;/sparql&gt;",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 0,\n        "total": 0\n    }\n}'</t>
+b'{\n    "exception": "Invalid SPARQL query: Prefix wikibase was not registered using a PREFIX declaration",\n    "metadata": {\n        "line": 7,\n        "positionInLine": 196,\n        "query": "PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;\\nPREFIX dbp: &lt;http://dbpedia.org/property/&gt;\\nPREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;\\nPREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;\\nPREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;\\nPREFIX dct: &lt;http://purl.org/dc/terms/&gt;\\nPREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;  SELECT ?country ?countryLabel ?area WHERE {   ?country dbo:area ?area .   ?country a dbo:Country .   SERVICE wikibase:label { bd:serviceParam wikibase:language \\"[AUTO_LANGUAGE],en\\". } } ORDER BY DESC(?area) LIMIT 1",\n        "startIndex": 487,\n        "stopIndex": 500\n    },\n    "query": "PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;\\nPREFIX dbp: &lt;http://dbpedia.org/property/&gt;\\nPREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;\\nPREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;\\nPREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;\\nPREFIX dct: &lt;http://purl.org/dc/terms/&gt;\\nPREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;  SELECT ?country ?countryLabel ?area WHERE {   ?country dbo:area ?area .   ?country a dbo:Country .   SERVICE wikibase:label { bd:serviceParam wikibase:language \\"[AUTO_LANGUAGE],en\\". } } ORDER BY DESC(?area) LIMIT 1",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 1,\n        "total": 1\n    }\n}'</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;
+PREFIX dbp: &lt;http://dbpedia.org/property/&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX res: &lt;http://dbpedia.org/resource/&gt;  SELECT ?almaMater WHERE {   res:Angela_Merkel dbo:almaMater ?almaMater. }</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX dbp: &lt;http://dbpedia.org/property/&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;  SELECT ?creatorLabel WHERE {   dbr:Goofy dbo:creator ?creator .   ?creator rdfs:label ?creatorLabel .   FILTER (LANG(?creatorLabel) = "en") }</t>
   </si>
   <si>
     <t>QueryBadFormed: A bad request has been sent to the endpoint: probably the SPARQL query is badly formed. 
 Response:
-b'{\n    "exception": "Invalid SPARQL query: Prefix rdf was not registered using a PREFIX declaration",\n    "metadata": {\n        "line": 1,\n        "positionInLine": 208,\n        "query": "PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbp: &lt;http://dbpedia.org/property/&gt; PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;  SELECT ?movie ?movieLabel WHERE {   ?movie dbo:country dbr:Denmark .   ?movie rdf:type dbo:Film .   SERVICE wikibase:label { bd:serviceParam wikibase:language \\"[AUTO_LANGUAGE],en\\". } }",\n        "startIndex": 208,\n        "stopIndex": 215\n    },\n    "query": "PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbp: &lt;http://dbpedia.org/property/&gt; PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;  SELECT ?movie ?movieLabel WHERE {   ?movie dbo:country dbr:Denmark .   ?movie rdf:type dbo:Film .   SERVICE wikibase:label { bd:serviceParam wikibase:language \\"[AUTO_LANGUAGE],en\\". } }",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 1,\n        "total": 1\n    }\n}'</t>
-  </si>
-  <si>
-    <t>QueryBadFormed: A bad request has been sent to the endpoint: probably the SPARQL query is badly formed. 
-Response:
-b'{\n    "exception": "Invalid SPARQL query: Token \\"&lt;\\": no viable alternative at input \'PREFIXdbo:&lt;http://dbpedia.org/ontology/&gt;PREFIXdbr:&lt;http://dbpedia.org/resource/&gt;PREFIXdbp:&lt;http://dbpedia.org/property/&gt;PREFIXgeo:&lt;\'",\n    "metadata": {\n        "line": 1,\n        "positionInLine": 141,\n        "query": "PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbr: &lt;http://dbpedia.org/resource/&gt; PREFIX dbp: &lt;http://dbpedia.org/property/&gt; PREFIX geo: &lt;http://www.w3.org/2003/01/geo/wgs84_pos  SELECT ?country WHERE {   dbr:Himalayas dbo:location ?country.   ?country a dbo:Country. }",\n        "startIndex": 141,\n        "stopIndex": 141\n    },\n    "query": "PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbr: &lt;http://dbpedia.org/resource/&gt; PREFIX dbp: &lt;http://dbpedia.org/property/&gt; PREFIX geo: &lt;http://www.w3.org/2003/01/geo/wgs84_pos  SELECT ?country WHERE {   dbr:Himalayas dbo:location ?country.   ?country a dbo:Country. }",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 0,\n        "total": 0\n    }\n}'</t>
-  </si>
-  <si>
-    <t>QueryBadFormed: A bad request has been sent to the endpoint: probably the SPARQL query is badly formed. 
-Response:
-b'{\n    "exception": "Invalid SPARQL query: Prefix wikibase was not registered using a PREFIX declaration",\n    "metadata": {\n        "line": 1,\n        "positionInLine": 196,\n        "query": "PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;  SELECT ?country ?countryLabel ?area WHERE {   ?country dbo:area ?area .   ?country a dbo:Country .   SERVICE wikibase:label { bd:serviceParam wikibase:language \\"[AUTO_LANGUAGE],en\\". } } ORDER BY DESC(?area) LIMIT 1",\n        "startIndex": 196,\n        "stopIndex": 209\n    },\n    "query": "PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;  SELECT ?country ?countryLabel ?area WHERE {   ?country dbo:area ?area .   ?country a dbo:Country .   SERVICE wikibase:label { bd:serviceParam wikibase:language \\"[AUTO_LANGUAGE],en\\". } } ORDER BY DESC(?area) LIMIT 1",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 1,\n        "total": 1\n    }\n}'</t>
-  </si>
-  <si>
-    <t>QueryBadFormed: A bad request has been sent to the endpoint: probably the SPARQL query is badly formed. 
-Response:
-b'{\n    "exception": "Invalid SPARQL query: Prefix rdfs was not registered using a PREFIX declaration",\n    "metadata": {\n        "line": 1,\n        "positionInLine": 162,\n        "query": "PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;  SELECT ?creatorLabel WHERE {   dbr:Goofy dbo:creator ?creator .   ?creator rdfs:label ?creatorLabel .   FILTER (LANG(?creatorLabel) = \\"en\\") }",\n        "startIndex": 162,\n        "stopIndex": 171\n    },\n    "query": "PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;  SELECT ?creatorLabel WHERE {   dbr:Goofy dbo:creator ?creator .   ?creator rdfs:label ?creatorLabel .   FILTER (LANG(?creatorLabel) = \\"en\\") }",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 1,\n        "total": 1\n    }\n}'</t>
-  </si>
-  <si>
-    <t>Structural Error</t>
-  </si>
-  <si>
-    <t>Query Bad Formed</t>
-  </si>
-  <si>
-    <t>Missing rdf:type</t>
-  </si>
-  <si>
-    <t>Resource treated as Ontology</t>
-  </si>
-  <si>
-    <t>Ontology treated as Resource</t>
-  </si>
-  <si>
-    <t>Wrong Ontology</t>
+b'{\n    "exception": "Invalid SPARQL query: Prefix rdfs was not registered using a PREFIX declaration",\n    "metadata": {\n        "line": 7,\n        "positionInLine": 162,\n        "query": "PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;\\nPREFIX dbp: &lt;http://dbpedia.org/property/&gt;\\nPREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;\\nPREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;\\nPREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;\\nPREFIX dct: &lt;http://purl.org/dc/terms/&gt;\\nPREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;  SELECT ?creatorLabel WHERE {   dbr:Goofy dbo:creator ?creator .   ?creator rdfs:label ?creatorLabel .   FILTER (LANG(?creatorLabel) = \\"en\\") }",\n        "startIndex": 453,\n        "stopIndex": 462\n    },\n    "query": "PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;\\nPREFIX dbp: &lt;http://dbpedia.org/property/&gt;\\nPREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;\\nPREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;\\nPREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;\\nPREFIX dct: &lt;http://purl.org/dc/terms/&gt;\\nPREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;  SELECT ?creatorLabel WHERE {   dbr:Goofy dbo:creator ?creator .   ?creator rdfs:label ?creatorLabel .   FILTER (LANG(?creatorLabel) = \\"en\\") }",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 1,\n        "total": 1\n    }\n}'</t>
   </si>
 </sst>
 </file>
@@ -1851,13 +2416,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H101"/>
+  <dimension ref="A1:K101"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1882,25 +2447,34 @@
       <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I1" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>8</v>
       </c>
       <c r="B2" t="s">
+        <v>325</v>
+      </c>
+      <c r="C2" t="s">
         <v>108</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>208</v>
       </c>
-      <c r="D2" t="s">
-        <v>308</v>
-      </c>
       <c r="E2" t="s">
-        <v>308</v>
+        <v>208</v>
       </c>
       <c r="F2" t="s">
-        <v>415</v>
+        <v>315</v>
       </c>
       <c r="G2" t="b">
         <v>1</v>
@@ -1909,76 +2483,82 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>9</v>
       </c>
       <c r="B3" t="s">
+        <v>326</v>
+      </c>
+      <c r="C3" t="s">
         <v>109</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>209</v>
       </c>
-      <c r="D3" t="s">
-        <v>309</v>
-      </c>
       <c r="E3" t="s">
-        <v>354</v>
+        <v>254</v>
       </c>
       <c r="F3" t="s">
-        <v>415</v>
+        <v>315</v>
       </c>
       <c r="G3" t="b">
         <v>0</v>
       </c>
       <c r="H3" t="s">
-        <v>455</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>10</v>
       </c>
       <c r="B4" t="s">
+        <v>327</v>
+      </c>
+      <c r="C4" t="s">
         <v>110</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>210</v>
       </c>
-      <c r="D4" t="s">
-        <v>310</v>
-      </c>
       <c r="E4" t="s">
-        <v>355</v>
+        <v>255</v>
       </c>
       <c r="F4" t="s">
-        <v>416</v>
+        <v>328</v>
       </c>
       <c r="G4" t="b">
         <v>0</v>
       </c>
       <c r="H4" t="s">
-        <v>456</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+        <v>317</v>
+      </c>
+      <c r="I4" t="s">
+        <v>320</v>
+      </c>
+      <c r="J4" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>11</v>
       </c>
       <c r="B5" t="s">
+        <v>329</v>
+      </c>
+      <c r="C5" t="s">
         <v>111</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>211</v>
       </c>
-      <c r="D5" t="s">
-        <v>311</v>
-      </c>
       <c r="E5" t="s">
-        <v>311</v>
+        <v>211</v>
       </c>
       <c r="F5" t="s">
-        <v>415</v>
+        <v>315</v>
       </c>
       <c r="G5" t="b">
         <v>1</v>
@@ -1987,128 +2567,131 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>12</v>
       </c>
       <c r="B6" t="s">
+        <v>330</v>
+      </c>
+      <c r="C6" t="s">
         <v>112</v>
       </c>
-      <c r="C6" t="s">
-        <v>212</v>
-      </c>
       <c r="D6" t="s">
-        <v>309</v>
+        <v>209</v>
       </c>
       <c r="E6" t="s">
-        <v>356</v>
+        <v>256</v>
       </c>
       <c r="F6" t="s">
-        <v>415</v>
+        <v>315</v>
       </c>
       <c r="G6" t="b">
         <v>0</v>
       </c>
       <c r="H6" t="s">
-        <v>455</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>13</v>
       </c>
       <c r="B7" t="s">
+        <v>331</v>
+      </c>
+      <c r="C7" t="s">
         <v>113</v>
       </c>
-      <c r="C7" t="s">
-        <v>213</v>
-      </c>
       <c r="D7" t="s">
-        <v>310</v>
+        <v>210</v>
       </c>
       <c r="E7" t="s">
-        <v>357</v>
+        <v>257</v>
       </c>
       <c r="F7" t="s">
-        <v>417</v>
+        <v>332</v>
       </c>
       <c r="G7" t="b">
         <v>0</v>
       </c>
       <c r="H7" t="s">
-        <v>456</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+        <v>317</v>
+      </c>
+      <c r="I7" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>14</v>
       </c>
       <c r="B8" t="s">
+        <v>333</v>
+      </c>
+      <c r="C8" t="s">
         <v>114</v>
       </c>
-      <c r="C8" t="s">
-        <v>214</v>
-      </c>
       <c r="D8" t="s">
-        <v>312</v>
+        <v>212</v>
       </c>
       <c r="E8" t="s">
-        <v>358</v>
+        <v>258</v>
       </c>
       <c r="F8" t="s">
-        <v>415</v>
+        <v>315</v>
       </c>
       <c r="G8" t="b">
         <v>0</v>
       </c>
       <c r="H8" t="s">
-        <v>459</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>15</v>
       </c>
       <c r="B9" t="s">
+        <v>334</v>
+      </c>
+      <c r="C9" t="s">
         <v>115</v>
       </c>
-      <c r="C9" t="s">
-        <v>215</v>
-      </c>
       <c r="D9" t="s">
-        <v>309</v>
+        <v>209</v>
       </c>
       <c r="E9" t="s">
-        <v>359</v>
+        <v>259</v>
       </c>
       <c r="F9" t="s">
-        <v>415</v>
+        <v>315</v>
       </c>
       <c r="G9" t="b">
         <v>0</v>
       </c>
       <c r="H9" t="s">
-        <v>455</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>16</v>
       </c>
       <c r="B10" t="s">
+        <v>335</v>
+      </c>
+      <c r="C10" t="s">
         <v>116</v>
       </c>
-      <c r="C10" t="s">
-        <v>216</v>
-      </c>
       <c r="D10" t="s">
-        <v>313</v>
+        <v>213</v>
       </c>
       <c r="E10" t="s">
-        <v>313</v>
+        <v>213</v>
       </c>
       <c r="F10" t="s">
-        <v>415</v>
+        <v>315</v>
       </c>
       <c r="G10" t="b">
         <v>1</v>
@@ -2117,50 +2700,53 @@
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>17</v>
       </c>
       <c r="B11" t="s">
+        <v>336</v>
+      </c>
+      <c r="C11" t="s">
         <v>117</v>
       </c>
-      <c r="C11" t="s">
-        <v>217</v>
-      </c>
       <c r="D11" t="s">
-        <v>310</v>
+        <v>210</v>
       </c>
       <c r="E11" t="s">
-        <v>360</v>
+        <v>260</v>
       </c>
       <c r="F11" t="s">
-        <v>418</v>
+        <v>337</v>
       </c>
       <c r="G11" t="b">
         <v>0</v>
       </c>
       <c r="H11" t="s">
-        <v>456</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+        <v>317</v>
+      </c>
+      <c r="I11" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>18</v>
       </c>
       <c r="B12" t="s">
+        <v>338</v>
+      </c>
+      <c r="C12" t="s">
         <v>118</v>
       </c>
-      <c r="C12" t="s">
-        <v>218</v>
-      </c>
       <c r="D12" t="s">
-        <v>314</v>
+        <v>214</v>
       </c>
       <c r="E12" t="s">
-        <v>314</v>
+        <v>214</v>
       </c>
       <c r="F12" t="s">
-        <v>415</v>
+        <v>315</v>
       </c>
       <c r="G12" t="b">
         <v>1</v>
@@ -2169,24 +2755,24 @@
         <v>6</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>19</v>
       </c>
       <c r="B13" t="s">
+        <v>339</v>
+      </c>
+      <c r="C13" t="s">
         <v>119</v>
       </c>
-      <c r="C13" t="s">
-        <v>219</v>
-      </c>
       <c r="D13" t="s">
-        <v>315</v>
+        <v>215</v>
       </c>
       <c r="E13" t="s">
-        <v>315</v>
+        <v>215</v>
       </c>
       <c r="F13" t="s">
-        <v>415</v>
+        <v>315</v>
       </c>
       <c r="G13" t="b">
         <v>1</v>
@@ -2195,50 +2781,56 @@
         <v>6</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>20</v>
       </c>
       <c r="B14" t="s">
+        <v>340</v>
+      </c>
+      <c r="C14" t="s">
         <v>120</v>
       </c>
-      <c r="C14" t="s">
-        <v>220</v>
-      </c>
       <c r="D14" t="s">
-        <v>310</v>
+        <v>210</v>
       </c>
       <c r="E14" t="s">
-        <v>361</v>
+        <v>261</v>
       </c>
       <c r="F14" t="s">
-        <v>419</v>
+        <v>341</v>
       </c>
       <c r="G14" t="b">
         <v>0</v>
       </c>
       <c r="H14" t="s">
-        <v>456</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+        <v>317</v>
+      </c>
+      <c r="I14" t="s">
+        <v>320</v>
+      </c>
+      <c r="J14" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>21</v>
       </c>
       <c r="B15" t="s">
+        <v>342</v>
+      </c>
+      <c r="C15" t="s">
         <v>121</v>
       </c>
-      <c r="C15" t="s">
-        <v>221</v>
-      </c>
       <c r="D15" t="s">
-        <v>316</v>
+        <v>216</v>
       </c>
       <c r="E15" t="s">
-        <v>316</v>
+        <v>216</v>
       </c>
       <c r="F15" t="s">
-        <v>415</v>
+        <v>315</v>
       </c>
       <c r="G15" t="b">
         <v>1</v>
@@ -2247,24 +2839,24 @@
         <v>6</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>22</v>
       </c>
       <c r="B16" t="s">
+        <v>343</v>
+      </c>
+      <c r="C16" t="s">
         <v>122</v>
       </c>
-      <c r="C16" t="s">
-        <v>222</v>
-      </c>
       <c r="D16" t="s">
-        <v>317</v>
+        <v>217</v>
       </c>
       <c r="E16" t="s">
-        <v>317</v>
+        <v>217</v>
       </c>
       <c r="F16" t="s">
-        <v>415</v>
+        <v>315</v>
       </c>
       <c r="G16" t="b">
         <v>1</v>
@@ -2273,50 +2865,53 @@
         <v>6</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>23</v>
       </c>
       <c r="B17" t="s">
+        <v>344</v>
+      </c>
+      <c r="C17" t="s">
         <v>123</v>
       </c>
-      <c r="C17" t="s">
-        <v>223</v>
-      </c>
       <c r="D17" t="s">
-        <v>310</v>
+        <v>210</v>
       </c>
       <c r="E17" t="s">
-        <v>362</v>
+        <v>262</v>
       </c>
       <c r="F17" t="s">
-        <v>420</v>
+        <v>345</v>
       </c>
       <c r="G17" t="b">
         <v>0</v>
       </c>
       <c r="H17" t="s">
-        <v>456</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+        <v>317</v>
+      </c>
+      <c r="I17" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>24</v>
       </c>
       <c r="B18" t="s">
+        <v>346</v>
+      </c>
+      <c r="C18" t="s">
         <v>124</v>
       </c>
-      <c r="C18" t="s">
-        <v>224</v>
-      </c>
       <c r="D18" t="s">
-        <v>318</v>
+        <v>218</v>
       </c>
       <c r="E18" t="s">
-        <v>318</v>
+        <v>218</v>
       </c>
       <c r="F18" t="s">
-        <v>415</v>
+        <v>315</v>
       </c>
       <c r="G18" t="b">
         <v>1</v>
@@ -2325,206 +2920,227 @@
         <v>6</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>25</v>
       </c>
       <c r="B19" t="s">
+        <v>347</v>
+      </c>
+      <c r="C19" t="s">
         <v>125</v>
       </c>
-      <c r="C19" t="s">
-        <v>225</v>
-      </c>
       <c r="D19" t="s">
-        <v>309</v>
+        <v>209</v>
       </c>
       <c r="E19" t="s">
-        <v>363</v>
+        <v>263</v>
       </c>
       <c r="F19" t="s">
-        <v>415</v>
+        <v>315</v>
       </c>
       <c r="G19" t="b">
         <v>0</v>
       </c>
       <c r="H19" t="s">
-        <v>455</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+        <v>316</v>
+      </c>
+      <c r="I19" t="s">
+        <v>320</v>
+      </c>
+      <c r="J19" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>26</v>
       </c>
       <c r="B20" t="s">
+        <v>348</v>
+      </c>
+      <c r="C20" t="s">
         <v>126</v>
       </c>
-      <c r="C20" t="s">
-        <v>226</v>
-      </c>
       <c r="D20" t="s">
-        <v>309</v>
+        <v>209</v>
       </c>
       <c r="E20" t="s">
-        <v>364</v>
+        <v>264</v>
       </c>
       <c r="F20" t="s">
-        <v>415</v>
+        <v>315</v>
       </c>
       <c r="G20" t="b">
         <v>0</v>
       </c>
       <c r="H20" t="s">
-        <v>455</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>27</v>
       </c>
       <c r="B21" t="s">
+        <v>349</v>
+      </c>
+      <c r="C21" t="s">
         <v>127</v>
       </c>
-      <c r="C21" t="s">
-        <v>227</v>
-      </c>
       <c r="D21" t="s">
-        <v>319</v>
+        <v>219</v>
       </c>
       <c r="E21" t="s">
-        <v>365</v>
+        <v>265</v>
       </c>
       <c r="F21" t="s">
-        <v>415</v>
+        <v>315</v>
       </c>
       <c r="G21" t="b">
         <v>0</v>
       </c>
       <c r="H21" t="s">
-        <v>457</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+        <v>318</v>
+      </c>
+      <c r="I21" t="s">
+        <v>320</v>
+      </c>
+      <c r="J21" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>28</v>
       </c>
       <c r="B22" t="s">
+        <v>350</v>
+      </c>
+      <c r="C22" t="s">
         <v>128</v>
       </c>
-      <c r="C22" t="s">
-        <v>228</v>
-      </c>
       <c r="D22" t="s">
-        <v>310</v>
+        <v>210</v>
       </c>
       <c r="E22" t="s">
-        <v>366</v>
+        <v>266</v>
       </c>
       <c r="F22" t="s">
-        <v>421</v>
+        <v>351</v>
       </c>
       <c r="G22" t="b">
         <v>0</v>
       </c>
       <c r="H22" t="s">
-        <v>456</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+        <v>317</v>
+      </c>
+      <c r="I22" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>29</v>
       </c>
       <c r="B23" t="s">
+        <v>352</v>
+      </c>
+      <c r="C23" t="s">
         <v>129</v>
       </c>
-      <c r="C23" t="s">
-        <v>229</v>
-      </c>
       <c r="D23" t="s">
+        <v>220</v>
+      </c>
+      <c r="E23" t="s">
+        <v>267</v>
+      </c>
+      <c r="F23" t="s">
+        <v>315</v>
+      </c>
+      <c r="G23" t="b">
+        <v>0</v>
+      </c>
+      <c r="H23" t="s">
+        <v>316</v>
+      </c>
+      <c r="I23" t="s">
         <v>320</v>
       </c>
-      <c r="E23" t="s">
-        <v>367</v>
-      </c>
-      <c r="F23" t="s">
-        <v>415</v>
-      </c>
-      <c r="G23" t="b">
-        <v>0</v>
-      </c>
-      <c r="H23" t="s">
-        <v>455</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>30</v>
       </c>
       <c r="B24" t="s">
+        <v>353</v>
+      </c>
+      <c r="C24" t="s">
         <v>130</v>
       </c>
-      <c r="C24" t="s">
-        <v>230</v>
-      </c>
       <c r="D24" t="s">
-        <v>309</v>
+        <v>209</v>
       </c>
       <c r="E24" t="s">
-        <v>368</v>
+        <v>268</v>
       </c>
       <c r="F24" t="s">
-        <v>415</v>
+        <v>315</v>
       </c>
       <c r="G24" t="b">
         <v>0</v>
       </c>
       <c r="H24" t="s">
-        <v>455</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>31</v>
       </c>
       <c r="B25" t="s">
+        <v>354</v>
+      </c>
+      <c r="C25" t="s">
         <v>131</v>
       </c>
-      <c r="C25" t="s">
-        <v>231</v>
-      </c>
       <c r="D25" t="s">
-        <v>310</v>
+        <v>210</v>
       </c>
       <c r="E25" t="s">
-        <v>369</v>
+        <v>269</v>
       </c>
       <c r="F25" t="s">
-        <v>422</v>
+        <v>355</v>
       </c>
       <c r="G25" t="b">
         <v>0</v>
       </c>
       <c r="H25" t="s">
-        <v>456</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+        <v>317</v>
+      </c>
+      <c r="I25" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>32</v>
       </c>
       <c r="B26" t="s">
+        <v>356</v>
+      </c>
+      <c r="C26" t="s">
         <v>132</v>
       </c>
-      <c r="C26" t="s">
-        <v>232</v>
-      </c>
       <c r="D26" t="s">
-        <v>321</v>
+        <v>221</v>
       </c>
       <c r="E26" t="s">
-        <v>321</v>
+        <v>221</v>
       </c>
       <c r="F26" t="s">
-        <v>415</v>
+        <v>315</v>
       </c>
       <c r="G26" t="b">
         <v>1</v>
@@ -2533,24 +3149,24 @@
         <v>6</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>33</v>
       </c>
       <c r="B27" t="s">
+        <v>357</v>
+      </c>
+      <c r="C27" t="s">
         <v>133</v>
       </c>
-      <c r="C27" t="s">
-        <v>233</v>
-      </c>
       <c r="D27" t="s">
-        <v>322</v>
+        <v>222</v>
       </c>
       <c r="E27" t="s">
-        <v>322</v>
+        <v>222</v>
       </c>
       <c r="F27" t="s">
-        <v>415</v>
+        <v>315</v>
       </c>
       <c r="G27" t="b">
         <v>1</v>
@@ -2559,24 +3175,24 @@
         <v>6</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>34</v>
       </c>
       <c r="B28" t="s">
+        <v>358</v>
+      </c>
+      <c r="C28" t="s">
         <v>134</v>
       </c>
-      <c r="C28" t="s">
-        <v>234</v>
-      </c>
       <c r="D28" t="s">
-        <v>323</v>
+        <v>223</v>
       </c>
       <c r="E28" t="s">
-        <v>323</v>
+        <v>223</v>
       </c>
       <c r="F28" t="s">
-        <v>415</v>
+        <v>315</v>
       </c>
       <c r="G28" t="b">
         <v>1</v>
@@ -2585,24 +3201,24 @@
         <v>6</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>35</v>
       </c>
       <c r="B29" t="s">
+        <v>359</v>
+      </c>
+      <c r="C29" t="s">
         <v>135</v>
       </c>
-      <c r="C29" t="s">
-        <v>235</v>
-      </c>
       <c r="D29" t="s">
-        <v>324</v>
+        <v>224</v>
       </c>
       <c r="E29" t="s">
-        <v>324</v>
+        <v>224</v>
       </c>
       <c r="F29" t="s">
-        <v>415</v>
+        <v>315</v>
       </c>
       <c r="G29" t="b">
         <v>1</v>
@@ -2611,24 +3227,24 @@
         <v>6</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>36</v>
       </c>
       <c r="B30" t="s">
+        <v>360</v>
+      </c>
+      <c r="C30" t="s">
         <v>136</v>
       </c>
-      <c r="C30" t="s">
-        <v>236</v>
-      </c>
       <c r="D30" t="s">
-        <v>325</v>
+        <v>225</v>
       </c>
       <c r="E30" t="s">
-        <v>325</v>
+        <v>225</v>
       </c>
       <c r="F30" t="s">
-        <v>415</v>
+        <v>315</v>
       </c>
       <c r="G30" t="b">
         <v>1</v>
@@ -2637,76 +3253,88 @@
         <v>6</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>37</v>
       </c>
       <c r="B31" t="s">
+        <v>361</v>
+      </c>
+      <c r="C31" t="s">
         <v>137</v>
       </c>
-      <c r="C31" t="s">
-        <v>237</v>
-      </c>
       <c r="D31" t="s">
-        <v>310</v>
+        <v>210</v>
       </c>
       <c r="E31" t="s">
-        <v>370</v>
+        <v>270</v>
       </c>
       <c r="F31" t="s">
-        <v>423</v>
+        <v>362</v>
       </c>
       <c r="G31" t="b">
         <v>0</v>
       </c>
       <c r="H31" t="s">
-        <v>456</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
+        <v>317</v>
+      </c>
+      <c r="I31" t="s">
+        <v>320</v>
+      </c>
+      <c r="J31" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>38</v>
       </c>
       <c r="B32" t="s">
+        <v>363</v>
+      </c>
+      <c r="C32" t="s">
         <v>138</v>
       </c>
-      <c r="C32" t="s">
-        <v>238</v>
-      </c>
       <c r="D32" t="s">
-        <v>310</v>
+        <v>210</v>
       </c>
       <c r="E32" t="s">
-        <v>371</v>
+        <v>271</v>
       </c>
       <c r="F32" t="s">
-        <v>424</v>
+        <v>364</v>
       </c>
       <c r="G32" t="b">
         <v>0</v>
       </c>
       <c r="H32" t="s">
-        <v>456</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
+        <v>317</v>
+      </c>
+      <c r="I32" t="s">
+        <v>320</v>
+      </c>
+      <c r="J32" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>39</v>
       </c>
       <c r="B33" t="s">
+        <v>365</v>
+      </c>
+      <c r="C33" t="s">
         <v>139</v>
       </c>
-      <c r="C33" t="s">
-        <v>239</v>
-      </c>
       <c r="D33" t="s">
-        <v>326</v>
+        <v>226</v>
       </c>
       <c r="E33" t="s">
-        <v>326</v>
+        <v>226</v>
       </c>
       <c r="F33" t="s">
-        <v>415</v>
+        <v>315</v>
       </c>
       <c r="G33" t="b">
         <v>1</v>
@@ -2715,50 +3343,53 @@
         <v>6</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>40</v>
       </c>
       <c r="B34" t="s">
+        <v>366</v>
+      </c>
+      <c r="C34" t="s">
         <v>140</v>
       </c>
-      <c r="C34" t="s">
-        <v>240</v>
-      </c>
       <c r="D34" t="s">
-        <v>310</v>
+        <v>210</v>
       </c>
       <c r="E34" t="s">
-        <v>372</v>
+        <v>272</v>
       </c>
       <c r="F34" t="s">
-        <v>425</v>
+        <v>367</v>
       </c>
       <c r="G34" t="b">
         <v>0</v>
       </c>
       <c r="H34" t="s">
-        <v>456</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
+        <v>317</v>
+      </c>
+      <c r="I34" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>41</v>
       </c>
       <c r="B35" t="s">
+        <v>368</v>
+      </c>
+      <c r="C35" t="s">
         <v>141</v>
       </c>
-      <c r="C35" t="s">
-        <v>241</v>
-      </c>
       <c r="D35" t="s">
-        <v>327</v>
+        <v>227</v>
       </c>
       <c r="E35" t="s">
-        <v>327</v>
+        <v>227</v>
       </c>
       <c r="F35" t="s">
-        <v>415</v>
+        <v>315</v>
       </c>
       <c r="G35" t="b">
         <v>1</v>
@@ -2767,24 +3398,24 @@
         <v>6</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>42</v>
       </c>
       <c r="B36" t="s">
+        <v>369</v>
+      </c>
+      <c r="C36" t="s">
         <v>142</v>
       </c>
-      <c r="C36" t="s">
-        <v>242</v>
-      </c>
       <c r="D36" t="s">
-        <v>328</v>
+        <v>228</v>
       </c>
       <c r="E36" t="s">
-        <v>328</v>
+        <v>228</v>
       </c>
       <c r="F36" t="s">
-        <v>415</v>
+        <v>315</v>
       </c>
       <c r="G36" t="b">
         <v>1</v>
@@ -2793,76 +3424,88 @@
         <v>6</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>43</v>
       </c>
       <c r="B37" t="s">
+        <v>370</v>
+      </c>
+      <c r="C37" t="s">
         <v>143</v>
       </c>
-      <c r="C37" t="s">
-        <v>243</v>
-      </c>
       <c r="D37" t="s">
-        <v>310</v>
+        <v>210</v>
       </c>
       <c r="E37" t="s">
-        <v>373</v>
+        <v>273</v>
       </c>
       <c r="F37" t="s">
-        <v>426</v>
+        <v>371</v>
       </c>
       <c r="G37" t="b">
         <v>0</v>
       </c>
       <c r="H37" t="s">
-        <v>456</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
+        <v>317</v>
+      </c>
+      <c r="I37" t="s">
+        <v>320</v>
+      </c>
+      <c r="J37" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>44</v>
       </c>
       <c r="B38" t="s">
+        <v>372</v>
+      </c>
+      <c r="C38" t="s">
         <v>144</v>
       </c>
-      <c r="C38" t="s">
-        <v>244</v>
-      </c>
       <c r="D38" t="s">
-        <v>309</v>
+        <v>209</v>
       </c>
       <c r="E38" t="s">
-        <v>374</v>
+        <v>274</v>
       </c>
       <c r="F38" t="s">
-        <v>415</v>
+        <v>315</v>
       </c>
       <c r="G38" t="b">
         <v>0</v>
       </c>
       <c r="H38" t="s">
-        <v>457</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
+        <v>318</v>
+      </c>
+      <c r="I38" t="s">
+        <v>320</v>
+      </c>
+      <c r="J38" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>45</v>
       </c>
       <c r="B39" t="s">
+        <v>373</v>
+      </c>
+      <c r="C39" t="s">
         <v>145</v>
       </c>
-      <c r="C39" t="s">
-        <v>245</v>
-      </c>
       <c r="D39" t="s">
-        <v>329</v>
+        <v>229</v>
       </c>
       <c r="E39" t="s">
-        <v>329</v>
+        <v>229</v>
       </c>
       <c r="F39" t="s">
-        <v>415</v>
+        <v>315</v>
       </c>
       <c r="G39" t="b">
         <v>1</v>
@@ -2871,24 +3514,24 @@
         <v>6</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>46</v>
       </c>
       <c r="B40" t="s">
+        <v>374</v>
+      </c>
+      <c r="C40" t="s">
         <v>146</v>
       </c>
-      <c r="C40" t="s">
-        <v>246</v>
-      </c>
       <c r="D40" t="s">
-        <v>330</v>
+        <v>230</v>
       </c>
       <c r="E40" t="s">
-        <v>330</v>
+        <v>230</v>
       </c>
       <c r="F40" t="s">
-        <v>415</v>
+        <v>315</v>
       </c>
       <c r="G40" t="b">
         <v>1</v>
@@ -2897,102 +3540,108 @@
         <v>6</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>47</v>
       </c>
       <c r="B41" t="s">
+        <v>375</v>
+      </c>
+      <c r="C41" t="s">
         <v>147</v>
       </c>
-      <c r="C41" t="s">
-        <v>247</v>
-      </c>
       <c r="D41" t="s">
-        <v>309</v>
+        <v>209</v>
       </c>
       <c r="E41" t="s">
-        <v>375</v>
+        <v>275</v>
       </c>
       <c r="F41" t="s">
-        <v>415</v>
+        <v>315</v>
       </c>
       <c r="G41" t="b">
         <v>0</v>
       </c>
       <c r="H41" t="s">
-        <v>455</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
+        <v>316</v>
+      </c>
+      <c r="I41" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>48</v>
       </c>
       <c r="B42" t="s">
+        <v>376</v>
+      </c>
+      <c r="C42" t="s">
         <v>148</v>
       </c>
-      <c r="C42" t="s">
-        <v>248</v>
-      </c>
       <c r="D42" t="s">
-        <v>309</v>
+        <v>209</v>
       </c>
       <c r="E42" t="s">
-        <v>376</v>
+        <v>276</v>
       </c>
       <c r="F42" t="s">
-        <v>415</v>
+        <v>315</v>
       </c>
       <c r="G42" t="b">
         <v>0</v>
       </c>
       <c r="H42" t="s">
-        <v>457</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
+        <v>318</v>
+      </c>
+      <c r="I42" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>49</v>
       </c>
       <c r="B43" t="s">
+        <v>377</v>
+      </c>
+      <c r="C43" t="s">
         <v>149</v>
       </c>
-      <c r="C43" t="s">
-        <v>249</v>
-      </c>
       <c r="D43" t="s">
-        <v>331</v>
+        <v>231</v>
       </c>
       <c r="E43" t="s">
-        <v>377</v>
+        <v>277</v>
       </c>
       <c r="F43" t="s">
-        <v>415</v>
+        <v>315</v>
       </c>
       <c r="G43" t="b">
         <v>0</v>
       </c>
       <c r="H43" t="s">
-        <v>455</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>50</v>
       </c>
       <c r="B44" t="s">
+        <v>378</v>
+      </c>
+      <c r="C44" t="s">
         <v>150</v>
       </c>
-      <c r="C44" t="s">
-        <v>250</v>
-      </c>
       <c r="D44" t="s">
-        <v>332</v>
+        <v>232</v>
       </c>
       <c r="E44" t="s">
-        <v>332</v>
+        <v>232</v>
       </c>
       <c r="F44" t="s">
-        <v>415</v>
+        <v>315</v>
       </c>
       <c r="G44" t="b">
         <v>1</v>
@@ -3001,50 +3650,53 @@
         <v>6</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>51</v>
       </c>
       <c r="B45" t="s">
+        <v>379</v>
+      </c>
+      <c r="C45" t="s">
         <v>151</v>
       </c>
-      <c r="C45" t="s">
-        <v>251</v>
-      </c>
       <c r="D45" t="s">
-        <v>310</v>
+        <v>210</v>
       </c>
       <c r="E45" t="s">
-        <v>378</v>
+        <v>278</v>
       </c>
       <c r="F45" t="s">
-        <v>427</v>
+        <v>380</v>
       </c>
       <c r="G45" t="b">
         <v>0</v>
       </c>
       <c r="H45" t="s">
-        <v>456</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
+        <v>317</v>
+      </c>
+      <c r="I45" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>52</v>
       </c>
       <c r="B46" t="s">
+        <v>381</v>
+      </c>
+      <c r="C46" t="s">
         <v>152</v>
       </c>
-      <c r="C46" t="s">
-        <v>252</v>
-      </c>
       <c r="D46" t="s">
-        <v>333</v>
+        <v>233</v>
       </c>
       <c r="E46" t="s">
-        <v>333</v>
+        <v>233</v>
       </c>
       <c r="F46" t="s">
-        <v>415</v>
+        <v>315</v>
       </c>
       <c r="G46" t="b">
         <v>1</v>
@@ -3053,50 +3705,50 @@
         <v>6</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>53</v>
       </c>
       <c r="B47" t="s">
+        <v>382</v>
+      </c>
+      <c r="C47" t="s">
         <v>153</v>
       </c>
-      <c r="C47" t="s">
-        <v>253</v>
-      </c>
       <c r="D47" t="s">
-        <v>334</v>
+        <v>234</v>
       </c>
       <c r="E47" t="s">
-        <v>379</v>
+        <v>279</v>
       </c>
       <c r="F47" t="s">
-        <v>415</v>
+        <v>315</v>
       </c>
       <c r="G47" t="b">
         <v>0</v>
       </c>
       <c r="H47" t="s">
-        <v>455</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>54</v>
       </c>
       <c r="B48" t="s">
+        <v>383</v>
+      </c>
+      <c r="C48" t="s">
         <v>154</v>
       </c>
-      <c r="C48" t="s">
-        <v>254</v>
-      </c>
       <c r="D48" t="s">
-        <v>335</v>
+        <v>235</v>
       </c>
       <c r="E48" t="s">
-        <v>335</v>
+        <v>235</v>
       </c>
       <c r="F48" t="s">
-        <v>415</v>
+        <v>315</v>
       </c>
       <c r="G48" t="b">
         <v>1</v>
@@ -3105,50 +3757,50 @@
         <v>6</v>
       </c>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>55</v>
       </c>
       <c r="B49" t="s">
+        <v>384</v>
+      </c>
+      <c r="C49" t="s">
         <v>155</v>
       </c>
-      <c r="C49" t="s">
-        <v>255</v>
-      </c>
       <c r="D49" t="s">
-        <v>309</v>
+        <v>209</v>
       </c>
       <c r="E49" t="s">
-        <v>380</v>
+        <v>280</v>
       </c>
       <c r="F49" t="s">
-        <v>415</v>
+        <v>315</v>
       </c>
       <c r="G49" t="b">
         <v>0</v>
       </c>
       <c r="H49" t="s">
-        <v>459</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>56</v>
       </c>
       <c r="B50" t="s">
+        <v>385</v>
+      </c>
+      <c r="C50" t="s">
         <v>156</v>
       </c>
-      <c r="C50" t="s">
-        <v>256</v>
-      </c>
       <c r="D50" t="s">
-        <v>336</v>
+        <v>236</v>
       </c>
       <c r="E50" t="s">
-        <v>336</v>
+        <v>236</v>
       </c>
       <c r="F50" t="s">
-        <v>415</v>
+        <v>315</v>
       </c>
       <c r="G50" t="b">
         <v>1</v>
@@ -3157,24 +3809,24 @@
         <v>6</v>
       </c>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>57</v>
       </c>
       <c r="B51" t="s">
+        <v>386</v>
+      </c>
+      <c r="C51" t="s">
         <v>157</v>
       </c>
-      <c r="C51" t="s">
-        <v>257</v>
-      </c>
       <c r="D51" t="s">
-        <v>337</v>
+        <v>237</v>
       </c>
       <c r="E51" t="s">
-        <v>337</v>
+        <v>237</v>
       </c>
       <c r="F51" t="s">
-        <v>415</v>
+        <v>315</v>
       </c>
       <c r="G51" t="b">
         <v>1</v>
@@ -3183,24 +3835,24 @@
         <v>6</v>
       </c>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>58</v>
       </c>
       <c r="B52" t="s">
+        <v>387</v>
+      </c>
+      <c r="C52" t="s">
         <v>158</v>
       </c>
-      <c r="C52" t="s">
-        <v>258</v>
-      </c>
       <c r="D52" t="s">
-        <v>338</v>
+        <v>238</v>
       </c>
       <c r="E52" t="s">
-        <v>338</v>
+        <v>238</v>
       </c>
       <c r="F52" t="s">
-        <v>415</v>
+        <v>315</v>
       </c>
       <c r="G52" t="b">
         <v>1</v>
@@ -3209,128 +3861,137 @@
         <v>6</v>
       </c>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>59</v>
       </c>
       <c r="B53" t="s">
+        <v>388</v>
+      </c>
+      <c r="C53" t="s">
         <v>159</v>
       </c>
-      <c r="C53" t="s">
-        <v>259</v>
-      </c>
       <c r="D53" t="s">
-        <v>310</v>
+        <v>389</v>
       </c>
       <c r="E53" t="s">
-        <v>381</v>
+        <v>281</v>
       </c>
       <c r="F53" t="s">
-        <v>428</v>
+        <v>315</v>
       </c>
       <c r="G53" t="b">
         <v>0</v>
       </c>
       <c r="H53" t="s">
-        <v>456</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.3">
+        <v>317</v>
+      </c>
+      <c r="I53" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>60</v>
       </c>
       <c r="B54" t="s">
+        <v>390</v>
+      </c>
+      <c r="C54" t="s">
         <v>160</v>
       </c>
-      <c r="C54" t="s">
-        <v>260</v>
-      </c>
       <c r="D54" t="s">
-        <v>310</v>
+        <v>282</v>
       </c>
       <c r="E54" t="s">
-        <v>382</v>
+        <v>282</v>
       </c>
       <c r="F54" t="s">
-        <v>429</v>
+        <v>315</v>
       </c>
       <c r="G54" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H54" t="s">
-        <v>456</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>61</v>
       </c>
       <c r="B55" t="s">
+        <v>391</v>
+      </c>
+      <c r="C55" t="s">
         <v>161</v>
       </c>
-      <c r="C55" t="s">
-        <v>261</v>
-      </c>
       <c r="D55" t="s">
-        <v>310</v>
+        <v>210</v>
       </c>
       <c r="E55" t="s">
-        <v>383</v>
+        <v>283</v>
       </c>
       <c r="F55" t="s">
-        <v>430</v>
+        <v>392</v>
       </c>
       <c r="G55" t="b">
         <v>0</v>
       </c>
       <c r="H55" t="s">
-        <v>456</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.3">
+        <v>317</v>
+      </c>
+      <c r="I55" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>62</v>
       </c>
       <c r="B56" t="s">
+        <v>393</v>
+      </c>
+      <c r="C56" t="s">
         <v>162</v>
       </c>
-      <c r="C56" t="s">
-        <v>262</v>
-      </c>
       <c r="D56" t="s">
-        <v>310</v>
+        <v>210</v>
       </c>
       <c r="E56" t="s">
-        <v>384</v>
+        <v>284</v>
       </c>
       <c r="F56" t="s">
-        <v>431</v>
+        <v>394</v>
       </c>
       <c r="G56" t="b">
         <v>0</v>
       </c>
       <c r="H56" t="s">
-        <v>456</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.3">
+        <v>317</v>
+      </c>
+      <c r="I56" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>63</v>
       </c>
       <c r="B57" t="s">
+        <v>395</v>
+      </c>
+      <c r="C57" t="s">
         <v>163</v>
       </c>
-      <c r="C57" t="s">
-        <v>263</v>
-      </c>
       <c r="D57" t="s">
-        <v>339</v>
+        <v>239</v>
       </c>
       <c r="E57" t="s">
-        <v>339</v>
+        <v>239</v>
       </c>
       <c r="F57" t="s">
-        <v>415</v>
+        <v>315</v>
       </c>
       <c r="G57" t="b">
         <v>1</v>
@@ -3339,76 +4000,82 @@
         <v>6</v>
       </c>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>64</v>
       </c>
       <c r="B58" t="s">
+        <v>396</v>
+      </c>
+      <c r="C58" t="s">
         <v>164</v>
       </c>
-      <c r="C58" t="s">
-        <v>264</v>
-      </c>
       <c r="D58" t="s">
-        <v>309</v>
+        <v>209</v>
       </c>
       <c r="E58" t="s">
-        <v>385</v>
+        <v>285</v>
       </c>
       <c r="F58" t="s">
-        <v>415</v>
+        <v>315</v>
       </c>
       <c r="G58" t="b">
         <v>0</v>
       </c>
       <c r="H58" t="s">
-        <v>455</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.3">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>65</v>
       </c>
       <c r="B59" t="s">
+        <v>397</v>
+      </c>
+      <c r="C59" t="s">
         <v>165</v>
       </c>
-      <c r="C59" t="s">
-        <v>265</v>
-      </c>
       <c r="D59" t="s">
-        <v>310</v>
+        <v>210</v>
       </c>
       <c r="E59" t="s">
-        <v>386</v>
+        <v>286</v>
       </c>
       <c r="F59" t="s">
-        <v>432</v>
+        <v>398</v>
       </c>
       <c r="G59" t="b">
         <v>0</v>
       </c>
       <c r="H59" t="s">
-        <v>456</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.3">
+        <v>317</v>
+      </c>
+      <c r="I59" t="s">
+        <v>324</v>
+      </c>
+      <c r="J59" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>66</v>
       </c>
       <c r="B60" t="s">
+        <v>399</v>
+      </c>
+      <c r="C60" t="s">
         <v>166</v>
       </c>
-      <c r="C60" t="s">
-        <v>266</v>
-      </c>
       <c r="D60" t="s">
-        <v>340</v>
+        <v>240</v>
       </c>
       <c r="E60" t="s">
-        <v>340</v>
+        <v>240</v>
       </c>
       <c r="F60" t="s">
-        <v>415</v>
+        <v>315</v>
       </c>
       <c r="G60" t="b">
         <v>1</v>
@@ -3417,76 +4084,82 @@
         <v>6</v>
       </c>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>67</v>
       </c>
       <c r="B61" t="s">
+        <v>400</v>
+      </c>
+      <c r="C61" t="s">
         <v>167</v>
       </c>
-      <c r="C61" t="s">
-        <v>267</v>
-      </c>
       <c r="D61" t="s">
-        <v>310</v>
+        <v>210</v>
       </c>
       <c r="E61" t="s">
-        <v>387</v>
+        <v>287</v>
       </c>
       <c r="F61" t="s">
-        <v>433</v>
+        <v>401</v>
       </c>
       <c r="G61" t="b">
         <v>0</v>
       </c>
       <c r="H61" t="s">
-        <v>456</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.3">
+        <v>317</v>
+      </c>
+      <c r="I61" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>68</v>
       </c>
       <c r="B62" t="s">
+        <v>402</v>
+      </c>
+      <c r="C62" t="s">
         <v>168</v>
       </c>
-      <c r="C62" t="s">
-        <v>268</v>
-      </c>
       <c r="D62" t="s">
-        <v>310</v>
+        <v>210</v>
       </c>
       <c r="E62" t="s">
-        <v>388</v>
+        <v>288</v>
       </c>
       <c r="F62" t="s">
-        <v>434</v>
+        <v>403</v>
       </c>
       <c r="G62" t="b">
         <v>0</v>
       </c>
       <c r="H62" t="s">
-        <v>456</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.3">
+        <v>317</v>
+      </c>
+      <c r="I62" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>69</v>
       </c>
       <c r="B63" t="s">
+        <v>404</v>
+      </c>
+      <c r="C63" t="s">
         <v>169</v>
       </c>
-      <c r="C63" t="s">
-        <v>269</v>
-      </c>
       <c r="D63" t="s">
-        <v>341</v>
+        <v>241</v>
       </c>
       <c r="E63" t="s">
-        <v>341</v>
+        <v>241</v>
       </c>
       <c r="F63" t="s">
-        <v>415</v>
+        <v>315</v>
       </c>
       <c r="G63" t="b">
         <v>1</v>
@@ -3495,154 +4168,175 @@
         <v>6</v>
       </c>
     </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>70</v>
       </c>
       <c r="B64" t="s">
+        <v>405</v>
+      </c>
+      <c r="C64" t="s">
         <v>170</v>
       </c>
-      <c r="C64" t="s">
-        <v>270</v>
-      </c>
       <c r="D64" t="s">
-        <v>310</v>
+        <v>210</v>
       </c>
       <c r="E64" t="s">
-        <v>389</v>
+        <v>289</v>
       </c>
       <c r="F64" t="s">
-        <v>435</v>
+        <v>406</v>
       </c>
       <c r="G64" t="b">
         <v>0</v>
       </c>
       <c r="H64" t="s">
-        <v>456</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.3">
+        <v>317</v>
+      </c>
+      <c r="I64" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>71</v>
       </c>
       <c r="B65" t="s">
+        <v>407</v>
+      </c>
+      <c r="C65" t="s">
         <v>171</v>
       </c>
-      <c r="C65" t="s">
-        <v>271</v>
-      </c>
       <c r="D65" t="s">
-        <v>310</v>
+        <v>210</v>
       </c>
       <c r="E65" t="s">
-        <v>390</v>
+        <v>290</v>
       </c>
       <c r="F65" t="s">
-        <v>436</v>
+        <v>408</v>
       </c>
       <c r="G65" t="b">
         <v>0</v>
       </c>
       <c r="H65" t="s">
-        <v>456</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.3">
+        <v>317</v>
+      </c>
+      <c r="I65" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>72</v>
       </c>
       <c r="B66" t="s">
+        <v>409</v>
+      </c>
+      <c r="C66" t="s">
         <v>172</v>
       </c>
-      <c r="C66" t="s">
-        <v>272</v>
-      </c>
       <c r="D66" t="s">
-        <v>309</v>
+        <v>209</v>
       </c>
       <c r="E66" t="s">
-        <v>391</v>
+        <v>291</v>
       </c>
       <c r="F66" t="s">
-        <v>415</v>
+        <v>315</v>
       </c>
       <c r="G66" t="b">
         <v>0</v>
       </c>
       <c r="H66" t="s">
-        <v>455</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.3">
+        <v>316</v>
+      </c>
+      <c r="I66" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>73</v>
       </c>
       <c r="B67" t="s">
+        <v>410</v>
+      </c>
+      <c r="C67" t="s">
         <v>173</v>
       </c>
-      <c r="C67" t="s">
-        <v>273</v>
-      </c>
       <c r="D67" t="s">
-        <v>310</v>
+        <v>210</v>
       </c>
       <c r="E67" t="s">
-        <v>392</v>
+        <v>292</v>
       </c>
       <c r="F67" t="s">
-        <v>437</v>
+        <v>411</v>
       </c>
       <c r="G67" t="b">
         <v>0</v>
       </c>
       <c r="H67" t="s">
-        <v>456</v>
-      </c>
-    </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.3">
+        <v>317</v>
+      </c>
+      <c r="I67" t="s">
+        <v>320</v>
+      </c>
+      <c r="J67" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>74</v>
       </c>
       <c r="B68" t="s">
+        <v>412</v>
+      </c>
+      <c r="C68" t="s">
         <v>174</v>
       </c>
-      <c r="C68" t="s">
-        <v>274</v>
-      </c>
       <c r="D68" t="s">
-        <v>310</v>
+        <v>210</v>
       </c>
       <c r="E68" t="s">
-        <v>393</v>
+        <v>293</v>
       </c>
       <c r="F68" t="s">
-        <v>438</v>
+        <v>413</v>
       </c>
       <c r="G68" t="b">
         <v>0</v>
       </c>
       <c r="H68" t="s">
-        <v>456</v>
-      </c>
-    </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.3">
+        <v>317</v>
+      </c>
+      <c r="I68" t="s">
+        <v>320</v>
+      </c>
+      <c r="J68" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>75</v>
       </c>
       <c r="B69" t="s">
+        <v>414</v>
+      </c>
+      <c r="C69" t="s">
         <v>175</v>
       </c>
-      <c r="C69" t="s">
-        <v>275</v>
-      </c>
       <c r="D69" t="s">
-        <v>342</v>
+        <v>242</v>
       </c>
       <c r="E69" t="s">
-        <v>342</v>
+        <v>242</v>
       </c>
       <c r="F69" t="s">
-        <v>415</v>
+        <v>315</v>
       </c>
       <c r="G69" t="b">
         <v>1</v>
@@ -3651,76 +4345,88 @@
         <v>6</v>
       </c>
     </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>76</v>
       </c>
       <c r="B70" t="s">
+        <v>415</v>
+      </c>
+      <c r="C70" t="s">
         <v>176</v>
       </c>
-      <c r="C70" t="s">
-        <v>276</v>
-      </c>
       <c r="D70" t="s">
-        <v>310</v>
+        <v>210</v>
       </c>
       <c r="E70" t="s">
-        <v>394</v>
+        <v>294</v>
       </c>
       <c r="F70" t="s">
-        <v>439</v>
+        <v>416</v>
       </c>
       <c r="G70" t="b">
         <v>0</v>
       </c>
       <c r="H70" t="s">
-        <v>456</v>
-      </c>
-    </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.3">
+        <v>317</v>
+      </c>
+      <c r="I70" t="s">
+        <v>320</v>
+      </c>
+      <c r="J70" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>77</v>
       </c>
       <c r="B71" t="s">
+        <v>417</v>
+      </c>
+      <c r="C71" t="s">
         <v>177</v>
       </c>
-      <c r="C71" t="s">
-        <v>277</v>
-      </c>
       <c r="D71" t="s">
-        <v>343</v>
+        <v>243</v>
       </c>
       <c r="E71" t="s">
-        <v>395</v>
+        <v>295</v>
       </c>
       <c r="F71" t="s">
-        <v>415</v>
+        <v>315</v>
       </c>
       <c r="G71" t="b">
         <v>0</v>
       </c>
       <c r="H71" t="s">
-        <v>457</v>
-      </c>
-    </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.3">
+        <v>318</v>
+      </c>
+      <c r="I71" t="s">
+        <v>320</v>
+      </c>
+      <c r="J71" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>78</v>
       </c>
       <c r="B72" t="s">
+        <v>418</v>
+      </c>
+      <c r="C72" t="s">
         <v>178</v>
       </c>
-      <c r="C72" t="s">
-        <v>278</v>
-      </c>
       <c r="D72" t="s">
-        <v>344</v>
+        <v>244</v>
       </c>
       <c r="E72" t="s">
-        <v>344</v>
+        <v>244</v>
       </c>
       <c r="F72" t="s">
-        <v>415</v>
+        <v>315</v>
       </c>
       <c r="G72" t="b">
         <v>1</v>
@@ -3729,50 +4435,53 @@
         <v>6</v>
       </c>
     </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>79</v>
       </c>
       <c r="B73" t="s">
+        <v>419</v>
+      </c>
+      <c r="C73" t="s">
         <v>179</v>
       </c>
-      <c r="C73" t="s">
-        <v>279</v>
-      </c>
       <c r="D73" t="s">
-        <v>310</v>
+        <v>210</v>
       </c>
       <c r="E73" t="s">
-        <v>396</v>
+        <v>296</v>
       </c>
       <c r="F73" t="s">
-        <v>440</v>
+        <v>420</v>
       </c>
       <c r="G73" t="b">
         <v>0</v>
       </c>
       <c r="H73" t="s">
-        <v>456</v>
-      </c>
-    </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.3">
+        <v>317</v>
+      </c>
+      <c r="I73" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>80</v>
       </c>
       <c r="B74" t="s">
+        <v>421</v>
+      </c>
+      <c r="C74" t="s">
         <v>180</v>
       </c>
-      <c r="C74" t="s">
-        <v>280</v>
-      </c>
       <c r="D74" t="s">
-        <v>345</v>
+        <v>245</v>
       </c>
       <c r="E74" t="s">
-        <v>345</v>
+        <v>245</v>
       </c>
       <c r="F74" t="s">
-        <v>415</v>
+        <v>315</v>
       </c>
       <c r="G74" t="b">
         <v>1</v>
@@ -3781,232 +4490,262 @@
         <v>6</v>
       </c>
     </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>81</v>
       </c>
       <c r="B75" t="s">
+        <v>422</v>
+      </c>
+      <c r="C75" t="s">
         <v>181</v>
       </c>
-      <c r="C75" t="s">
-        <v>281</v>
-      </c>
       <c r="D75" t="s">
-        <v>310</v>
+        <v>210</v>
       </c>
       <c r="E75" t="s">
-        <v>397</v>
+        <v>297</v>
       </c>
       <c r="F75" t="s">
-        <v>441</v>
+        <v>423</v>
       </c>
       <c r="G75" t="b">
         <v>0</v>
       </c>
       <c r="H75" t="s">
-        <v>456</v>
-      </c>
-    </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.3">
+        <v>317</v>
+      </c>
+      <c r="I75" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>82</v>
       </c>
       <c r="B76" t="s">
+        <v>424</v>
+      </c>
+      <c r="C76" t="s">
         <v>182</v>
       </c>
-      <c r="C76" t="s">
-        <v>282</v>
-      </c>
       <c r="D76" t="s">
-        <v>310</v>
+        <v>210</v>
       </c>
       <c r="E76" t="s">
-        <v>398</v>
+        <v>298</v>
       </c>
       <c r="F76" t="s">
-        <v>442</v>
+        <v>425</v>
       </c>
       <c r="G76" t="b">
         <v>0</v>
       </c>
       <c r="H76" t="s">
-        <v>456</v>
-      </c>
-    </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.3">
+        <v>317</v>
+      </c>
+      <c r="I76" t="s">
+        <v>320</v>
+      </c>
+      <c r="J76" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>83</v>
       </c>
       <c r="B77" t="s">
+        <v>426</v>
+      </c>
+      <c r="C77" t="s">
         <v>183</v>
       </c>
-      <c r="C77" t="s">
-        <v>283</v>
-      </c>
       <c r="D77" t="s">
-        <v>346</v>
+        <v>246</v>
       </c>
       <c r="E77" t="s">
-        <v>399</v>
+        <v>299</v>
       </c>
       <c r="F77" t="s">
-        <v>415</v>
+        <v>315</v>
       </c>
       <c r="G77" t="b">
         <v>0</v>
       </c>
       <c r="H77" t="s">
-        <v>459</v>
-      </c>
-    </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.3">
+        <v>324</v>
+      </c>
+      <c r="I77" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>84</v>
       </c>
       <c r="B78" t="s">
+        <v>427</v>
+      </c>
+      <c r="C78" t="s">
         <v>184</v>
       </c>
-      <c r="C78" t="s">
-        <v>284</v>
-      </c>
       <c r="D78" t="s">
-        <v>310</v>
+        <v>210</v>
       </c>
       <c r="E78" t="s">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="F78" t="s">
-        <v>443</v>
+        <v>428</v>
       </c>
       <c r="G78" t="b">
         <v>0</v>
       </c>
       <c r="H78" t="s">
-        <v>456</v>
-      </c>
-    </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.3">
+        <v>317</v>
+      </c>
+      <c r="I78" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>85</v>
       </c>
       <c r="B79" t="s">
+        <v>429</v>
+      </c>
+      <c r="C79" t="s">
         <v>185</v>
       </c>
-      <c r="C79" t="s">
-        <v>285</v>
-      </c>
       <c r="D79" t="s">
-        <v>310</v>
+        <v>210</v>
       </c>
       <c r="E79" t="s">
-        <v>401</v>
+        <v>301</v>
       </c>
       <c r="F79" t="s">
-        <v>444</v>
+        <v>430</v>
       </c>
       <c r="G79" t="b">
         <v>0</v>
       </c>
       <c r="H79" t="s">
-        <v>456</v>
-      </c>
-    </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.3">
+        <v>317</v>
+      </c>
+      <c r="I79" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>86</v>
       </c>
       <c r="B80" t="s">
+        <v>431</v>
+      </c>
+      <c r="C80" t="s">
         <v>186</v>
       </c>
-      <c r="C80" t="s">
-        <v>286</v>
-      </c>
       <c r="D80" t="s">
-        <v>310</v>
+        <v>210</v>
       </c>
       <c r="E80" t="s">
-        <v>402</v>
+        <v>302</v>
       </c>
       <c r="F80" t="s">
-        <v>445</v>
+        <v>432</v>
       </c>
       <c r="G80" t="b">
         <v>0</v>
       </c>
       <c r="H80" t="s">
-        <v>456</v>
-      </c>
-    </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.3">
+        <v>317</v>
+      </c>
+      <c r="I80" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>87</v>
       </c>
       <c r="B81" t="s">
+        <v>433</v>
+      </c>
+      <c r="C81" t="s">
         <v>187</v>
       </c>
-      <c r="C81" t="s">
-        <v>287</v>
-      </c>
       <c r="D81" t="s">
-        <v>310</v>
+        <v>210</v>
       </c>
       <c r="E81" t="s">
+        <v>217</v>
+      </c>
+      <c r="F81" t="s">
+        <v>434</v>
+      </c>
+      <c r="G81" t="b">
+        <v>0</v>
+      </c>
+      <c r="H81" t="s">
         <v>317</v>
       </c>
-      <c r="F81" t="s">
-        <v>446</v>
-      </c>
-      <c r="G81" t="b">
-        <v>0</v>
-      </c>
-      <c r="H81" t="s">
-        <v>456</v>
-      </c>
-    </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I81" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>88</v>
       </c>
       <c r="B82" t="s">
+        <v>435</v>
+      </c>
+      <c r="C82" t="s">
         <v>188</v>
       </c>
-      <c r="C82" t="s">
-        <v>288</v>
-      </c>
       <c r="D82" t="s">
-        <v>310</v>
+        <v>210</v>
       </c>
       <c r="E82" t="s">
-        <v>403</v>
+        <v>303</v>
       </c>
       <c r="F82" t="s">
-        <v>447</v>
+        <v>436</v>
       </c>
       <c r="G82" t="b">
         <v>0</v>
       </c>
       <c r="H82" t="s">
-        <v>456</v>
-      </c>
-    </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.3">
+        <v>317</v>
+      </c>
+      <c r="I82" t="s">
+        <v>320</v>
+      </c>
+      <c r="J82" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>89</v>
       </c>
       <c r="B83" t="s">
+        <v>437</v>
+      </c>
+      <c r="C83" t="s">
         <v>189</v>
       </c>
-      <c r="C83" t="s">
-        <v>289</v>
-      </c>
       <c r="D83" t="s">
-        <v>347</v>
+        <v>247</v>
       </c>
       <c r="E83" t="s">
-        <v>347</v>
+        <v>247</v>
       </c>
       <c r="F83" t="s">
-        <v>415</v>
+        <v>315</v>
       </c>
       <c r="G83" t="b">
         <v>1</v>
@@ -4015,76 +4754,82 @@
         <v>6</v>
       </c>
     </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>90</v>
       </c>
       <c r="B84" t="s">
+        <v>438</v>
+      </c>
+      <c r="C84" t="s">
         <v>190</v>
       </c>
-      <c r="C84" t="s">
-        <v>290</v>
-      </c>
       <c r="D84" t="s">
-        <v>309</v>
+        <v>209</v>
       </c>
       <c r="E84" t="s">
-        <v>404</v>
+        <v>304</v>
       </c>
       <c r="F84" t="s">
-        <v>415</v>
+        <v>315</v>
       </c>
       <c r="G84" t="b">
         <v>0</v>
       </c>
       <c r="H84" t="s">
-        <v>458</v>
-      </c>
-    </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.3">
+        <v>324</v>
+      </c>
+      <c r="I84" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>91</v>
       </c>
       <c r="B85" t="s">
+        <v>439</v>
+      </c>
+      <c r="C85" t="s">
         <v>191</v>
       </c>
-      <c r="C85" t="s">
-        <v>291</v>
-      </c>
       <c r="D85" t="s">
-        <v>310</v>
+        <v>210</v>
       </c>
       <c r="E85" t="s">
-        <v>405</v>
+        <v>305</v>
       </c>
       <c r="F85" t="s">
-        <v>448</v>
+        <v>440</v>
       </c>
       <c r="G85" t="b">
         <v>0</v>
       </c>
       <c r="H85" t="s">
-        <v>456</v>
-      </c>
-    </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.3">
+        <v>317</v>
+      </c>
+      <c r="I85" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>92</v>
       </c>
       <c r="B86" t="s">
+        <v>441</v>
+      </c>
+      <c r="C86" t="s">
         <v>192</v>
       </c>
-      <c r="C86" t="s">
-        <v>292</v>
-      </c>
       <c r="D86" t="s">
-        <v>348</v>
+        <v>248</v>
       </c>
       <c r="E86" t="s">
-        <v>348</v>
+        <v>248</v>
       </c>
       <c r="F86" t="s">
-        <v>415</v>
+        <v>315</v>
       </c>
       <c r="G86" t="b">
         <v>1</v>
@@ -4093,76 +4838,85 @@
         <v>6</v>
       </c>
     </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>93</v>
       </c>
       <c r="B87" t="s">
+        <v>442</v>
+      </c>
+      <c r="C87" t="s">
         <v>193</v>
       </c>
-      <c r="C87" t="s">
-        <v>293</v>
-      </c>
       <c r="D87" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="E87" t="s">
-        <v>406</v>
+        <v>306</v>
       </c>
       <c r="F87" t="s">
-        <v>449</v>
+        <v>315</v>
       </c>
       <c r="G87" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H87" t="s">
-        <v>456</v>
-      </c>
-    </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>94</v>
       </c>
       <c r="B88" t="s">
+        <v>443</v>
+      </c>
+      <c r="C88" t="s">
         <v>194</v>
       </c>
-      <c r="C88" t="s">
-        <v>294</v>
-      </c>
       <c r="D88" t="s">
-        <v>310</v>
+        <v>210</v>
       </c>
       <c r="E88" t="s">
-        <v>407</v>
+        <v>307</v>
       </c>
       <c r="F88" t="s">
-        <v>450</v>
+        <v>444</v>
       </c>
       <c r="G88" t="b">
         <v>0</v>
       </c>
       <c r="H88" t="s">
-        <v>456</v>
-      </c>
-    </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.3">
+        <v>317</v>
+      </c>
+      <c r="I88" t="s">
+        <v>320</v>
+      </c>
+      <c r="J88" t="s">
+        <v>324</v>
+      </c>
+      <c r="K88" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>95</v>
       </c>
       <c r="B89" t="s">
+        <v>445</v>
+      </c>
+      <c r="C89" t="s">
         <v>195</v>
       </c>
-      <c r="C89" t="s">
-        <v>295</v>
-      </c>
       <c r="D89" t="s">
-        <v>349</v>
+        <v>249</v>
       </c>
       <c r="E89" t="s">
-        <v>349</v>
+        <v>249</v>
       </c>
       <c r="F89" t="s">
-        <v>415</v>
+        <v>315</v>
       </c>
       <c r="G89" t="b">
         <v>1</v>
@@ -4171,24 +4925,24 @@
         <v>6</v>
       </c>
     </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>96</v>
       </c>
       <c r="B90" t="s">
+        <v>446</v>
+      </c>
+      <c r="C90" t="s">
         <v>196</v>
       </c>
-      <c r="C90" t="s">
-        <v>296</v>
-      </c>
       <c r="D90" t="s">
-        <v>350</v>
+        <v>250</v>
       </c>
       <c r="E90" t="s">
-        <v>350</v>
+        <v>250</v>
       </c>
       <c r="F90" t="s">
-        <v>415</v>
+        <v>315</v>
       </c>
       <c r="G90" t="b">
         <v>1</v>
@@ -4197,24 +4951,24 @@
         <v>6</v>
       </c>
     </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>97</v>
       </c>
       <c r="B91" t="s">
+        <v>447</v>
+      </c>
+      <c r="C91" t="s">
         <v>197</v>
       </c>
-      <c r="C91" t="s">
-        <v>297</v>
-      </c>
       <c r="D91" t="s">
-        <v>351</v>
+        <v>251</v>
       </c>
       <c r="E91" t="s">
-        <v>351</v>
+        <v>251</v>
       </c>
       <c r="F91" t="s">
-        <v>415</v>
+        <v>315</v>
       </c>
       <c r="G91" t="b">
         <v>1</v>
@@ -4223,76 +4977,76 @@
         <v>6</v>
       </c>
     </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>98</v>
       </c>
       <c r="B92" t="s">
+        <v>448</v>
+      </c>
+      <c r="C92" t="s">
         <v>198</v>
       </c>
-      <c r="C92" t="s">
-        <v>298</v>
-      </c>
       <c r="D92" t="s">
-        <v>309</v>
+        <v>209</v>
       </c>
       <c r="E92" t="s">
-        <v>408</v>
+        <v>308</v>
       </c>
       <c r="F92" t="s">
-        <v>415</v>
+        <v>315</v>
       </c>
       <c r="G92" t="b">
         <v>0</v>
       </c>
       <c r="H92" t="s">
-        <v>455</v>
-      </c>
-    </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.3">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>99</v>
       </c>
       <c r="B93" t="s">
+        <v>449</v>
+      </c>
+      <c r="C93" t="s">
         <v>199</v>
       </c>
-      <c r="C93" t="s">
-        <v>299</v>
-      </c>
       <c r="D93" t="s">
+        <v>209</v>
+      </c>
+      <c r="E93" t="s">
         <v>309</v>
       </c>
-      <c r="E93" t="s">
-        <v>409</v>
-      </c>
       <c r="F93" t="s">
-        <v>415</v>
+        <v>315</v>
       </c>
       <c r="G93" t="b">
         <v>0</v>
       </c>
       <c r="H93" t="s">
-        <v>458</v>
-      </c>
-    </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.3">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>100</v>
       </c>
       <c r="B94" t="s">
+        <v>450</v>
+      </c>
+      <c r="C94" t="s">
         <v>200</v>
       </c>
-      <c r="C94" t="s">
-        <v>300</v>
-      </c>
       <c r="D94" t="s">
-        <v>352</v>
+        <v>252</v>
       </c>
       <c r="E94" t="s">
-        <v>352</v>
+        <v>252</v>
       </c>
       <c r="F94" t="s">
-        <v>415</v>
+        <v>315</v>
       </c>
       <c r="G94" t="b">
         <v>1</v>
@@ -4301,24 +5055,24 @@
         <v>6</v>
       </c>
     </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>101</v>
       </c>
       <c r="B95" t="s">
+        <v>451</v>
+      </c>
+      <c r="C95" t="s">
         <v>201</v>
       </c>
-      <c r="C95" t="s">
-        <v>301</v>
-      </c>
       <c r="D95" t="s">
-        <v>353</v>
+        <v>253</v>
       </c>
       <c r="E95" t="s">
-        <v>353</v>
+        <v>253</v>
       </c>
       <c r="F95" t="s">
-        <v>415</v>
+        <v>315</v>
       </c>
       <c r="G95" t="b">
         <v>1</v>
@@ -4327,128 +5081,143 @@
         <v>6</v>
       </c>
     </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>102</v>
       </c>
       <c r="B96" t="s">
+        <v>452</v>
+      </c>
+      <c r="C96" t="s">
         <v>202</v>
       </c>
-      <c r="C96" t="s">
-        <v>302</v>
-      </c>
       <c r="D96" t="s">
-        <v>309</v>
+        <v>209</v>
       </c>
       <c r="E96" t="s">
-        <v>410</v>
+        <v>310</v>
       </c>
       <c r="F96" t="s">
-        <v>415</v>
+        <v>315</v>
       </c>
       <c r="G96" t="b">
         <v>0</v>
       </c>
       <c r="H96" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.3">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="97" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>103</v>
       </c>
       <c r="B97" t="s">
+        <v>453</v>
+      </c>
+      <c r="C97" t="s">
         <v>203</v>
       </c>
-      <c r="C97" t="s">
-        <v>303</v>
-      </c>
       <c r="D97" t="s">
-        <v>310</v>
+        <v>210</v>
       </c>
       <c r="E97" t="s">
-        <v>411</v>
+        <v>311</v>
       </c>
       <c r="F97" t="s">
-        <v>451</v>
+        <v>454</v>
       </c>
       <c r="G97" t="b">
         <v>0</v>
       </c>
       <c r="H97" t="s">
-        <v>456</v>
-      </c>
-    </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.3">
+        <v>317</v>
+      </c>
+      <c r="I97" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="98" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>104</v>
       </c>
       <c r="B98" t="s">
+        <v>455</v>
+      </c>
+      <c r="C98" t="s">
         <v>204</v>
       </c>
-      <c r="C98" t="s">
-        <v>304</v>
-      </c>
       <c r="D98" t="s">
-        <v>310</v>
+        <v>210</v>
       </c>
       <c r="E98" t="s">
-        <v>412</v>
+        <v>312</v>
       </c>
       <c r="F98" t="s">
-        <v>452</v>
+        <v>456</v>
       </c>
       <c r="G98" t="b">
         <v>0</v>
       </c>
       <c r="H98" t="s">
-        <v>456</v>
-      </c>
-    </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.3">
+        <v>317</v>
+      </c>
+      <c r="I98" t="s">
+        <v>320</v>
+      </c>
+      <c r="J98" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="99" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
         <v>105</v>
       </c>
       <c r="B99" t="s">
+        <v>457</v>
+      </c>
+      <c r="C99" t="s">
         <v>205</v>
       </c>
-      <c r="C99" t="s">
-        <v>305</v>
-      </c>
       <c r="D99" t="s">
-        <v>310</v>
+        <v>210</v>
       </c>
       <c r="E99" t="s">
-        <v>413</v>
+        <v>313</v>
       </c>
       <c r="F99" t="s">
-        <v>453</v>
+        <v>458</v>
       </c>
       <c r="G99" t="b">
         <v>0</v>
       </c>
       <c r="H99" t="s">
-        <v>456</v>
-      </c>
-    </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.3">
+        <v>317</v>
+      </c>
+      <c r="I99" t="s">
+        <v>320</v>
+      </c>
+      <c r="J99" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="100" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>106</v>
       </c>
       <c r="B100" t="s">
+        <v>459</v>
+      </c>
+      <c r="C100" t="s">
         <v>206</v>
       </c>
-      <c r="C100" t="s">
-        <v>306</v>
-      </c>
       <c r="D100" t="s">
-        <v>327</v>
+        <v>227</v>
       </c>
       <c r="E100" t="s">
-        <v>327</v>
+        <v>227</v>
       </c>
       <c r="F100" t="s">
-        <v>415</v>
+        <v>315</v>
       </c>
       <c r="G100" t="b">
         <v>1</v>
@@ -4457,30 +5226,33 @@
         <v>6</v>
       </c>
     </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
         <v>107</v>
       </c>
       <c r="B101" t="s">
+        <v>460</v>
+      </c>
+      <c r="C101" t="s">
         <v>207</v>
       </c>
-      <c r="C101" t="s">
-        <v>307</v>
-      </c>
       <c r="D101" t="s">
-        <v>310</v>
+        <v>210</v>
       </c>
       <c r="E101" t="s">
-        <v>414</v>
+        <v>314</v>
       </c>
       <c r="F101" t="s">
-        <v>454</v>
+        <v>461</v>
       </c>
       <c r="G101" t="b">
         <v>0</v>
       </c>
       <c r="H101" t="s">
-        <v>456</v>
+        <v>317</v>
+      </c>
+      <c r="I101" t="s">
+        <v>316</v>
       </c>
     </row>
   </sheetData>
